--- a/lab4/Lab 4 data.xlsx
+++ b/lab4/Lab 4 data.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4444DB28-8C87-40EB-9624-05D2AD18A806}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4E55CD-6991-4EA3-801B-B1977CAD76B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="correlation plot" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Distance to Maps Box</t>
   </si>
@@ -63,28 +70,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Distance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t xml:space="preserve">correlation = </t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>Guessed_Distance</t>
+  </si>
+  <si>
+    <t>True_Distance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -101,7 +138,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -124,14 +161,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -147,6 +230,2311 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Correlation plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'correlation plot'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'correlation plot'!$C$3:$C$202</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>-0.6929474515680909</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33538431008298297</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98646156289478237</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99888779372052783</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55768219541713415</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.9565462539088037</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.3407117415320553</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.28872654661224051</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.79292358172916344</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.84723898891972926</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.38549880928748081</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2887438338735163E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5502251954486868</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.1982468895713154</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.45711380055212486</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.1371055259209574E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3331166117701059</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.88978002212796636</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.25407363414534562</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.2271137544162376</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.1869119347025689</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.46598731290205608</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.0199149416014004E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.76131053370543578</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.27118734064447175</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.2832187899675819E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-7.1855261525611655E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.87279541637643032</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.5190318441747358</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.35126369604891772</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.12148580955066936</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.23272106165483908</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.2065671622140512</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.11568057493393982</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.64966331645590869</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.52295728112621964</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.79328379913609381</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.11186749191399788</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.15196342874527807</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.16483308205758271</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.56355463931151561</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.28105668605394701</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0877808599623473</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.5567760991787147</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.93461180343752115</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.98962651640904464</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.61439938076982</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.1703046747459553</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.7234892665415134</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.86726832842570845</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.2069239780065684</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.37165296891604144</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.3554318994447771</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-1.3552982982502193</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.4919633721313868</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.70931986849605255</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.67080003269309696</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-2.4139814557016241</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.3140879949305553</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.91874254554588164</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.40149133206819521</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.33020861234310711</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.85264831490000526</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.10737746155814105</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.94016933285374371</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.47081318721650928</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.34558918998505445</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-2.1068659540285695</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.83596551311441125</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.67549878312827705</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.2084737531531204</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-1.0162822107368312</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-1.9228329818160086</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.3091533509962896</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.93425873448193386</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.28736847001291604</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76364908177198054</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.61539329573980972</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-2.1512512046985734</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.38251100533080301</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.58740389576047147</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.2977902730173336</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.9880535508349696</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.48377226083272301</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.48320707018378545</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.76194899094497748</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-1.3917799111235409</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-8.6393520077373387E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.65290799791289944</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.80166217754255953</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-0.62507929833117359</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.2473244389973464</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.41640305485270351</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.60514658728251891</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.86515636404723628</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.3888802984802846</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.8343925516386127E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.2659381548417543</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.91520287694354618</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.0143243924878118</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-0.31848215369651572</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-1.1927545087236902</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-1.4300009824553879</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.7118779560081299</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.1014101451964446</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.4966865606050577</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.6770734923781978</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.67503777564174616</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-0.9082040799071267</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.51848405345520976</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.1264110471403892</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.0811669004812454</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-0.2614221634133948</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.1131435393989924</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.5939142147286638</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.1913569913734283</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-0.60188472911983426</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-0.6064504499697061</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.29812822459382482</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.0921642241892868</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-3.6747450513799719E-2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.83002015989104405</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-0.75578466298845304</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-1.8708659210161567</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-0.62682900996051438</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-0.62461999091492415</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-0.53589371404595088</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.1528257703417604</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>3.5910500577209112E-2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-1.3543486825618198</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.334198314755491</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-1.7398529147491435</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>9.9549899500492312E-2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>4.0143667714295318E-2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-0.8202031197549301</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-2.3747555811898957</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.37827316304251379</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-0.35133204593485334</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-0.41339480610691276</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.65870233061509365</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.6165792891395052</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-0.79257493596206519</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-0.12905930349720762</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-0.26087681757928743</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-0.2886306855979992</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.88883737101323379</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.67438581570268119</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-0.12928484608051061</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-1.1955681978609216</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.60231628540877413</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.4431032126837251</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-1.0489002936561682</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.0734310119856552</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-0.1520259224498719</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-2.4783200006172521</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-0.2496372461061446</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.62198932127683371</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.7078598733844846E-2</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-1.161465595725141</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>6.4109422022788812E-2</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-1.8854901035671581E-2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.4982123632560669</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-0.87783771346237893</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-0.63385412826121634</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-0.9789219200407141</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.71711441206941107</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.78886406049130076</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-0.21007722742581916</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-5.9979103158929403E-2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-0.48386492596314729</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.93052680032771373</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.1253017129169082</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-1.590563321234207</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-0.14721956067356629</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.4471835422419782</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-1.4600043387519293</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-0.33813990535197641</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-0.30349503485526419</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-0.59720565009344562</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.57998819539539737</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.1951077256683613</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.7024980801801366</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.3060883336076494</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-0.40179331028455523</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-0.12105423422127207</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.72155722729640237</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-0.13116518159284107</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-0.36869964949931083</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.114202208522072</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-0.18553958222662839</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.24324573196028135</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1.3506719164362275</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-0.4074689676783001</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.37855769290098107</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.6047464435765294</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-1.388586036865634</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-3.4227859509106125E-2</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-0.76211896805985024</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-5.5818749865655666E-2</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1.274429336195382</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'correlation plot'!$D$3:$D$202</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>-0.96583670298857771</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39172861981502011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0091033466793997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56137020213485345</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23328540156409747</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.1978651109452891</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.2710629523368431</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.60313225100307788</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3658843239956475E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.31092386991190984</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0506168350929084</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2959299598707793</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1598518574467018</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.6762707017002507</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.41434940909206947</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.2126512073627895E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2777623117674319</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4478200526595071</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.76800316149139E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.0297099786258432</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.63605822520067867</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.63211651100102628</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-7.3387384132972758E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.0179384723768514</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.46102464390435582</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.59379203736857011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.52521656401821304</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.5136705030401103</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.58171880736756931</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.40560386476771215</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-4.3638216268965163E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.0965390527460532</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.154439536933071</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.59388340418563212</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.3322704780691281</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.1361834000662792</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.2740621271306025</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.7613958371288159E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.11351736257363616</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.52170173577419998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-4.9486747148878574E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.13504217690274151</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.7802682861978776</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.1161407931042668</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.39404099908990692</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.85572023589116364</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.5823661236147815</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.3236448150434179</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.92481483503911699</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.58496054323337199</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.46547360080450872</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.36577383022445215</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.87694607163744842</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.79996032014190266</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.60008578904856069</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.41947803693802427</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.3251333297846371</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-2.1138097963970539</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.9360420079486853</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-1.6853928640838072</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.7621209562771204</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.62113540758820851</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.75197661176447639</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.12122819872976566</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.79007094955885682</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.50096036528505139</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-9.198485521764152E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-2.4356025522138069</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.5240517039732184</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.36951536919150363</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.3498739762996528</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-1.027452303637215</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-1.6293276807799897</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.37474190016705577</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.1055711427765718</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.11531995272817826</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.59526624894146385</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.74148069745779188</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-1.5445475620519691</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.303144763271811</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-1.0139392619292611</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.72177584349372281</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.62299803146148225</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.168017097621195</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.79700950170315377</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-4.0861005675480566E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-1.3321058328894098</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.69924248401009992</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.45090450754586109</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.45181791571740598</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-3.5695731262763708E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.3633034291395738</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.40161689367162029</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.26626878178208163</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.4050434658024398</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.60263416874079134</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-4.898490602454636E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.6239648519938481</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.59020551652585151</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.1686343627668454</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.15370407200224484</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-0.27251085956318488</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-0.46470025658268921</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.95950300748913286</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.4955686056680015</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.1931091273040062</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.9165747800842121</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.31580854192615626</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-0.33004866114284509</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.1436898276450598</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.2761404397818108</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.53311094798084913</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.6827091968933672E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.83166413413364115</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.0114338146948234</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.97538052929267993</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-0.62721061217733842</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.74430393500653402</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.27586907099007729</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.2210101243152935</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.22528360515089599</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.17840763503099305</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-1.4564976941611469</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-1.1120292706108603</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-1.3059484230051068</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-0.13700420246540485</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-0.56888003919741847</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.91964969698490062</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.20539073400662916</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-0.68543280111970872</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.17912497283340334</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-1.6537996974598048</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.42086008932758479</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.96490486297813516</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-0.3892623558208903</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-0.50111737320571081</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.5622771733561167</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-0.13725159624568317</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.18278351329880888</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.5555855019876557</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.46451669866253698</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-6.5885071007993345E-2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-0.27518724547348183</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-0.77093718476558803</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.64259115952351864</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.97544110856206845</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.87174537018461051</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-0.6927064377091896</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-0.15319837848383244</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.96852118180263935</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.4330501172390169</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.2026466391469315E-3</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.90757180710630736</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-0.92581564856412779</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-1.8981030540736019</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-8.1864194597443221E-2</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-6.2814392751360804E-2</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-0.42603925576206586</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-1.0117184842086866</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>4.7941815977609298E-2</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.90894491225384833</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-0.68168789059190527</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-1.2972980131079854</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.23921746401887412</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-1.1712711847697261</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-5.260184819187308E-2</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.1347156238238629</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>4.8817663537151362E-2</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.53724855938055738</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-0.56662928877296559</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-0.12480594928322764</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.25108257360207736</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-0.97974448834261918</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.11246707748568702</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-0.63615898478380273</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-0.9703249012673576</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-1.0350216227473501</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.24113430125433635</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-1.1889415650646913</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.44041504639292162</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.18380987402346916</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2.7178636420094815</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.2692985801514378</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-0.6396009613367577</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-0.54931236205546297</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.78466708469894553</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>7.2094966854498538E-2</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-1.0975553805833842</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.60331157327679685</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-0.25341732864207789</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.0349518019847508</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1.2984978148672697</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>3.6278282134758699E-2</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.55270249413654948</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.90413431858824878</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-1.6747044399611393</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-0.907707320685751</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-0.25209436979746802</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-0.11798541166533313</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.55911799776189386</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3EE8-41E4-A856-BBF33F3DFB79}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="954411167"/>
+        <c:axId val="953469487"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="954411167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1050">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>X</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="953469487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="953469487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="954411167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="246">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="0"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16D96C5C-5ACC-4EC4-8B03-C63EB568277C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -411,20 +2799,3479 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348363D8-EC12-4AC6-AA3E-32B5A0257D91}">
+  <dimension ref="A2:P207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.9140625" customWidth="1"/>
-    <col min="2" max="2" width="52.25" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="3" max="4" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="2" spans="1:7" ht="15.75">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75">
+      <c r="A3" s="3">
+        <f ca="1">_xlfn.NORM.S.INV(RAND())</f>
+        <v>-0.68579790289017495</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <f ca="1">_xlfn.NORM.S.INV(RAND())</f>
+        <v>-0.6929474515680909</v>
+      </c>
+      <c r="D3" s="8">
+        <f ca="1">$G$2*C3+SQRT(1-$G$2^2)*A3</f>
+        <v>-0.96583670298857771</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75">
+      <c r="A4" s="3">
+        <f t="shared" ref="A4:A67" ca="1" si="0">_xlfn.NORM.S.INV(RAND())</f>
+        <v>0.20570195291438956</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8">
+        <f t="shared" ref="C4:C67" ca="1" si="1">_xlfn.NORM.S.INV(RAND())</f>
+        <v>0.33538431008298297</v>
+      </c>
+      <c r="D4" s="8">
+        <f t="shared" ref="D4:D67" ca="1" si="2">$G$2*C4+SQRT(1-$G$2^2)*A4</f>
+        <v>0.39172861981502011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75">
+      <c r="A5" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.36655682727262312</v>
+      </c>
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.98646156289478237</v>
+      </c>
+      <c r="D5" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.0091033466793997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75">
+      <c r="A6" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.39623338806928149</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.99888779372052783</v>
+      </c>
+      <c r="D6" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.56137020213485345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75">
+      <c r="A7" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.35476725794934988</v>
+      </c>
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.55768219541713415</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.23328540156409747</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75">
+      <c r="A8" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.6122864869695902</v>
+      </c>
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.9565462539088037</v>
+      </c>
+      <c r="D8" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.1978651109452891</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75">
+      <c r="A9" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.33082259851866469</v>
+      </c>
+      <c r="B9" s="5">
+        <v>7</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.3407117415320553</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.2710629523368431</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75">
+      <c r="A10" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.3901891471547843</v>
+      </c>
+      <c r="B10" s="5">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.28872654661224051</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.60313225100307788</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75">
+      <c r="A11" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.0595079161788776</v>
+      </c>
+      <c r="B11" s="5">
+        <v>9</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.79292358172916344</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.3658843239956475E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75">
+      <c r="A12" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.61144553537312285</v>
+      </c>
+      <c r="B12" s="5">
+        <v>10</v>
+      </c>
+      <c r="C12" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.84723898891972926</v>
+      </c>
+      <c r="D12" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.31092386991190984</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75">
+      <c r="A13" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2370296461048729</v>
+      </c>
+      <c r="B13" s="5">
+        <v>11</v>
+      </c>
+      <c r="C13" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.38549880928748081</v>
+      </c>
+      <c r="D13" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.0506168350929084</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75">
+      <c r="A14" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.44936668199965202</v>
+      </c>
+      <c r="B14" s="5">
+        <v>12</v>
+      </c>
+      <c r="C14" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.2887438338735163E-2</v>
+      </c>
+      <c r="D14" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.2959299598707793</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75">
+      <c r="A15" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.13388049818707951</v>
+      </c>
+      <c r="B15" s="5">
+        <v>13</v>
+      </c>
+      <c r="C15" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.5502251954486868</v>
+      </c>
+      <c r="D15" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.1598518574467018</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75">
+      <c r="A16" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.1961219834053307</v>
+      </c>
+      <c r="B16" s="5">
+        <v>14</v>
+      </c>
+      <c r="C16" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.1982468895713154</v>
+      </c>
+      <c r="D16" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.6762707017002507</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15.75">
+      <c r="A17" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.3000674158896159</v>
+      </c>
+      <c r="B17" s="5">
+        <v>15</v>
+      </c>
+      <c r="C17" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.45711380055212486</v>
+      </c>
+      <c r="D17" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.41434940909206947</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15.75">
+      <c r="A18" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.11537226046832597</v>
+      </c>
+      <c r="B18" s="5">
+        <v>16</v>
+      </c>
+      <c r="C18" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>-2.1371055259209574E-2</v>
+      </c>
+      <c r="D18" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.2126512073627895E-2</v>
+      </c>
+      <c r="P18" s="4"/>
+    </row>
+    <row r="19" spans="1:16" ht="15.75">
+      <c r="A19" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3521150372522453</v>
+      </c>
+      <c r="B19" s="5">
+        <v>17</v>
+      </c>
+      <c r="C19" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.3331166117701059</v>
+      </c>
+      <c r="D19" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.2777623117674319</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15.75">
+      <c r="A20" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2266600582618903</v>
+      </c>
+      <c r="B20" s="5">
+        <v>18</v>
+      </c>
+      <c r="C20" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.88978002212796636</v>
+      </c>
+      <c r="D20" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.4478200526595071</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15.75">
+      <c r="A21" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.40156489821865077</v>
+      </c>
+      <c r="B21" s="5">
+        <v>19</v>
+      </c>
+      <c r="C21" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.25407363414534562</v>
+      </c>
+      <c r="D21" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.76800316149139E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15.75">
+      <c r="A22" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-8.0031625154755273E-2</v>
+      </c>
+      <c r="B22" s="5">
+        <v>20</v>
+      </c>
+      <c r="C22" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.2271137544162376</v>
+      </c>
+      <c r="D22" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.0297099786258432</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15.75">
+      <c r="A23" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.522452204268961</v>
+      </c>
+      <c r="B23" s="5">
+        <v>21</v>
+      </c>
+      <c r="C23" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.1869119347025689</v>
+      </c>
+      <c r="D23" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.63605822520067867</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15.75">
+      <c r="A24" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.43221110113230243</v>
+      </c>
+      <c r="B24" s="5">
+        <v>22</v>
+      </c>
+      <c r="C24" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.46598731290205608</v>
+      </c>
+      <c r="D24" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.63211651100102628</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15.75">
+      <c r="A25" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.12767219347708983</v>
+      </c>
+      <c r="B25" s="5">
+        <v>23</v>
+      </c>
+      <c r="C25" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.0199149416014004E-3</v>
+      </c>
+      <c r="D25" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>-7.3387384132972758E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15.75">
+      <c r="A26" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.68148340902083826</v>
+      </c>
+      <c r="B26" s="5">
+        <v>24</v>
+      </c>
+      <c r="C26" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.76131053370543578</v>
+      </c>
+      <c r="D26" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.0179384723768514</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15.75">
+      <c r="A27" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.1299575273665556</v>
+      </c>
+      <c r="B27" s="5">
+        <v>25</v>
+      </c>
+      <c r="C27" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.27118734064447175</v>
+      </c>
+      <c r="D27" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.46102464390435582</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15.75">
+      <c r="A28" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.99269768733424046</v>
+      </c>
+      <c r="B28" s="5">
+        <v>26</v>
+      </c>
+      <c r="C28" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.2832187899675819E-3</v>
+      </c>
+      <c r="D28" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.59379203736857011</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15.75">
+      <c r="A29" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.7795539246628731</v>
+      </c>
+      <c r="B29" s="5">
+        <v>27</v>
+      </c>
+      <c r="C29" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>-7.1855261525611655E-2</v>
+      </c>
+      <c r="D29" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.52521656401821304</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15.75">
+      <c r="A30" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.30760971676839</v>
+      </c>
+      <c r="B30" s="5">
+        <v>28</v>
+      </c>
+      <c r="C30" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.87279541637643032</v>
+      </c>
+      <c r="D30" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.5136705030401103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15.75">
+      <c r="A31" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.27748888671296779</v>
+      </c>
+      <c r="B31" s="5">
+        <v>29</v>
+      </c>
+      <c r="C31" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.5190318441747358</v>
+      </c>
+      <c r="D31" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.58171880736756931</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15.75">
+      <c r="A32" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.20765484654762995</v>
+      </c>
+      <c r="B32" s="5">
+        <v>30</v>
+      </c>
+      <c r="C32" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.35126369604891772</v>
+      </c>
+      <c r="D32" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.40560386476771215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75">
+      <c r="A33" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.9250718952617228E-2</v>
+      </c>
+      <c r="B33" s="5">
+        <v>31</v>
+      </c>
+      <c r="C33" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.12148580955066936</v>
+      </c>
+      <c r="D33" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>-4.3638216268965163E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75">
+      <c r="A34" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.5172703390369704</v>
+      </c>
+      <c r="B34" s="5">
+        <v>32</v>
+      </c>
+      <c r="C34" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.23272106165483908</v>
+      </c>
+      <c r="D34" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.0965390527460532</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75">
+      <c r="A35" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.8661554445071871</v>
+      </c>
+      <c r="B35" s="5">
+        <v>33</v>
+      </c>
+      <c r="C35" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.2065671622140512</v>
+      </c>
+      <c r="D35" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.154439536933071</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75">
+      <c r="A36" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.835564907064134</v>
+      </c>
+      <c r="B36" s="5">
+        <v>34</v>
+      </c>
+      <c r="C36" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.11568057493393982</v>
+      </c>
+      <c r="D36" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.59388340418563212</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75">
+      <c r="A37" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.3542330415073356</v>
+      </c>
+      <c r="B37" s="5">
+        <v>35</v>
+      </c>
+      <c r="C37" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.64966331645590869</v>
+      </c>
+      <c r="D37" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.3322704780691281</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75">
+      <c r="A38" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.1963626252755057</v>
+      </c>
+      <c r="B38" s="5">
+        <v>36</v>
+      </c>
+      <c r="C38" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.52295728112621964</v>
+      </c>
+      <c r="D38" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.1361834000662792</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75">
+      <c r="A39" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.0657251463695459</v>
+      </c>
+      <c r="B39" s="5">
+        <v>37</v>
+      </c>
+      <c r="C39" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.79328379913609381</v>
+      </c>
+      <c r="D39" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.2740621271306025</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75">
+      <c r="A40" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.14769642324580906</v>
+      </c>
+      <c r="B40" s="5">
+        <v>38</v>
+      </c>
+      <c r="C40" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.11186749191399788</v>
+      </c>
+      <c r="D40" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.7613958371288159E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75">
+      <c r="A41" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.3422300704310506E-2</v>
+      </c>
+      <c r="B41" s="5">
+        <v>39</v>
+      </c>
+      <c r="C41" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.15196342874527807</v>
+      </c>
+      <c r="D41" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.11351736257363616</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75">
+      <c r="A42" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.64972545021355643</v>
+      </c>
+      <c r="B42" s="5">
+        <v>40</v>
+      </c>
+      <c r="C42" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.16483308205758271</v>
+      </c>
+      <c r="D42" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.52170173577419998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75">
+      <c r="A43" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.743158394557208</v>
+      </c>
+      <c r="B43" s="5">
+        <v>41</v>
+      </c>
+      <c r="C43" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.56355463931151561</v>
+      </c>
+      <c r="D43" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>-4.9486747148878574E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75">
+      <c r="A44" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.14967195323402688</v>
+      </c>
+      <c r="B44" s="5">
+        <v>42</v>
+      </c>
+      <c r="C44" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.28105668605394701</v>
+      </c>
+      <c r="D44" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.13504217690274151</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75">
+      <c r="A45" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.5167393303799999</v>
+      </c>
+      <c r="B45" s="5">
+        <v>43</v>
+      </c>
+      <c r="C45" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0877808599623473</v>
+      </c>
+      <c r="D45" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.7802682861978776</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75">
+      <c r="A46" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.21546681039784207</v>
+      </c>
+      <c r="B46" s="5">
+        <v>44</v>
+      </c>
+      <c r="C46" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.5567760991787147</v>
+      </c>
+      <c r="D46" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.1161407931042668</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75">
+      <c r="A47" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.58941407276685009</v>
+      </c>
+      <c r="B47" s="5">
+        <v>45</v>
+      </c>
+      <c r="C47" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.93461180343752115</v>
+      </c>
+      <c r="D47" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.39404099908990692</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75">
+      <c r="A48" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7457024150306664</v>
+      </c>
+      <c r="B48" s="5">
+        <v>46</v>
+      </c>
+      <c r="C48" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.98962651640904464</v>
+      </c>
+      <c r="D48" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.85572023589116364</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75">
+      <c r="A49" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.48474436499820889</v>
+      </c>
+      <c r="B49" s="5">
+        <v>47</v>
+      </c>
+      <c r="C49" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.61439938076982</v>
+      </c>
+      <c r="D49" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.5823661236147815</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75">
+      <c r="A50" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.68766487458891079</v>
+      </c>
+      <c r="B50" s="5">
+        <v>48</v>
+      </c>
+      <c r="C50" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.1703046747459553</v>
+      </c>
+      <c r="D50" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.3236448150434179</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75">
+      <c r="A51" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.7566276303234899</v>
+      </c>
+      <c r="B51" s="5">
+        <v>49</v>
+      </c>
+      <c r="C51" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.7234892665415134</v>
+      </c>
+      <c r="D51" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.92481483503911699</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75">
+      <c r="A52" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.18142353251199139</v>
+      </c>
+      <c r="B52" s="5">
+        <v>50</v>
+      </c>
+      <c r="C52" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.86726832842570845</v>
+      </c>
+      <c r="D52" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.58496054323337199</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75">
+      <c r="A53" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2.3850213053496061</v>
+      </c>
+      <c r="B53" s="5">
+        <v>51</v>
+      </c>
+      <c r="C53" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.2069239780065684</v>
+      </c>
+      <c r="D53" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.46547360080450872</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75">
+      <c r="A54" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.11408575848603168</v>
+      </c>
+      <c r="B54" s="5">
+        <v>52</v>
+      </c>
+      <c r="C54" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.37165296891604144</v>
+      </c>
+      <c r="D54" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.36577383022445215</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75">
+      <c r="A55" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.98766758680271149</v>
+      </c>
+      <c r="B55" s="5">
+        <v>53</v>
+      </c>
+      <c r="C55" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.3554318994447771</v>
+      </c>
+      <c r="D55" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.87694607163744842</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75">
+      <c r="A56" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.47379719743045473</v>
+      </c>
+      <c r="B56" s="5">
+        <v>54</v>
+      </c>
+      <c r="C56" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.3552982982502193</v>
+      </c>
+      <c r="D56" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.79996032014190266</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75">
+      <c r="A57" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.34419181890575218</v>
+      </c>
+      <c r="B57" s="5">
+        <v>55</v>
+      </c>
+      <c r="C57" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.4919633721313868</v>
+      </c>
+      <c r="D57" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.60008578904856069</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75">
+      <c r="A58" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.24662976309802981</v>
+      </c>
+      <c r="B58" s="5">
+        <v>56</v>
+      </c>
+      <c r="C58" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.70931986849605255</v>
+      </c>
+      <c r="D58" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.41947803693802427</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75">
+      <c r="A59" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35251116061640086</v>
+      </c>
+      <c r="B59" s="5">
+        <v>57</v>
+      </c>
+      <c r="C59" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.67080003269309696</v>
+      </c>
+      <c r="D59" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.3251333297846371</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75">
+      <c r="A60" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.3043743863929243</v>
+      </c>
+      <c r="B60" s="5">
+        <v>58</v>
+      </c>
+      <c r="C60" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>-2.4139814557016241</v>
+      </c>
+      <c r="D60" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2.1138097963970539</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75">
+      <c r="A61" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.474619353340402</v>
+      </c>
+      <c r="B61" s="5">
+        <v>59</v>
+      </c>
+      <c r="C61" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.3140879949305553</v>
+      </c>
+      <c r="D61" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.9360420079486853</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75">
+      <c r="A62" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.5839980460785035</v>
+      </c>
+      <c r="B62" s="5">
+        <v>60</v>
+      </c>
+      <c r="C62" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.91874254554588164</v>
+      </c>
+      <c r="D62" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.6853928640838072</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75">
+      <c r="A63" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.8055233698861282</v>
+      </c>
+      <c r="B63" s="5">
+        <v>61</v>
+      </c>
+      <c r="C63" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.40149133206819521</v>
+      </c>
+      <c r="D63" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.7621209562771204</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75">
+      <c r="A64" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.59494752952287133</v>
+      </c>
+      <c r="B64" s="5">
+        <v>62</v>
+      </c>
+      <c r="C64" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.33020861234310711</v>
+      </c>
+      <c r="D64" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.62113540758820851</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.75">
+      <c r="A65" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.11642993307412036</v>
+      </c>
+      <c r="B65" s="5">
+        <v>63</v>
+      </c>
+      <c r="C65" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.85264831490000526</v>
+      </c>
+      <c r="D65" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.75197661176447639</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75">
+      <c r="A66" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.34521694662713093</v>
+      </c>
+      <c r="B66" s="5">
+        <v>64</v>
+      </c>
+      <c r="C66" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.10737746155814105</v>
+      </c>
+      <c r="D66" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.12122819872976566</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.75">
+      <c r="A67" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>-6.3225805459769704E-2</v>
+      </c>
+      <c r="B67" s="5">
+        <v>65</v>
+      </c>
+      <c r="C67" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.94016933285374371</v>
+      </c>
+      <c r="D67" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.79007094955885682</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75">
+      <c r="A68" s="3">
+        <f t="shared" ref="A68:A102" ca="1" si="3">_xlfn.NORM.S.INV(RAND())</f>
+        <v>0.20718302585307333</v>
+      </c>
+      <c r="B68" s="5">
+        <v>66</v>
+      </c>
+      <c r="C68" s="8">
+        <f t="shared" ref="C68:C102" ca="1" si="4">_xlfn.NORM.S.INV(RAND())</f>
+        <v>0.47081318721650928</v>
+      </c>
+      <c r="D68" s="8">
+        <f t="shared" ref="D68:D102" ca="1" si="5">$G$2*C68+SQRT(1-$G$2^2)*A68</f>
+        <v>0.50096036528505139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.75">
+      <c r="A69" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.30747749461733681</v>
+      </c>
+      <c r="B69" s="5">
+        <v>67</v>
+      </c>
+      <c r="C69" s="8">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.34558918998505445</v>
+      </c>
+      <c r="D69" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>-9.198485521764152E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15.75">
+      <c r="A70" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.2501829816515857</v>
+      </c>
+      <c r="B70" s="5">
+        <v>68</v>
+      </c>
+      <c r="C70" s="8">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2.1068659540285695</v>
+      </c>
+      <c r="D70" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>-2.4356025522138069</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.75">
+      <c r="A71" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.4254654891361491</v>
+      </c>
+      <c r="B71" s="5">
+        <v>69</v>
+      </c>
+      <c r="C71" s="8">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.83596551311441125</v>
+      </c>
+      <c r="D71" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.5240517039732184</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.75">
+      <c r="A72" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.5165239928235423</v>
+      </c>
+      <c r="B72" s="5">
+        <v>70</v>
+      </c>
+      <c r="C72" s="8">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.67549878312827705</v>
+      </c>
+      <c r="D72" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.36951536919150363</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15.75">
+      <c r="A73" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.69484171037140652</v>
+      </c>
+      <c r="B73" s="5">
+        <v>71</v>
+      </c>
+      <c r="C73" s="8">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.2084737531531204</v>
+      </c>
+      <c r="D73" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.3498739762996528</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15.75">
+      <c r="A74" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.35737755841291663</v>
+      </c>
+      <c r="B74" s="5">
+        <v>72</v>
+      </c>
+      <c r="C74" s="8">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.0162822107368312</v>
+      </c>
+      <c r="D74" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>-1.027452303637215</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15.75">
+      <c r="A75" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.15176882554530466</v>
+      </c>
+      <c r="B75" s="5">
+        <v>73</v>
+      </c>
+      <c r="C75" s="8">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.9228329818160086</v>
+      </c>
+      <c r="D75" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>-1.6293276807799897</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15.75">
+      <c r="A76" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>-2.3701076349401462</v>
+      </c>
+      <c r="B76" s="5">
+        <v>74</v>
+      </c>
+      <c r="C76" s="8">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.3091533509962896</v>
+      </c>
+      <c r="D76" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.37474190016705577</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15.75">
+      <c r="A77" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.59694025865170774</v>
+      </c>
+      <c r="B77" s="5">
+        <v>75</v>
+      </c>
+      <c r="C77" s="8">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.93425873448193386</v>
+      </c>
+      <c r="D77" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.1055711427765718</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15.75">
+      <c r="A78" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.19095803880359102</v>
+      </c>
+      <c r="B78" s="5">
+        <v>76</v>
+      </c>
+      <c r="C78" s="8">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.28736847001291604</v>
+      </c>
+      <c r="D78" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.11531995272817826</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15.75">
+      <c r="A79" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>-2.6088360793534368E-2</v>
+      </c>
+      <c r="B79" s="5">
+        <v>77</v>
+      </c>
+      <c r="C79" s="8">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.76364908177198054</v>
+      </c>
+      <c r="D79" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.59526624894146385</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15.75">
+      <c r="A80" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.0563255567494001</v>
+      </c>
+      <c r="B80" s="5">
+        <v>78</v>
+      </c>
+      <c r="C80" s="8">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.61539329573980972</v>
+      </c>
+      <c r="D80" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.74148069745779188</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15.75">
+      <c r="A81" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.29408900284481643</v>
+      </c>
+      <c r="B81" s="5">
+        <v>79</v>
+      </c>
+      <c r="C81" s="8">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2.1512512046985734</v>
+      </c>
+      <c r="D81" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>-1.5445475620519691</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15.75">
+      <c r="A82" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.773401654719055E-3</v>
+      </c>
+      <c r="B82" s="5">
+        <v>80</v>
+      </c>
+      <c r="C82" s="8">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.38251100533080301</v>
+      </c>
+      <c r="D82" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.303144763271811</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15.75">
+      <c r="A83" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.90669357553480667</v>
+      </c>
+      <c r="B83" s="5">
+        <v>81</v>
+      </c>
+      <c r="C83" s="8">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.58740389576047147</v>
+      </c>
+      <c r="D83" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>-1.0139392619292611</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15.75">
+      <c r="A84" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.52742729153357382</v>
+      </c>
+      <c r="B84" s="5">
+        <v>82</v>
+      </c>
+      <c r="C84" s="8">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.2977902730173336</v>
+      </c>
+      <c r="D84" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.72177584349372281</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15.75">
+      <c r="A85" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.27907468201082264</v>
+      </c>
+      <c r="B85" s="5">
+        <v>83</v>
+      </c>
+      <c r="C85" s="8">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.9880535508349696</v>
+      </c>
+      <c r="D85" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.62299803146148225</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15.75">
+      <c r="A86" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3016654815916944</v>
+      </c>
+      <c r="B86" s="5">
+        <v>84</v>
+      </c>
+      <c r="C86" s="8">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.48377226083272301</v>
+      </c>
+      <c r="D86" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.168017097621195</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15.75">
+      <c r="A87" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.9726252630836372</v>
+      </c>
+      <c r="B87" s="5">
+        <v>85</v>
+      </c>
+      <c r="C87" s="8">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.48320707018378545</v>
+      </c>
+      <c r="D87" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.79700950170315377</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15.75">
+      <c r="A88" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.084033664052438</v>
+      </c>
+      <c r="B88" s="5">
+        <v>86</v>
+      </c>
+      <c r="C88" s="8">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.76194899094497748</v>
+      </c>
+      <c r="D88" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>-4.0861005675480566E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15.75">
+      <c r="A89" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.36446983998429489</v>
+      </c>
+      <c r="B89" s="5">
+        <v>87</v>
+      </c>
+      <c r="C89" s="8">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.3917799111235409</v>
+      </c>
+      <c r="D89" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>-1.3321058328894098</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15.75">
+      <c r="A90" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.0502127799136689</v>
+      </c>
+      <c r="B90" s="5">
+        <v>88</v>
+      </c>
+      <c r="C90" s="8">
+        <f t="shared" ca="1" si="4"/>
+        <v>-8.6393520077373387E-2</v>
+      </c>
+      <c r="D90" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.69924248401009992</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15.75">
+      <c r="A91" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.11903648464076418</v>
+      </c>
+      <c r="B91" s="5">
+        <v>89</v>
+      </c>
+      <c r="C91" s="8">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.65290799791289944</v>
+      </c>
+      <c r="D91" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.45090450754586109</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15.75">
+      <c r="A92" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.3158530438610696</v>
+      </c>
+      <c r="B92" s="5">
+        <v>90</v>
+      </c>
+      <c r="C92" s="8">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.80166217754255953</v>
+      </c>
+      <c r="D92" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.45181791571740598</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15.75">
+      <c r="A93" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.77394617900362539</v>
+      </c>
+      <c r="B93" s="5">
+        <v>91</v>
+      </c>
+      <c r="C93" s="8">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.62507929833117359</v>
+      </c>
+      <c r="D93" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>-3.5695731262763708E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15.75">
+      <c r="A94" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.60907312990282803</v>
+      </c>
+      <c r="B94" s="5">
+        <v>92</v>
+      </c>
+      <c r="C94" s="8">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.2473244389973464</v>
+      </c>
+      <c r="D94" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.3633034291395738</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15.75">
+      <c r="A95" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.11415741631576248</v>
+      </c>
+      <c r="B95" s="5">
+        <v>93</v>
+      </c>
+      <c r="C95" s="8">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.41640305485270351</v>
+      </c>
+      <c r="D95" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.40161689367162029</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15.75">
+      <c r="A96" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.36308081340655596</v>
+      </c>
+      <c r="B96" s="5">
+        <v>94</v>
+      </c>
+      <c r="C96" s="8">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.60514658728251891</v>
+      </c>
+      <c r="D96" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.26626878178208163</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15.75">
+      <c r="A97" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.1881972909410849</v>
+      </c>
+      <c r="B97" s="5">
+        <v>95</v>
+      </c>
+      <c r="C97" s="8">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.86515636404723628</v>
+      </c>
+      <c r="D97" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.4050434658024398</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15.75">
+      <c r="A98" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.48588321659427286</v>
+      </c>
+      <c r="B98" s="5">
+        <v>96</v>
+      </c>
+      <c r="C98" s="8">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.3888802984802846</v>
+      </c>
+      <c r="D98" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.60263416874079134</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15.75">
+      <c r="A99" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.11943341072942547</v>
+      </c>
+      <c r="B99" s="5">
+        <v>97</v>
+      </c>
+      <c r="C99" s="8">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.8343925516386127E-2</v>
+      </c>
+      <c r="D99" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>-4.898490602454636E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15.75">
+      <c r="A100" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.6479761197992594</v>
+      </c>
+      <c r="B100" s="5">
+        <v>98</v>
+      </c>
+      <c r="C100" s="8">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.2659381548417543</v>
+      </c>
+      <c r="D100" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.6239648519938481</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15.75">
+      <c r="A101" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.23659464171497588</v>
+      </c>
+      <c r="B101" s="5">
+        <v>99</v>
+      </c>
+      <c r="C101" s="8">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.91520287694354618</v>
+      </c>
+      <c r="D101" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.59020551652585151</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15.75">
+      <c r="A102" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.59529141462766011</v>
+      </c>
+      <c r="B102" s="5">
+        <v>100</v>
+      </c>
+      <c r="C102" s="8">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.0143243924878118</v>
+      </c>
+      <c r="D102" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.1686343627668454</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15.75">
+      <c r="A103" s="3">
+        <f ca="1">_xlfn.NORM.S.INV(RAND())</f>
+        <v>0.68081632493242916</v>
+      </c>
+      <c r="B103" s="5">
+        <v>101</v>
+      </c>
+      <c r="C103" s="8">
+        <f ca="1">_xlfn.NORM.S.INV(RAND())</f>
+        <v>-0.31848215369651572</v>
+      </c>
+      <c r="D103" s="8">
+        <f ca="1">$G$2*C103+SQRT(1-$G$2^2)*A103</f>
+        <v>0.15370407200224484</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15.75">
+      <c r="A104" s="3">
+        <f t="shared" ref="A104:A167" ca="1" si="6">_xlfn.NORM.S.INV(RAND())</f>
+        <v>1.136154579026279</v>
+      </c>
+      <c r="B104" s="5">
+        <v>102</v>
+      </c>
+      <c r="C104" s="8">
+        <f t="shared" ref="C104:C167" ca="1" si="7">_xlfn.NORM.S.INV(RAND())</f>
+        <v>-1.1927545087236902</v>
+      </c>
+      <c r="D104" s="8">
+        <f t="shared" ref="D104:D167" ca="1" si="8">$G$2*C104+SQRT(1-$G$2^2)*A104</f>
+        <v>-0.27251085956318488</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15.75">
+      <c r="A105" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.132167548969369</v>
+      </c>
+      <c r="B105" s="5">
+        <v>103</v>
+      </c>
+      <c r="C105" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>-1.4300009824553879</v>
+      </c>
+      <c r="D105" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.46470025658268921</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15.75">
+      <c r="A106" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.6833322621956186</v>
+      </c>
+      <c r="B106" s="5">
+        <v>104</v>
+      </c>
+      <c r="C106" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.7118779560081299</v>
+      </c>
+      <c r="D106" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.95950300748913286</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15.75">
+      <c r="A107" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.3574008158514099</v>
+      </c>
+      <c r="B107" s="5">
+        <v>105</v>
+      </c>
+      <c r="C107" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>2.1014101451964446</v>
+      </c>
+      <c r="D107" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>2.4955686056680015</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15.75">
+      <c r="A108" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.6595997980332671</v>
+      </c>
+      <c r="B108" s="5">
+        <v>106</v>
+      </c>
+      <c r="C108" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.4966865606050577</v>
+      </c>
+      <c r="D108" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>2.1931091273040062</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15.75">
+      <c r="A109" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.95819331030275645</v>
+      </c>
+      <c r="B109" s="5">
+        <v>107</v>
+      </c>
+      <c r="C109" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.6770734923781978</v>
+      </c>
+      <c r="D109" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.9165747800842121</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15.75">
+      <c r="A110" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.37370279764540126</v>
+      </c>
+      <c r="B110" s="5">
+        <v>108</v>
+      </c>
+      <c r="C110" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.67503777564174616</v>
+      </c>
+      <c r="D110" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.31580854192615626</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15.75">
+      <c r="A111" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.66085767130476059</v>
+      </c>
+      <c r="B111" s="5">
+        <v>109</v>
+      </c>
+      <c r="C111" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>-0.9082040799071267</v>
+      </c>
+      <c r="D111" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.33004866114284509</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15.75">
+      <c r="A112" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.2148376414681534</v>
+      </c>
+      <c r="B112" s="5">
+        <v>110</v>
+      </c>
+      <c r="C112" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.51848405345520976</v>
+      </c>
+      <c r="D112" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.1436898276450598</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15.75">
+      <c r="A113" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>-1.041647329884168</v>
+      </c>
+      <c r="B113" s="5">
+        <v>111</v>
+      </c>
+      <c r="C113" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.1264110471403892</v>
+      </c>
+      <c r="D113" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.2761404397818108</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15.75">
+      <c r="A114" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.55303762067357898</v>
+      </c>
+      <c r="B114" s="5">
+        <v>112</v>
+      </c>
+      <c r="C114" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.0811669004812454</v>
+      </c>
+      <c r="D114" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.53311094798084913</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15.75">
+      <c r="A115" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.37660803783274927</v>
+      </c>
+      <c r="B115" s="5">
+        <v>113</v>
+      </c>
+      <c r="C115" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>-0.2614221634133948</v>
+      </c>
+      <c r="D115" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.6827091968933672E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15.75">
+      <c r="A116" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>-9.808449564258806E-2</v>
+      </c>
+      <c r="B116" s="5">
+        <v>114</v>
+      </c>
+      <c r="C116" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.1131435393989924</v>
+      </c>
+      <c r="D116" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.83166413413364115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15.75">
+      <c r="A117" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.43949592848017976</v>
+      </c>
+      <c r="B117" s="5">
+        <v>115</v>
+      </c>
+      <c r="C117" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.5939142147286638</v>
+      </c>
+      <c r="D117" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.0114338146948234</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15.75">
+      <c r="A118" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>3.7158226989895286E-2</v>
+      </c>
+      <c r="B118" s="5">
+        <v>116</v>
+      </c>
+      <c r="C118" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.1913569913734283</v>
+      </c>
+      <c r="D118" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.97538052929267993</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15.75">
+      <c r="A119" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.24283804813578505</v>
+      </c>
+      <c r="B119" s="5">
+        <v>117</v>
+      </c>
+      <c r="C119" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>-0.60188472911983426</v>
+      </c>
+      <c r="D119" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.62721061217733842</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15.75">
+      <c r="A120" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>2.0491071583038321</v>
+      </c>
+      <c r="B120" s="5">
+        <v>118</v>
+      </c>
+      <c r="C120" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>-0.6064504499697061</v>
+      </c>
+      <c r="D120" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.74430393500653402</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15.75">
+      <c r="A121" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>6.2277485525029035E-2</v>
+      </c>
+      <c r="B121" s="5">
+        <v>119</v>
+      </c>
+      <c r="C121" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.29812822459382482</v>
+      </c>
+      <c r="D121" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.27586907099007729</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="15.75">
+      <c r="A122" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.57879790827310684</v>
+      </c>
+      <c r="B122" s="5">
+        <v>120</v>
+      </c>
+      <c r="C122" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.0921642241892868</v>
+      </c>
+      <c r="D122" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.2210101243152935</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15.75">
+      <c r="A123" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.42446927593655975</v>
+      </c>
+      <c r="B123" s="5">
+        <v>121</v>
+      </c>
+      <c r="C123" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>-3.6747450513799719E-2</v>
+      </c>
+      <c r="D123" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.22528360515089599</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="15.75">
+      <c r="A124" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.80934748813640389</v>
+      </c>
+      <c r="B124" s="5">
+        <v>122</v>
+      </c>
+      <c r="C124" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.83002015989104405</v>
+      </c>
+      <c r="D124" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.17840763503099305</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="15.75">
+      <c r="A125" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>-1.4197832729506412</v>
+      </c>
+      <c r="B125" s="5">
+        <v>123</v>
+      </c>
+      <c r="C125" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>-0.75578466298845304</v>
+      </c>
+      <c r="D125" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1.4564976941611469</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="15.75">
+      <c r="A126" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.64110577700344196</v>
+      </c>
+      <c r="B126" s="5">
+        <v>124</v>
+      </c>
+      <c r="C126" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>-1.8708659210161567</v>
+      </c>
+      <c r="D126" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1.1120292706108603</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="15.75">
+      <c r="A127" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>-1.3408086917278261</v>
+      </c>
+      <c r="B127" s="5">
+        <v>125</v>
+      </c>
+      <c r="C127" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>-0.62682900996051438</v>
+      </c>
+      <c r="D127" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1.3059484230051068</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="15.75">
+      <c r="A128" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.60448631711089096</v>
+      </c>
+      <c r="B128" s="5">
+        <v>126</v>
+      </c>
+      <c r="C128" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>-0.62461999091492415</v>
+      </c>
+      <c r="D128" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.13700420246540485</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="15.75">
+      <c r="A129" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.23360844660109639</v>
+      </c>
+      <c r="B129" s="5">
+        <v>127</v>
+      </c>
+      <c r="C129" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>-0.53589371404595088</v>
+      </c>
+      <c r="D129" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.56888003919741847</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="15.75">
+      <c r="A130" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>-4.3515321475129497E-3</v>
+      </c>
+      <c r="B130" s="5">
+        <v>128</v>
+      </c>
+      <c r="C130" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.1528257703417604</v>
+      </c>
+      <c r="D130" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.91964969698490062</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="15.75">
+      <c r="A131" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.29443722257476984</v>
+      </c>
+      <c r="B131" s="5">
+        <v>129</v>
+      </c>
+      <c r="C131" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.5910500577209112E-2</v>
+      </c>
+      <c r="D131" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.20539073400662916</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="15.75">
+      <c r="A132" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.66341024154957862</v>
+      </c>
+      <c r="B132" s="5">
+        <v>130</v>
+      </c>
+      <c r="C132" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>-1.3543486825618198</v>
+      </c>
+      <c r="D132" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.68543280111970872</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="15.75">
+      <c r="A133" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.14705613161831588</v>
+      </c>
+      <c r="B133" s="5">
+        <v>131</v>
+      </c>
+      <c r="C133" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.334198314755491</v>
+      </c>
+      <c r="D133" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.17912497283340334</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="15.75">
+      <c r="A134" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.436528942767483</v>
+      </c>
+      <c r="B134" s="5">
+        <v>132</v>
+      </c>
+      <c r="C134" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>-1.7398529147491435</v>
+      </c>
+      <c r="D134" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1.6537996974598048</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="15.75">
+      <c r="A135" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.56870028287865171</v>
+      </c>
+      <c r="B135" s="5">
+        <v>133</v>
+      </c>
+      <c r="C135" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>9.9549899500492312E-2</v>
+      </c>
+      <c r="D135" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.42086008932758479</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="15.75">
+      <c r="A136" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.5546498813444984</v>
+      </c>
+      <c r="B136" s="5">
+        <v>134</v>
+      </c>
+      <c r="C136" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>4.0143667714295318E-2</v>
+      </c>
+      <c r="D136" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.96490486297813516</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="15.75">
+      <c r="A137" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.44483356663842316</v>
+      </c>
+      <c r="B137" s="5">
+        <v>135</v>
+      </c>
+      <c r="C137" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>-0.8202031197549301</v>
+      </c>
+      <c r="D137" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.3892623558208903</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="15.75">
+      <c r="A138" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>2.3311451529103433</v>
+      </c>
+      <c r="B138" s="5">
+        <v>136</v>
+      </c>
+      <c r="C138" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>-2.3747555811898957</v>
+      </c>
+      <c r="D138" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.50111737320571081</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="15.75">
+      <c r="A139" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>2.0994310715368432</v>
+      </c>
+      <c r="B139" s="5">
+        <v>137</v>
+      </c>
+      <c r="C139" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.37827316304251379</v>
+      </c>
+      <c r="D139" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.5622771733561167</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="15.75">
+      <c r="A140" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.23969006750366595</v>
+      </c>
+      <c r="B140" s="5">
+        <v>138</v>
+      </c>
+      <c r="C140" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>-0.35133204593485334</v>
+      </c>
+      <c r="D140" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.13725159624568317</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="15.75">
+      <c r="A141" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.8558322636405653</v>
+      </c>
+      <c r="B141" s="5">
+        <v>139</v>
+      </c>
+      <c r="C141" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>-0.41339480610691276</v>
+      </c>
+      <c r="D141" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.18278351329880888</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="15.75">
+      <c r="A142" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.7143727291593016</v>
+      </c>
+      <c r="B142" s="5">
+        <v>140</v>
+      </c>
+      <c r="C142" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.65870233061509365</v>
+      </c>
+      <c r="D142" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.5555855019876557</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="15.75">
+      <c r="A143" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>-1.3812445544151124</v>
+      </c>
+      <c r="B143" s="5">
+        <v>141</v>
+      </c>
+      <c r="C143" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.6165792891395052</v>
+      </c>
+      <c r="D143" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.46451669866253698</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="15.75">
+      <c r="A144" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.94695812960276493</v>
+      </c>
+      <c r="B144" s="5">
+        <v>142</v>
+      </c>
+      <c r="C144" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>-0.79257493596206519</v>
+      </c>
+      <c r="D144" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>-6.5885071007993345E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="15.75">
+      <c r="A145" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.28656633779285962</v>
+      </c>
+      <c r="B145" s="5">
+        <v>143</v>
+      </c>
+      <c r="C145" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>-0.12905930349720762</v>
+      </c>
+      <c r="D145" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.27518724547348183</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="15.75">
+      <c r="A146" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.93705955117026363</v>
+      </c>
+      <c r="B146" s="5">
+        <v>144</v>
+      </c>
+      <c r="C146" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>-0.26087681757928743</v>
+      </c>
+      <c r="D146" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.77093718476558803</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="15.75">
+      <c r="A147" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.4558261800031971</v>
+      </c>
+      <c r="B147" s="5">
+        <v>145</v>
+      </c>
+      <c r="C147" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>-0.2886306855979992</v>
+      </c>
+      <c r="D147" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.64259115952351864</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="15.75">
+      <c r="A148" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.44061868625246897</v>
+      </c>
+      <c r="B148" s="5">
+        <v>146</v>
+      </c>
+      <c r="C148" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.88883737101323379</v>
+      </c>
+      <c r="D148" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.97544110856206845</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="15.75">
+      <c r="A149" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.55372786270410923</v>
+      </c>
+      <c r="B149" s="5">
+        <v>147</v>
+      </c>
+      <c r="C149" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.67438581570268119</v>
+      </c>
+      <c r="D149" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.87174537018461051</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="15.75">
+      <c r="A150" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.9821309347413022</v>
+      </c>
+      <c r="B150" s="5">
+        <v>148</v>
+      </c>
+      <c r="C150" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>-0.12928484608051061</v>
+      </c>
+      <c r="D150" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.6927064377091896</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="15.75">
+      <c r="A151" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.3387602996748418</v>
+      </c>
+      <c r="B151" s="5">
+        <v>149</v>
+      </c>
+      <c r="C151" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>-1.1955681978609216</v>
+      </c>
+      <c r="D151" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.15319837848383244</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="15.75">
+      <c r="A152" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.81111358912603371</v>
+      </c>
+      <c r="B152" s="5">
+        <v>150</v>
+      </c>
+      <c r="C152" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.60231628540877413</v>
+      </c>
+      <c r="D152" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.96852118180263935</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="15.75">
+      <c r="A153" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.46427924515339486</v>
+      </c>
+      <c r="B153" s="5">
+        <v>151</v>
+      </c>
+      <c r="C153" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.4431032126837251</v>
+      </c>
+      <c r="D153" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.4330501172390169</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="15.75">
+      <c r="A154" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.4005381359401361</v>
+      </c>
+      <c r="B154" s="5">
+        <v>152</v>
+      </c>
+      <c r="C154" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>-1.0489002936561682</v>
+      </c>
+      <c r="D154" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.2026466391469315E-3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="15.75">
+      <c r="A155" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>8.1378329196305346E-2</v>
+      </c>
+      <c r="B155" s="5">
+        <v>153</v>
+      </c>
+      <c r="C155" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.0734310119856552</v>
+      </c>
+      <c r="D155" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.90757180710630736</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="15.75">
+      <c r="A156" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>-1.3403248510070507</v>
+      </c>
+      <c r="B156" s="5">
+        <v>154</v>
+      </c>
+      <c r="C156" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>-0.1520259224498719</v>
+      </c>
+      <c r="D156" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.92581564856412779</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="15.75">
+      <c r="A157" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.14092157736699984</v>
+      </c>
+      <c r="B157" s="5">
+        <v>155</v>
+      </c>
+      <c r="C157" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>-2.4783200006172521</v>
+      </c>
+      <c r="D157" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1.8981030540736019</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="15.75">
+      <c r="A158" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.19640933714578748</v>
+      </c>
+      <c r="B158" s="5">
+        <v>156</v>
+      </c>
+      <c r="C158" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>-0.2496372461061446</v>
+      </c>
+      <c r="D158" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>-8.1864194597443221E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="15.75">
+      <c r="A159" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.93400974962137984</v>
+      </c>
+      <c r="B159" s="5">
+        <v>157</v>
+      </c>
+      <c r="C159" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.62198932127683371</v>
+      </c>
+      <c r="D159" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>-6.2814392751360804E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="15.75">
+      <c r="A160" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.73283689124856966</v>
+      </c>
+      <c r="B160" s="5">
+        <v>158</v>
+      </c>
+      <c r="C160" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.7078598733844846E-2</v>
+      </c>
+      <c r="D160" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.42603925576206586</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="15.75">
+      <c r="A161" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.13757667938095638</v>
+      </c>
+      <c r="B161" s="5">
+        <v>159</v>
+      </c>
+      <c r="C161" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>-1.161465595725141</v>
+      </c>
+      <c r="D161" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1.0117184842086866</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="15.75">
+      <c r="A162" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>-5.576202734369584E-3</v>
+      </c>
+      <c r="B162" s="5">
+        <v>160</v>
+      </c>
+      <c r="C162" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>6.4109422022788812E-2</v>
+      </c>
+      <c r="D162" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>4.7941815977609298E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="15.75">
+      <c r="A163" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.5400480551373097</v>
+      </c>
+      <c r="B163" s="5">
+        <v>161</v>
+      </c>
+      <c r="C163" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>-1.8854901035671581E-2</v>
+      </c>
+      <c r="D163" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.90894491225384833</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="15.75">
+      <c r="A164" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>-3.1337629686612654</v>
+      </c>
+      <c r="B164" s="5">
+        <v>162</v>
+      </c>
+      <c r="C164" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.4982123632560669</v>
+      </c>
+      <c r="D164" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.68168789059190527</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="15.75">
+      <c r="A165" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.99171307056347047</v>
+      </c>
+      <c r="B165" s="5">
+        <v>163</v>
+      </c>
+      <c r="C165" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>-0.87783771346237893</v>
+      </c>
+      <c r="D165" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1.2972980131079854</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="15.75">
+      <c r="A166" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.2438346110464122</v>
+      </c>
+      <c r="B166" s="5">
+        <v>164</v>
+      </c>
+      <c r="C166" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>-0.63385412826121634</v>
+      </c>
+      <c r="D166" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.23921746401887412</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="15.75">
+      <c r="A167" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.64688941456192495</v>
+      </c>
+      <c r="B167" s="5">
+        <v>165</v>
+      </c>
+      <c r="C167" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>-0.9789219200407141</v>
+      </c>
+      <c r="D167" s="8">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1.1712711847697261</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="15.75">
+      <c r="A168" s="3">
+        <f t="shared" ref="A168:A195" ca="1" si="9">_xlfn.NORM.S.INV(RAND())</f>
+        <v>-1.0438222964123367</v>
+      </c>
+      <c r="B168" s="5">
+        <v>166</v>
+      </c>
+      <c r="C168" s="8">
+        <f t="shared" ref="C168:C195" ca="1" si="10">_xlfn.NORM.S.INV(RAND())</f>
+        <v>0.71711441206941107</v>
+      </c>
+      <c r="D168" s="8">
+        <f t="shared" ref="D168:D195" ca="1" si="11">$G$2*C168+SQRT(1-$G$2^2)*A168</f>
+        <v>-5.260184819187308E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="15.75">
+      <c r="A169" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.83937395905137058</v>
+      </c>
+      <c r="B169" s="5">
+        <v>167</v>
+      </c>
+      <c r="C169" s="8">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.78886406049130076</v>
+      </c>
+      <c r="D169" s="8">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.1347156238238629</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="15.75">
+      <c r="A170" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.36146574246301127</v>
+      </c>
+      <c r="B170" s="5">
+        <v>168</v>
+      </c>
+      <c r="C170" s="8">
+        <f t="shared" ca="1" si="10"/>
+        <v>-0.21007722742581916</v>
+      </c>
+      <c r="D170" s="8">
+        <f t="shared" ca="1" si="11"/>
+        <v>4.8817663537151362E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="15.75">
+      <c r="A171" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.97538640317950176</v>
+      </c>
+      <c r="B171" s="5">
+        <v>169</v>
+      </c>
+      <c r="C171" s="8">
+        <f t="shared" ca="1" si="10"/>
+        <v>-5.9979103158929403E-2</v>
+      </c>
+      <c r="D171" s="8">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.53724855938055738</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="15.75">
+      <c r="A172" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.29922891333741308</v>
+      </c>
+      <c r="B172" s="5">
+        <v>170</v>
+      </c>
+      <c r="C172" s="8">
+        <f t="shared" ca="1" si="10"/>
+        <v>-0.48386492596314729</v>
+      </c>
+      <c r="D172" s="8">
+        <f t="shared" ca="1" si="11"/>
+        <v>-0.56662928877296559</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="15.75">
+      <c r="A173" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>-1.4487123159089981</v>
+      </c>
+      <c r="B173" s="5">
+        <v>171</v>
+      </c>
+      <c r="C173" s="8">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.93052680032771373</v>
+      </c>
+      <c r="D173" s="8">
+        <f t="shared" ca="1" si="11"/>
+        <v>-0.12480594928322764</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="15.75">
+      <c r="A174" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.25140200544758473</v>
+      </c>
+      <c r="B174" s="5">
+        <v>172</v>
+      </c>
+      <c r="C174" s="8">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.1253017129169082</v>
+      </c>
+      <c r="D174" s="8">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.25108257360207736</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="15.75">
+      <c r="A175" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.48784361440791102</v>
+      </c>
+      <c r="B175" s="5">
+        <v>173</v>
+      </c>
+      <c r="C175" s="8">
+        <f t="shared" ca="1" si="10"/>
+        <v>-1.590563321234207</v>
+      </c>
+      <c r="D175" s="8">
+        <f t="shared" ca="1" si="11"/>
+        <v>-0.97974448834261918</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="15.75">
+      <c r="A176" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.38373787670756682</v>
+      </c>
+      <c r="B176" s="5">
+        <v>174</v>
+      </c>
+      <c r="C176" s="8">
+        <f t="shared" ca="1" si="10"/>
+        <v>-0.14721956067356629</v>
+      </c>
+      <c r="D176" s="8">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.11246707748568702</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="15.75">
+      <c r="A177" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>-1.6565096976289759</v>
+      </c>
+      <c r="B177" s="5">
+        <v>175</v>
+      </c>
+      <c r="C177" s="8">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.4471835422419782</v>
+      </c>
+      <c r="D177" s="8">
+        <f t="shared" ca="1" si="11"/>
+        <v>-0.63615898478380273</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="15.75">
+      <c r="A178" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.32946428289030993</v>
+      </c>
+      <c r="B178" s="5">
+        <v>176</v>
+      </c>
+      <c r="C178" s="8">
+        <f t="shared" ca="1" si="10"/>
+        <v>-1.4600043387519293</v>
+      </c>
+      <c r="D178" s="8">
+        <f t="shared" ca="1" si="11"/>
+        <v>-0.9703249012673576</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="15.75">
+      <c r="A179" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>-1.2741828307762817</v>
+      </c>
+      <c r="B179" s="5">
+        <v>177</v>
+      </c>
+      <c r="C179" s="8">
+        <f t="shared" ca="1" si="10"/>
+        <v>-0.33813990535197641</v>
+      </c>
+      <c r="D179" s="8">
+        <f t="shared" ca="1" si="11"/>
+        <v>-1.0350216227473501</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="15.75">
+      <c r="A180" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.80655054856424635</v>
+      </c>
+      <c r="B180" s="5">
+        <v>178</v>
+      </c>
+      <c r="C180" s="8">
+        <f t="shared" ca="1" si="10"/>
+        <v>-0.30349503485526419</v>
+      </c>
+      <c r="D180" s="8">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.24113430125433635</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="15.75">
+      <c r="A181" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>-1.1852950749832247</v>
+      </c>
+      <c r="B181" s="5">
+        <v>179</v>
+      </c>
+      <c r="C181" s="8">
+        <f t="shared" ca="1" si="10"/>
+        <v>-0.59720565009344562</v>
+      </c>
+      <c r="D181" s="8">
+        <f t="shared" ca="1" si="11"/>
+        <v>-1.1889415650646913</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="15.75">
+      <c r="A182" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>-3.9292516538993821E-2</v>
+      </c>
+      <c r="B182" s="5">
+        <v>180</v>
+      </c>
+      <c r="C182" s="8">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.57998819539539737</v>
+      </c>
+      <c r="D182" s="8">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.44041504639292162</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="15.75">
+      <c r="A183" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>-1.2871271775187001</v>
+      </c>
+      <c r="B183" s="5">
+        <v>181</v>
+      </c>
+      <c r="C183" s="8">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.1951077256683613</v>
+      </c>
+      <c r="D183" s="8">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.18380987402346916</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="15.75">
+      <c r="A184" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>2.2597752964422875</v>
+      </c>
+      <c r="B184" s="5">
+        <v>182</v>
+      </c>
+      <c r="C184" s="8">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.7024980801801366</v>
+      </c>
+      <c r="D184" s="8">
+        <f t="shared" ca="1" si="11"/>
+        <v>2.7178636420094815</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="15.75">
+      <c r="A185" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.37404652210886385</v>
+      </c>
+      <c r="B185" s="5">
+        <v>183</v>
+      </c>
+      <c r="C185" s="8">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.3060883336076494</v>
+      </c>
+      <c r="D185" s="8">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.2692985801514378</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="15.75">
+      <c r="A186" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.53027718851518924</v>
+      </c>
+      <c r="B186" s="5">
+        <v>184</v>
+      </c>
+      <c r="C186" s="8">
+        <f t="shared" ca="1" si="10"/>
+        <v>-0.40179331028455523</v>
+      </c>
+      <c r="D186" s="8">
+        <f t="shared" ca="1" si="11"/>
+        <v>-0.6396009613367577</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="15.75">
+      <c r="A187" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.754114957797409</v>
+      </c>
+      <c r="B187" s="5">
+        <v>185</v>
+      </c>
+      <c r="C187" s="8">
+        <f t="shared" ca="1" si="10"/>
+        <v>-0.12105423422127207</v>
+      </c>
+      <c r="D187" s="8">
+        <f t="shared" ca="1" si="11"/>
+        <v>-0.54931236205546297</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="15.75">
+      <c r="A188" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.34570217143637277</v>
+      </c>
+      <c r="B188" s="5">
+        <v>186</v>
+      </c>
+      <c r="C188" s="8">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.72155722729640237</v>
+      </c>
+      <c r="D188" s="8">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.78466708469894553</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="15.75">
+      <c r="A189" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.29504518688128573</v>
+      </c>
+      <c r="B189" s="5">
+        <v>187</v>
+      </c>
+      <c r="C189" s="8">
+        <f t="shared" ca="1" si="10"/>
+        <v>-0.13116518159284107</v>
+      </c>
+      <c r="D189" s="8">
+        <f t="shared" ca="1" si="11"/>
+        <v>7.2094966854498538E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="15.75">
+      <c r="A190" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>-1.337659434973226</v>
+      </c>
+      <c r="B190" s="5">
+        <v>188</v>
+      </c>
+      <c r="C190" s="8">
+        <f t="shared" ca="1" si="10"/>
+        <v>-0.36869964949931083</v>
+      </c>
+      <c r="D190" s="8">
+        <f t="shared" ca="1" si="11"/>
+        <v>-1.0975553805833842</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="15.75">
+      <c r="A191" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.48008365590143481</v>
+      </c>
+      <c r="B191" s="5">
+        <v>189</v>
+      </c>
+      <c r="C191" s="8">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.114202208522072</v>
+      </c>
+      <c r="D191" s="8">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.60331157327679685</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="15.75">
+      <c r="A192" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.17497610476795863</v>
+      </c>
+      <c r="B192" s="5">
+        <v>190</v>
+      </c>
+      <c r="C192" s="8">
+        <f t="shared" ca="1" si="10"/>
+        <v>-0.18553958222662839</v>
+      </c>
+      <c r="D192" s="8">
+        <f t="shared" ca="1" si="11"/>
+        <v>-0.25341732864207789</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="15.75">
+      <c r="A193" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.4005920273608765</v>
+      </c>
+      <c r="B193" s="5">
+        <v>191</v>
+      </c>
+      <c r="C193" s="8">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.24324573196028135</v>
+      </c>
+      <c r="D193" s="8">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.0349518019847508</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="15.75">
+      <c r="A194" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.3632671361971459</v>
+      </c>
+      <c r="B194" s="5">
+        <v>192</v>
+      </c>
+      <c r="C194" s="8">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.3506719164362275</v>
+      </c>
+      <c r="D194" s="8">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.2984978148672697</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="15.75">
+      <c r="A195" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.60375576046233148</v>
+      </c>
+      <c r="B195" s="5">
+        <v>193</v>
+      </c>
+      <c r="C195" s="8">
+        <f t="shared" ca="1" si="10"/>
+        <v>-0.4074689676783001</v>
+      </c>
+      <c r="D195" s="8">
+        <f t="shared" ca="1" si="11"/>
+        <v>3.6278282134758699E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="15.75">
+      <c r="A196" s="3">
+        <f ca="1">_xlfn.NORM.S.INV(RAND())</f>
+        <v>0.41642723302627455</v>
+      </c>
+      <c r="B196" s="5">
+        <v>194</v>
+      </c>
+      <c r="C196" s="8">
+        <f ca="1">_xlfn.NORM.S.INV(RAND())</f>
+        <v>0.37855769290098107</v>
+      </c>
+      <c r="D196" s="8">
+        <f ca="1">$G$2*C196+SQRT(1-$G$2^2)*A196</f>
+        <v>0.55270249413654948</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="15.75">
+      <c r="A197" s="3">
+        <f t="shared" ref="A197:A207" ca="1" si="12">_xlfn.NORM.S.INV(RAND())</f>
+        <v>0.7005619395450422</v>
+      </c>
+      <c r="B197" s="5">
+        <v>195</v>
+      </c>
+      <c r="C197" s="8">
+        <f t="shared" ref="C197:C207" ca="1" si="13">_xlfn.NORM.S.INV(RAND())</f>
+        <v>0.6047464435765294</v>
+      </c>
+      <c r="D197" s="8">
+        <f t="shared" ref="D197:D207" ca="1" si="14">$G$2*C197+SQRT(1-$G$2^2)*A197</f>
+        <v>0.90413431858824878</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="15.75">
+      <c r="A198" s="3">
+        <f t="shared" ca="1" si="12"/>
+        <v>-0.93972601744772</v>
+      </c>
+      <c r="B198" s="5">
+        <v>196</v>
+      </c>
+      <c r="C198" s="8">
+        <f t="shared" ca="1" si="13"/>
+        <v>-1.388586036865634</v>
+      </c>
+      <c r="D198" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>-1.6747044399611393</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="15.75">
+      <c r="A199" s="3">
+        <f t="shared" ca="1" si="12"/>
+        <v>-1.4672083884641105</v>
+      </c>
+      <c r="B199" s="5">
+        <v>197</v>
+      </c>
+      <c r="C199" s="8">
+        <f t="shared" ca="1" si="13"/>
+        <v>-3.4227859509106125E-2</v>
+      </c>
+      <c r="D199" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>-0.907707320685751</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="15.75">
+      <c r="A200" s="3">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.59600134108402048</v>
+      </c>
+      <c r="B200" s="5">
+        <v>198</v>
+      </c>
+      <c r="C200" s="8">
+        <f t="shared" ca="1" si="13"/>
+        <v>-0.76211896805985024</v>
+      </c>
+      <c r="D200" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>-0.25209436979746802</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="15.75">
+      <c r="A201" s="3">
+        <f t="shared" ca="1" si="12"/>
+        <v>-0.12221735295468102</v>
+      </c>
+      <c r="B201" s="5">
+        <v>199</v>
+      </c>
+      <c r="C201" s="8">
+        <f t="shared" ca="1" si="13"/>
+        <v>-5.5818749865655666E-2</v>
+      </c>
+      <c r="D201" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>-0.11798541166533313</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="15.75">
+      <c r="A202" s="3">
+        <f t="shared" ca="1" si="12"/>
+        <v>-0.76737578532401973</v>
+      </c>
+      <c r="B202" s="5">
+        <v>200</v>
+      </c>
+      <c r="C202" s="8">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.274429336195382</v>
+      </c>
+      <c r="D202" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.55911799776189386</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="3"/>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="3"/>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="3"/>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="3"/>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -432,10 +6279,13 @@
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>18</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -444,7 +6294,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -453,7 +6303,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -462,7 +6312,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -471,7 +6321,7 @@
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -480,7 +6330,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -489,7 +6339,7 @@
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -498,7 +6348,7 @@
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -507,7 +6357,7 @@
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -516,7 +6366,7 @@
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -525,7 +6375,7 @@
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>11</v>
       </c>

--- a/lab4/Lab 4 data.xlsx
+++ b/lab4/Lab 4 data.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4E55CD-6991-4EA3-801B-B1977CAD76B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90656D7-95A1-4727-A745-F3BCF35D0730}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="correlation plot" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Table 4.1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Distance to Maps Box</t>
   </si>
@@ -90,12 +91,57 @@
   <si>
     <t>True_Distance</t>
   </si>
+  <si>
+    <t>186 ft</t>
+  </si>
+  <si>
+    <t>94 ft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43 ft 5 in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 ft 4 in </t>
+  </si>
+  <si>
+    <t>255 ft 4 in</t>
+  </si>
+  <si>
+    <t>130 ft 3 in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83 ft 1 in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 ft 8 in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 ft 8 in </t>
+  </si>
+  <si>
+    <t>39 ft</t>
+  </si>
+  <si>
+    <t>Median / True Distance (last column table 4.1)</t>
+  </si>
+  <si>
+    <t>Team 2 Measurement</t>
+  </si>
+  <si>
+    <t>Team 1 Measurement</t>
+  </si>
+  <si>
+    <t>Instructor Measured Distance</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,8 +169,35 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,8 +210,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -185,26 +270,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -214,7 +287,26 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,604 +469,604 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="200"/>
                 <c:pt idx="0">
-                  <c:v>-0.6929474515680909</c:v>
+                  <c:v>-0.24854458103222143</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33538431008298297</c:v>
+                  <c:v>2.1076761008570646</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98646156289478237</c:v>
+                  <c:v>-0.5982992649089568</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99888779372052783</c:v>
+                  <c:v>-0.48629939045595677</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.55768219541713415</c:v>
+                  <c:v>1.3611547420797432</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.9565462539088037</c:v>
+                  <c:v>1.2631249465154879</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.3407117415320553</c:v>
+                  <c:v>1.4228649431827789</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.28872654661224051</c:v>
+                  <c:v>-0.3130143936263155</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.79292358172916344</c:v>
+                  <c:v>-0.98627964209431096</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.84723898891972926</c:v>
+                  <c:v>-0.74707490420512013</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.38549880928748081</c:v>
+                  <c:v>0.27399292606188708</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.2887438338735163E-2</c:v>
+                  <c:v>-0.23169830732545263</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.5502251954486868</c:v>
+                  <c:v>0.37891529552091158</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.1982468895713154</c:v>
+                  <c:v>0.73797179557864701</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.45711380055212486</c:v>
+                  <c:v>0.76203847442981532</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-2.1371055259209574E-2</c:v>
+                  <c:v>0.86542300518936688</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.3331166117701059</c:v>
+                  <c:v>-1.1534989639648408</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.88978002212796636</c:v>
+                  <c:v>1.3509657467859515</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.25407363414534562</c:v>
+                  <c:v>-0.1548383861811071</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1.2271137544162376</c:v>
+                  <c:v>-0.47227315845869688</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1.1869119347025689</c:v>
+                  <c:v>-0.76758313447994275</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.46598731290205608</c:v>
+                  <c:v>0.74044081782842586</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.0199149416014004E-3</c:v>
+                  <c:v>0.24153696097382973</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.76131053370543578</c:v>
+                  <c:v>1.0401017706588969</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.27118734064447175</c:v>
+                  <c:v>1.0671110155896752</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.2832187899675819E-3</c:v>
+                  <c:v>0.17163044924498258</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-7.1855261525611655E-2</c:v>
+                  <c:v>0.81538845369143198</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.87279541637643032</c:v>
+                  <c:v>-0.58041268107225319</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.5190318441747358</c:v>
+                  <c:v>4.6562801299786682E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.35126369604891772</c:v>
+                  <c:v>0.39039306899263154</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.12148580955066936</c:v>
+                  <c:v>0.11912120257763777</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.23272106165483908</c:v>
+                  <c:v>-1.1316632607912731</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.2065671622140512</c:v>
+                  <c:v>-0.4960048607497558</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.11568057493393982</c:v>
+                  <c:v>1.452776783920924</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.64966331645590869</c:v>
+                  <c:v>-1.6223122226627784</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.52295728112621964</c:v>
+                  <c:v>-0.73829315930107875</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.79328379913609381</c:v>
+                  <c:v>0.28102130476216752</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.11186749191399788</c:v>
+                  <c:v>0.55907341697392576</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.15196342874527807</c:v>
+                  <c:v>0.26272311250600738</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.16483308205758271</c:v>
+                  <c:v>-0.40514231818123952</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.56355463931151561</c:v>
+                  <c:v>-0.24374628988510044</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.28105668605394701</c:v>
+                  <c:v>1.6084537774958885</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.0877808599623473</c:v>
+                  <c:v>0.98120092249488688</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.5567760991787147</c:v>
+                  <c:v>-0.84318559273088955</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.93461180343752115</c:v>
+                  <c:v>1.2893816062645578</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.98962651640904464</c:v>
+                  <c:v>0.46758224180338886</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.61439938076982</c:v>
+                  <c:v>-0.29249948525031672</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.1703046747459553</c:v>
+                  <c:v>1.6722437200297742</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-1.7234892665415134</c:v>
+                  <c:v>1.4583315549206153</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.86726832842570845</c:v>
+                  <c:v>8.3006553044494037E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.2069239780065684</c:v>
+                  <c:v>-0.2679721709954172</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-0.37165296891604144</c:v>
+                  <c:v>1.5692597937061583</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.3554318994447771</c:v>
+                  <c:v>1.20347008294334</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-1.3552982982502193</c:v>
+                  <c:v>-0.68946967650103885</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.4919633721313868</c:v>
+                  <c:v>0.55360195554514113</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.70931986849605255</c:v>
+                  <c:v>0.19902415779479204</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-0.67080003269309696</c:v>
+                  <c:v>0.67623814478988364</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-2.4139814557016241</c:v>
+                  <c:v>0.34898752410461686</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.3140879949305553</c:v>
+                  <c:v>-0.1927929279586717</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-0.91874254554588164</c:v>
+                  <c:v>-0.17823894886373512</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.40149133206819521</c:v>
+                  <c:v>0.79714257664141996</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.33020861234310711</c:v>
+                  <c:v>-0.85876440116026753</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.85264831490000526</c:v>
+                  <c:v>-0.655840292932933</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.10737746155814105</c:v>
+                  <c:v>-3.022888314126157E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-0.94016933285374371</c:v>
+                  <c:v>2.7872701656465066E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.47081318721650928</c:v>
+                  <c:v>1.1234781084257237</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-0.34558918998505445</c:v>
+                  <c:v>1.3107662256923376</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-2.1068659540285695</c:v>
+                  <c:v>1.0105065528070205</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.83596551311441125</c:v>
+                  <c:v>0.87260003658227803</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.67549878312827705</c:v>
+                  <c:v>-0.81784226827913531</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.2084737531531204</c:v>
+                  <c:v>2.4365061423978589</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-1.0162822107368312</c:v>
+                  <c:v>-0.68440384269745191</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-1.9228329818160086</c:v>
+                  <c:v>-1.0517954363496944</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.3091533509962896</c:v>
+                  <c:v>-0.63328567493954047</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.93425873448193386</c:v>
+                  <c:v>-0.38318330410590873</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-0.28736847001291604</c:v>
+                  <c:v>2.5771248319473674</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.76364908177198054</c:v>
+                  <c:v>0.2121031136676802</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.61539329573980972</c:v>
+                  <c:v>0.12040306998547488</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-2.1512512046985734</c:v>
+                  <c:v>0.38715478908972789</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-0.38251100533080301</c:v>
+                  <c:v>-1.5950312876776611</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-0.58740389576047147</c:v>
+                  <c:v>-0.47305228910913688</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.2977902730173336</c:v>
+                  <c:v>1.0237106203572957</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.9880535508349696</c:v>
+                  <c:v>-1.345295860669145</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.48377226083272301</c:v>
+                  <c:v>0.36890549989691435</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-0.48320707018378545</c:v>
+                  <c:v>-1.5437831347667677</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.76194899094497748</c:v>
+                  <c:v>-0.21105161025952643</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-1.3917799111235409</c:v>
+                  <c:v>-0.13221303287455438</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-8.6393520077373387E-2</c:v>
+                  <c:v>-0.59170450519799178</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-0.65290799791289944</c:v>
+                  <c:v>-0.66627157442423546</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-0.80166217754255953</c:v>
+                  <c:v>-0.36746682959931748</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-0.62507929833117359</c:v>
+                  <c:v>-2.4149887008305067</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.2473244389973464</c:v>
+                  <c:v>1.9012812160345991</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-0.41640305485270351</c:v>
+                  <c:v>-0.26196307995398077</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-0.60514658728251891</c:v>
+                  <c:v>0.2430159999436379</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.86515636404723628</c:v>
+                  <c:v>-1.6581420659633903</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-0.3888802984802846</c:v>
+                  <c:v>-2.3661387602754109</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.8343925516386127E-2</c:v>
+                  <c:v>0.6293608118264461</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.2659381548417543</c:v>
+                  <c:v>-0.25064886365896882</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.91520287694354618</c:v>
+                  <c:v>0.67477742949166153</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.0143243924878118</c:v>
+                  <c:v>-1.2665207866704336</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-0.31848215369651572</c:v>
+                  <c:v>1.3954201765268603</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>-1.1927545087236902</c:v>
+                  <c:v>1.9123583362332894</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-1.4300009824553879</c:v>
+                  <c:v>-7.7329304909974209E-2</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1.7118779560081299</c:v>
+                  <c:v>-0.3542041482958857</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2.1014101451964446</c:v>
+                  <c:v>-0.60362140803086384</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1.4966865606050577</c:v>
+                  <c:v>-0.79307401075490325</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1.6770734923781978</c:v>
+                  <c:v>1.1956396494755563</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.67503777564174616</c:v>
+                  <c:v>0.47935003094934892</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>-0.9082040799071267</c:v>
+                  <c:v>1.593227029128923</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.51848405345520976</c:v>
+                  <c:v>-0.4898537685405368</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1.1264110471403892</c:v>
+                  <c:v>-7.1653535414778521E-2</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1.0811669004812454</c:v>
+                  <c:v>-0.9467160472512971</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>-0.2614221634133948</c:v>
+                  <c:v>0.46128361044894328</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1.1131435393989924</c:v>
+                  <c:v>-1.4676752200840038</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1.5939142147286638</c:v>
+                  <c:v>0.54528593639714673</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1.1913569913734283</c:v>
+                  <c:v>0.71294870742606486</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>-0.60188472911983426</c:v>
+                  <c:v>0.63813071827996681</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>-0.6064504499697061</c:v>
+                  <c:v>0.77945918681082482</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.29812822459382482</c:v>
+                  <c:v>-0.20694684216134851</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1.0921642241892868</c:v>
+                  <c:v>0.34321920236459624</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>-3.6747450513799719E-2</c:v>
+                  <c:v>2.2321087853444785</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.83002015989104405</c:v>
+                  <c:v>-1.0561783958986999</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-0.75578466298845304</c:v>
+                  <c:v>-1.3777064063033444</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>-1.8708659210161567</c:v>
+                  <c:v>-1.1858654305300194</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>-0.62682900996051438</c:v>
+                  <c:v>-0.52845264478628373</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>-0.62461999091492415</c:v>
+                  <c:v>-0.83269751550016347</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>-0.53589371404595088</c:v>
+                  <c:v>-0.40705154936277471</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>1.1528257703417604</c:v>
+                  <c:v>1.1524248358653957</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>3.5910500577209112E-2</c:v>
+                  <c:v>0.97467448047112959</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>-1.3543486825618198</c:v>
+                  <c:v>0.32389950410941604</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.334198314755491</c:v>
+                  <c:v>-0.50260691628898713</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>-1.7398529147491435</c:v>
+                  <c:v>0.39019767674175604</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>9.9549899500492312E-2</c:v>
+                  <c:v>1.4050757790273583</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>4.0143667714295318E-2</c:v>
+                  <c:v>-1.3250966599643719</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>-0.8202031197549301</c:v>
+                  <c:v>2.4526466268445887E-2</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>-2.3747555811898957</c:v>
+                  <c:v>1.1274162230812064</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.37827316304251379</c:v>
+                  <c:v>1.4045298965053343</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>-0.35133204593485334</c:v>
+                  <c:v>-1.2004281900137512E-3</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>-0.41339480610691276</c:v>
+                  <c:v>-1.4508653004467185</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.65870233061509365</c:v>
+                  <c:v>-0.52220332538187075</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>1.6165792891395052</c:v>
+                  <c:v>-0.60321513009534544</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>-0.79257493596206519</c:v>
+                  <c:v>-2.0006662955472558</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>-0.12905930349720762</c:v>
+                  <c:v>-0.62474894203197229</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>-0.26087681757928743</c:v>
+                  <c:v>0.39516227155019273</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>-0.2886306855979992</c:v>
+                  <c:v>0.51860412705914927</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.88883737101323379</c:v>
+                  <c:v>0.48114657481928891</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.67438581570268119</c:v>
+                  <c:v>-0.34266595694818197</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>-0.12928484608051061</c:v>
+                  <c:v>-0.34037093801169688</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>-1.1955681978609216</c:v>
+                  <c:v>1.5308825646079447</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.60231628540877413</c:v>
+                  <c:v>0.33889726264879899</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>1.4431032126837251</c:v>
+                  <c:v>1.2096893899404804</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>-1.0489002936561682</c:v>
+                  <c:v>-1.0318995359009639</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>1.0734310119856552</c:v>
+                  <c:v>0.46171201692476022</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>-0.1520259224498719</c:v>
+                  <c:v>-3.3680565886627236</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>-2.4783200006172521</c:v>
+                  <c:v>0.14007774041326004</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>-0.2496372461061446</c:v>
+                  <c:v>0.7624923302651877</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.62198932127683371</c:v>
+                  <c:v>0.53185427747467895</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>1.7078598733844846E-2</c:v>
+                  <c:v>0.6781312322013161</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>-1.161465595725141</c:v>
+                  <c:v>2.6693262619508444</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>6.4109422022788812E-2</c:v>
+                  <c:v>-0.57262064369242027</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>-1.8854901035671581E-2</c:v>
+                  <c:v>1.6365958176747035</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>1.4982123632560669</c:v>
+                  <c:v>-0.65823921464187862</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>-0.87783771346237893</c:v>
+                  <c:v>-1.2813832056426711</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>-0.63385412826121634</c:v>
+                  <c:v>1.698895211155194</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>-0.9789219200407141</c:v>
+                  <c:v>-1.5601629383750635</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.71711441206941107</c:v>
+                  <c:v>1.283100657629108</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.78886406049130076</c:v>
+                  <c:v>-0.28542256544745803</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>-0.21007722742581916</c:v>
+                  <c:v>0.23569947693427742</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>-5.9979103158929403E-2</c:v>
+                  <c:v>-2.6472307967626091E-2</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>-0.48386492596314729</c:v>
+                  <c:v>-6.4401759082264212E-2</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.93052680032771373</c:v>
+                  <c:v>1.3970145297916279</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.1253017129169082</c:v>
+                  <c:v>0.44834574173681624</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>-1.590563321234207</c:v>
+                  <c:v>0.70638573805448424</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>-0.14721956067356629</c:v>
+                  <c:v>-0.69799058941537595</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0.4471835422419782</c:v>
+                  <c:v>1.1410540935126741</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>-1.4600043387519293</c:v>
+                  <c:v>0.40453274479880219</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>-0.33813990535197641</c:v>
+                  <c:v>0.52538037592695397</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>-0.30349503485526419</c:v>
+                  <c:v>-0.73190990866177053</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>-0.59720565009344562</c:v>
+                  <c:v>-0.50008183547704466</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>0.57998819539539737</c:v>
+                  <c:v>-1.0074591189209838</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>1.1951077256683613</c:v>
+                  <c:v>0.97238026010919865</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>1.7024980801801366</c:v>
+                  <c:v>2.9535268221431814E-3</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>1.3060883336076494</c:v>
+                  <c:v>0.87547886161134847</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>-0.40179331028455523</c:v>
+                  <c:v>0.1301305296578911</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>-0.12105423422127207</c:v>
+                  <c:v>0.99761881673358821</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0.72155722729640237</c:v>
+                  <c:v>0.7513274602060116</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>-0.13116518159284107</c:v>
+                  <c:v>-1.436737421373236</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>-0.36869964949931083</c:v>
+                  <c:v>1.5170871312660033</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>1.114202208522072</c:v>
+                  <c:v>-1.4480792000137928</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>-0.18553958222662839</c:v>
+                  <c:v>0.35973369519457166</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.24324573196028135</c:v>
+                  <c:v>1.0777879927508136</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>1.3506719164362275</c:v>
+                  <c:v>-2.5408818781449507</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>-0.4074689676783001</c:v>
+                  <c:v>1.1239645265663383</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.37855769290098107</c:v>
+                  <c:v>-2.9480733919464956</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.6047464435765294</c:v>
+                  <c:v>0.30988401036203711</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>-1.388586036865634</c:v>
+                  <c:v>-0.12488765543406072</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>-3.4227859509106125E-2</c:v>
+                  <c:v>0.44547690116285793</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>-0.76211896805985024</c:v>
+                  <c:v>-0.72837605096108615</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>-5.5818749865655666E-2</c:v>
+                  <c:v>0.11829127924047896</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>1.274429336195382</c:v>
+                  <c:v>1.798601216322449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -986,604 +1078,604 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="200"/>
                 <c:pt idx="0">
-                  <c:v>-0.96583670298857771</c:v>
+                  <c:v>-1.0870270599041796</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.39172861981502011</c:v>
+                  <c:v>0.79614787456207625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0091033466793997</c:v>
+                  <c:v>-0.22767292909210657</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.56137020213485345</c:v>
+                  <c:v>0.85547965589927388</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23328540156409747</c:v>
+                  <c:v>1.84928149866544</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.1978651109452891</c:v>
+                  <c:v>1.0148221120272158</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.2710629523368431</c:v>
+                  <c:v>1.5064587420854216</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.60313225100307788</c:v>
+                  <c:v>-0.51343391865414634</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3658843239956475E-3</c:v>
+                  <c:v>-0.88215856287577132</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.31092386991190984</c:v>
+                  <c:v>9.8718302232959187E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0506168350929084</c:v>
+                  <c:v>-0.33320569015122564</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.2959299598707793</c:v>
+                  <c:v>-0.4636262436618252</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1598518574467018</c:v>
+                  <c:v>0.5197217569569107</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.6762707017002507</c:v>
+                  <c:v>1.0915353853138696</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.41434940909206947</c:v>
+                  <c:v>0.87992126493627287</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.2126512073627895E-2</c:v>
+                  <c:v>0.7920027244742095</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.2777623117674319</c:v>
+                  <c:v>-0.76611072655054724</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.4478200526595071</c:v>
+                  <c:v>1.7391379003127443</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.76800316149139E-2</c:v>
+                  <c:v>0.46312460775792202</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1.0297099786258432</c:v>
+                  <c:v>0.12460257835631433</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.63605822520067867</c:v>
+                  <c:v>-0.78985390415235968</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.63211651100102628</c:v>
+                  <c:v>-0.14786326831205843</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-7.3387384132972758E-2</c:v>
+                  <c:v>0.24011279215187198</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-1.0179384723768514</c:v>
+                  <c:v>0.89863876269733056</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.46102464390435582</c:v>
+                  <c:v>0.46389518387121098</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.59379203736857011</c:v>
+                  <c:v>0.56056457757332845</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.52521656401821304</c:v>
+                  <c:v>0.61872941854442454</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.5136705030401103</c:v>
+                  <c:v>-6.6845286567205175E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.58171880736756931</c:v>
+                  <c:v>-0.40987211145857011</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.40560386476771215</c:v>
+                  <c:v>0.80813897486582376</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-4.3638216268965163E-2</c:v>
+                  <c:v>0.32285111395482313</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1.0965390527460532</c:v>
+                  <c:v>-0.5303751191437589</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.154439536933071</c:v>
+                  <c:v>-1.17618764856748</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.59388340418563212</c:v>
+                  <c:v>1.8565014540018263</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.3322704780691281</c:v>
+                  <c:v>-2.39761584198633</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.1361834000662792</c:v>
+                  <c:v>0.56244822307132647</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.2740621271306025</c:v>
+                  <c:v>-9.6026741722329362E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8.7613958371288159E-4</c:v>
+                  <c:v>-0.22642349367637588</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.11351736257363616</c:v>
+                  <c:v>0.2098144547312896</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.52170173577419998</c:v>
+                  <c:v>-0.70810801336564444</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-4.9486747148878574E-3</c:v>
+                  <c:v>-0.39127461999865243</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.13504217690274151</c:v>
+                  <c:v>1.3037085910087598</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.7802682861978776</c:v>
+                  <c:v>-0.12151454489865365</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.1161407931042668</c:v>
+                  <c:v>-1.2113671473601111</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.39404099908990692</c:v>
+                  <c:v>2.1705264366585237</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.85572023589116364</c:v>
+                  <c:v>0.5406823230548139</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.5823661236147815</c:v>
+                  <c:v>-0.39422210557273135</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.3236448150434179</c:v>
+                  <c:v>1.1809865878465278</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.92481483503911699</c:v>
+                  <c:v>0.80629783133915778</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.58496054323337199</c:v>
+                  <c:v>0.25629999657886038</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-0.46547360080450872</c:v>
+                  <c:v>-0.21322466900300635</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-0.36577383022445215</c:v>
+                  <c:v>0.91354963558174296</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.87694607163744842</c:v>
+                  <c:v>1.0884720381492237</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-0.79996032014190266</c:v>
+                  <c:v>-0.67549674766332035</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.60008578904856069</c:v>
+                  <c:v>0.62826810100684616</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.41947803693802427</c:v>
+                  <c:v>0.57708672259614313</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-0.3251333297846371</c:v>
+                  <c:v>0.36107272810293295</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-2.1138097963970539</c:v>
+                  <c:v>0.28709300680889449</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.9360420079486853</c:v>
+                  <c:v>-0.23329598726203643</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-1.6853928640838072</c:v>
+                  <c:v>-1.0450172521550078</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.7621209562771204</c:v>
+                  <c:v>0.7074274824427208</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.62113540758820851</c:v>
+                  <c:v>0.46440584682817099</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.75197661176447639</c:v>
+                  <c:v>-0.38593218303379151</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-0.12122819872976566</c:v>
+                  <c:v>-0.54232864002962444</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-0.79007094955885682</c:v>
+                  <c:v>-1.5313959161229491</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.50096036528505139</c:v>
+                  <c:v>1.3689890830174329</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-9.198485521764152E-2</c:v>
+                  <c:v>2.2693987948948608</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-2.4356025522138069</c:v>
+                  <c:v>0.46137669614306825</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.5240517039732184</c:v>
+                  <c:v>0.26601041612858256</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-0.36951536919150363</c:v>
+                  <c:v>-1.2089585462396797</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.3498739762996528</c:v>
+                  <c:v>1.6608802130251428</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-1.027452303637215</c:v>
+                  <c:v>-0.29126487326302131</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-1.6293276807799897</c:v>
+                  <c:v>-1.7807450450684277</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-0.37474190016705577</c:v>
+                  <c:v>-0.74632998029432285</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.1055711427765718</c:v>
+                  <c:v>-1.005807846207841</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-0.11531995272817826</c:v>
+                  <c:v>1.7152311052426417</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.59526624894146385</c:v>
+                  <c:v>2.9091217827033361E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.74148069745779188</c:v>
+                  <c:v>0.23149242935538616</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-1.5445475620519691</c:v>
+                  <c:v>0.87608795564967812</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-0.303144763271811</c:v>
+                  <c:v>-1.488228210595373</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-1.0139392619292611</c:v>
+                  <c:v>-0.84326553083996791</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.72177584349372281</c:v>
+                  <c:v>0.42966340990121693</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.62299803146148225</c:v>
+                  <c:v>-0.19084625363559027</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.168017097621195</c:v>
+                  <c:v>-1.0472538233624167</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.79700950170315377</c:v>
+                  <c:v>-0.83030742474527841</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-4.0861005675480566E-2</c:v>
+                  <c:v>-1.5252626065526296</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-1.3321058328894098</c:v>
+                  <c:v>0.47818149924030995</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-0.69924248401009992</c:v>
+                  <c:v>-1.0629106567080313</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-0.45090450754586109</c:v>
+                  <c:v>-0.44404418817978486</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-0.45181791571740598</c:v>
+                  <c:v>-0.60072298488122289</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-3.5695731262763708E-2</c:v>
+                  <c:v>-1.6070961920748759</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.3633034291395738</c:v>
+                  <c:v>1.7044076048615824</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-0.40161689367162029</c:v>
+                  <c:v>7.8071354990101038E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-0.26626878178208163</c:v>
+                  <c:v>-0.14779400684121147</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.4050434658024398</c:v>
+                  <c:v>-0.60416147835593215</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-0.60263416874079134</c:v>
+                  <c:v>-1.6116191269419846</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-4.898490602454636E-2</c:v>
+                  <c:v>0.5997346116064286</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.6239648519938481</c:v>
+                  <c:v>-0.52979655895669531</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.59020551652585151</c:v>
+                  <c:v>-0.26954237065462017</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.1686343627668454</c:v>
+                  <c:v>-0.67512603326904541</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.15370407200224484</c:v>
+                  <c:v>1.1287475108068523</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>-0.27251085956318488</c:v>
+                  <c:v>1.8556258000795838</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-0.46470025658268921</c:v>
+                  <c:v>0.52078049077852806</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.95950300748913286</c:v>
+                  <c:v>1.1209745514768319</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2.4955686056680015</c:v>
+                  <c:v>-0.55026132031590369</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2.1931091273040062</c:v>
+                  <c:v>-0.87885446556780467</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1.9165747800842121</c:v>
+                  <c:v>1.4240209066762524</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.31580854192615626</c:v>
+                  <c:v>1.6549342269231826E-2</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>-0.33004866114284509</c:v>
+                  <c:v>1.4282773974090051</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1.1436898276450598</c:v>
+                  <c:v>-1.2714568174898468</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.2761404397818108</c:v>
+                  <c:v>0.84606950791091506</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.53311094798084913</c:v>
+                  <c:v>-1.6028290884859233</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1.6827091968933672E-2</c:v>
+                  <c:v>-0.21156502789600207</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.83166413413364115</c:v>
+                  <c:v>-2.292310541755783</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1.0114338146948234</c:v>
+                  <c:v>0.70385147075644561</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.97538052929267993</c:v>
+                  <c:v>0.63439672341619546</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>-0.62721061217733842</c:v>
+                  <c:v>0.94988592740922484</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.74430393500653402</c:v>
+                  <c:v>0.73205017073381307</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.27586907099007729</c:v>
+                  <c:v>-1.7033887433896833E-2</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1.2210101243152935</c:v>
+                  <c:v>-0.54693183178060445</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.22528360515089599</c:v>
+                  <c:v>1.6855513068125358</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.17840763503099305</c:v>
+                  <c:v>-1.8462296457451659</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-1.4564976941611469</c:v>
+                  <c:v>-1.8916804496098976</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>-1.1120292706108603</c:v>
+                  <c:v>-0.93626967078259693</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>-1.3059484230051068</c:v>
+                  <c:v>-1.0879516482388554</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>-0.13700420246540485</c:v>
+                  <c:v>-0.96070131010885862</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>-0.56888003919741847</c:v>
+                  <c:v>-1.3088374349076048</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.91964969698490062</c:v>
+                  <c:v>1.8463389708070257</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.20539073400662916</c:v>
+                  <c:v>1.0269794716129408</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>-0.68543280111970872</c:v>
+                  <c:v>0.94871507638187214</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.17912497283340334</c:v>
+                  <c:v>-1.2738450838510054</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>-1.6537996974598048</c:v>
+                  <c:v>-0.32225543389424344</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.42086008932758479</c:v>
+                  <c:v>1.4493579513278452</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.96490486297813516</c:v>
+                  <c:v>-1.1180045053043082</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>-0.3892623558208903</c:v>
+                  <c:v>0.40729657155290916</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>-0.50111737320571081</c:v>
+                  <c:v>0.77940442236324126</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>1.5622771733561167</c:v>
+                  <c:v>-0.21010349651707982</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>-0.13725159624568317</c:v>
+                  <c:v>-0.81195265625964108</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.18278351329880888</c:v>
+                  <c:v>-0.68638229716024246</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>1.5555855019876557</c:v>
+                  <c:v>-1.6939581807213178</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.46451669866253698</c:v>
+                  <c:v>-1.3461338637051172</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>-6.5885071007993345E-2</c:v>
+                  <c:v>-1.1945992744616216</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>-0.27518724547348183</c:v>
+                  <c:v>-0.25243684944709377</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>-0.77093718476558803</c:v>
+                  <c:v>2.5728124868229396E-2</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.64259115952351864</c:v>
+                  <c:v>-0.25297866680792558</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.97544110856206845</c:v>
+                  <c:v>0.17803413774810245</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.87174537018461051</c:v>
+                  <c:v>0.57237854178383729</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>-0.6927064377091896</c:v>
+                  <c:v>-0.61933563559704918</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>-0.15319837848383244</c:v>
+                  <c:v>1.795104488385397</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.96852118180263935</c:v>
+                  <c:v>-1.0194307726309726</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>1.4330501172390169</c:v>
+                  <c:v>0.7060519992346479</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>1.2026466391469315E-3</c:v>
+                  <c:v>-1.2470477902278589</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.90757180710630736</c:v>
+                  <c:v>1.5967347082704308E-2</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>-0.92581564856412779</c:v>
+                  <c:v>-2.1844209069485543</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>-1.8981030540736019</c:v>
+                  <c:v>-0.34231606052756414</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>-8.1864194597443221E-2</c:v>
+                  <c:v>0.43858310552372609</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>-6.2814392751360804E-2</c:v>
+                  <c:v>-0.14049141477638327</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>-0.42603925576206586</c:v>
+                  <c:v>-0.16679010904020275</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>-1.0117184842086866</c:v>
+                  <c:v>1.8430545298547623</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>4.7941815977609298E-2</c:v>
+                  <c:v>-1.2672248927198919</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.90894491225384833</c:v>
+                  <c:v>0.51959020903179842</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>-0.68168789059190527</c:v>
+                  <c:v>-0.78351435620228305</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>-1.2972980131079854</c:v>
+                  <c:v>-1.2808671837031427</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.23921746401887412</c:v>
+                  <c:v>0.89684775383458548</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>-1.1712711847697261</c:v>
+                  <c:v>-2.0112023100710577</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>-5.260184819187308E-2</c:v>
+                  <c:v>1.7794849048383767</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>1.1347156238238629</c:v>
+                  <c:v>0.73047673397921653</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>4.8817663537151362E-2</c:v>
+                  <c:v>-0.62047830516381808</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.53724855938055738</c:v>
+                  <c:v>-0.8705982789023301</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>-0.56662928877296559</c:v>
+                  <c:v>-1.1243856095406235</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>-0.12480594928322764</c:v>
+                  <c:v>0.40520862065465157</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.25108257360207736</c:v>
+                  <c:v>0.7838677117585483</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>-0.97974448834261918</c:v>
+                  <c:v>-0.2223183232838134</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0.11246707748568702</c:v>
+                  <c:v>-1.2494700362411928</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>-0.63615898478380273</c:v>
+                  <c:v>1.0154488094065626</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>-0.9703249012673576</c:v>
+                  <c:v>1.2061099392058012</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>-1.0350216227473501</c:v>
+                  <c:v>0.65673076085991855</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0.24113430125433635</c:v>
+                  <c:v>6.4969496686632655E-2</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>-1.1889415650646913</c:v>
+                  <c:v>0.11065970799397667</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>0.44041504639292162</c:v>
+                  <c:v>-1.1721518623860796</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>0.18380987402346916</c:v>
+                  <c:v>0.67658177641064798</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>2.7178636420094815</c:v>
+                  <c:v>-0.28950226455613098</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>1.2692985801514378</c:v>
+                  <c:v>0.69183133078052095</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>-0.6396009613367577</c:v>
+                  <c:v>-0.14686583319006119</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>-0.54931236205546297</c:v>
+                  <c:v>0.56486561922909473</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0.78466708469894553</c:v>
+                  <c:v>-7.7018922260976175E-2</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>7.2094966854498538E-2</c:v>
+                  <c:v>-1.4753634877243489</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>-1.0975553805833842</c:v>
+                  <c:v>1.1832533336417603</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.60331157327679685</c:v>
+                  <c:v>-2.4062821304479112</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>-0.25341732864207789</c:v>
+                  <c:v>-3.8432692068504803E-2</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>1.0349518019847508</c:v>
+                  <c:v>2.3973027069913471</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>1.2984978148672697</c:v>
+                  <c:v>-2.7745561178989826</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>3.6278282134758699E-2</c:v>
+                  <c:v>2.6362403046834189</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.55270249413654948</c:v>
+                  <c:v>-2.0095960894425073</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.90413431858824878</c:v>
+                  <c:v>1.0259883254119939</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>-1.6747044399611393</c:v>
+                  <c:v>-1.607400307386466</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>-0.907707320685751</c:v>
+                  <c:v>0.10759783464986811</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>-0.25209436979746802</c:v>
+                  <c:v>-0.80733146939465772</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>-0.11798541166533313</c:v>
+                  <c:v>-0.18580499380189547</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.55911799776189386</c:v>
+                  <c:v>0.80576790160692657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1774,6 +1866,18 @@
                   <a:t>Y</a:t>
                 </a:r>
               </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US" sz="1400">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
@@ -1905,7 +2009,1696 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="70" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>regression line</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="70" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'correlation plot'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="63500" cap="rnd" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'correlation plot'!$C$3:$C$202</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>-0.24854458103222143</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1076761008570646</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.5982992649089568</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.48629939045595677</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3611547420797432</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2631249465154879</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4228649431827789</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.3130143936263155</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.98627964209431096</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.74707490420512013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.27399292606188708</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.23169830732545263</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.37891529552091158</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.73797179557864701</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.76203847442981532</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.86542300518936688</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.1534989639648408</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3509657467859515</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.1548383861811071</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.47227315845869688</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.76758313447994275</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.74044081782842586</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.24153696097382973</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0401017706588969</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0671110155896752</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.17163044924498258</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.81538845369143198</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.58041268107225319</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.6562801299786682E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.39039306899263154</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.11912120257763777</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.1316632607912731</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.4960048607497558</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.452776783920924</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.6223122226627784</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.73829315930107875</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.28102130476216752</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.55907341697392576</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.26272311250600738</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.40514231818123952</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.24374628988510044</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.6084537774958885</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.98120092249488688</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.84318559273088955</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.2893816062645578</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.46758224180338886</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.29249948525031672</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.6722437200297742</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.4583315549206153</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.3006553044494037E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.2679721709954172</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.5692597937061583</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.20347008294334</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.68946967650103885</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.55360195554514113</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.19902415779479204</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.67623814478988364</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.34898752410461686</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.1927929279586717</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.17823894886373512</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.79714257664141996</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.85876440116026753</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.655840292932933</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-3.022888314126157E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.7872701656465066E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.1234781084257237</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.3107662256923376</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.0105065528070205</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.87260003658227803</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.81784226827913531</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.4365061423978589</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.68440384269745191</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-1.0517954363496944</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.63328567493954047</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.38318330410590873</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.5771248319473674</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.2121031136676802</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.12040306998547488</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.38715478908972789</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-1.5950312876776611</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.47305228910913688</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.0237106203572957</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-1.345295860669145</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.36890549989691435</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-1.5437831347667677</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.21105161025952643</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.13221303287455438</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.59170450519799178</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.66627157442423546</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.36746682959931748</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-2.4149887008305067</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.9012812160345991</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.26196307995398077</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.2430159999436379</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-1.6581420659633903</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-2.3661387602754109</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.6293608118264461</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.25064886365896882</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.67477742949166153</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-1.2665207866704336</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.3954201765268603</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.9123583362332894</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-7.7329304909974209E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-0.3542041482958857</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-0.60362140803086384</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-0.79307401075490325</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.1956396494755563</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.47935003094934892</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.593227029128923</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-0.4898537685405368</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-7.1653535414778521E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-0.9467160472512971</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.46128361044894328</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-1.4676752200840038</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.54528593639714673</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.71294870742606486</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.63813071827996681</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.77945918681082482</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-0.20694684216134851</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.34321920236459624</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2.2321087853444785</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-1.0561783958986999</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-1.3777064063033444</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-1.1858654305300194</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-0.52845264478628373</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-0.83269751550016347</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-0.40705154936277471</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.1524248358653957</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.97467448047112959</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.32389950410941604</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-0.50260691628898713</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.39019767674175604</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.4050757790273583</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-1.3250966599643719</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2.4526466268445887E-2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.1274162230812064</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.4045298965053343</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-1.2004281900137512E-3</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-1.4508653004467185</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-0.52220332538187075</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-0.60321513009534544</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-2.0006662955472558</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-0.62474894203197229</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.39516227155019273</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.51860412705914927</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.48114657481928891</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-0.34266595694818197</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-0.34037093801169688</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.5308825646079447</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.33889726264879899</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.2096893899404804</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-1.0318995359009639</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.46171201692476022</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-3.3680565886627236</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.14007774041326004</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.7624923302651877</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.53185427747467895</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.6781312322013161</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2.6693262619508444</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-0.57262064369242027</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.6365958176747035</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-0.65823921464187862</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-1.2813832056426711</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.698895211155194</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-1.5601629383750635</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.283100657629108</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-0.28542256544745803</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.23569947693427742</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-2.6472307967626091E-2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-6.4401759082264212E-2</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.3970145297916279</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.44834574173681624</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.70638573805448424</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-0.69799058941537595</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.1410540935126741</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.40453274479880219</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.52538037592695397</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-0.73190990866177053</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-0.50008183547704466</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-1.0074591189209838</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.97238026010919865</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2.9535268221431814E-3</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.87547886161134847</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.1301305296578911</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.99761881673358821</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.7513274602060116</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-1.436737421373236</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.5170871312660033</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-1.4480792000137928</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.35973369519457166</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.0777879927508136</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-2.5408818781449507</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1.1239645265663383</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-2.9480733919464956</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.30988401036203711</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-0.12488765543406072</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.44547690116285793</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-0.72837605096108615</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.11829127924047896</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1.798601216322449</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'correlation plot'!$D$3:$D$202</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>-1.0870270599041796</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79614787456207625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.22767292909210657</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85547965589927388</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.84928149866544</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0148221120272158</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5064587420854216</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.51343391865414634</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.88215856287577132</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.8718302232959187E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.33320569015122564</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.4636262436618252</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5197217569569107</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0915353853138696</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.87992126493627287</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.7920027244742095</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.76611072655054724</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7391379003127443</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.46312460775792202</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.12460257835631433</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.78985390415235968</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.14786326831205843</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.24011279215187198</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.89863876269733056</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.46389518387121098</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.56056457757332845</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.61872941854442454</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-6.6845286567205175E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.40987211145857011</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.80813897486582376</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.32285111395482313</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.5303751191437589</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.17618764856748</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.8565014540018263</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-2.39761584198633</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.56244822307132647</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-9.6026741722329362E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.22642349367637588</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.2098144547312896</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.70810801336564444</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.39127461999865243</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.3037085910087598</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.12151454489865365</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.2113671473601111</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.1705264366585237</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.5406823230548139</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.39422210557273135</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.1809865878465278</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.80629783133915778</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.25629999657886038</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.21322466900300635</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.91354963558174296</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.0884720381492237</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.67549674766332035</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.62826810100684616</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.57708672259614313</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.36107272810293295</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.28709300680889449</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.23329598726203643</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-1.0450172521550078</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.7074274824427208</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.46440584682817099</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.38593218303379151</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.54232864002962444</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-1.5313959161229491</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.3689890830174329</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.2693987948948608</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.46137669614306825</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.26601041612858256</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-1.2089585462396797</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.6608802130251428</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.29126487326302131</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-1.7807450450684277</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.74632998029432285</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-1.005807846207841</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.7152311052426417</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.9091217827033361E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.23149242935538616</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.87608795564967812</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-1.488228210595373</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.84326553083996791</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.42966340990121693</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.19084625363559027</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-1.0472538233624167</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.83030742474527841</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-1.5252626065526296</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.47818149924030995</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-1.0629106567080313</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.44404418817978486</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.60072298488122289</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-1.6070961920748759</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.7044076048615824</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7.8071354990101038E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.14779400684121147</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.60416147835593215</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-1.6116191269419846</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.5997346116064286</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.52979655895669531</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.26954237065462017</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-0.67512603326904541</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.1287475108068523</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.8556258000795838</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.52078049077852806</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.1209745514768319</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-0.55026132031590369</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-0.87885446556780467</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.4240209066762524</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.6549342269231826E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.4282773974090051</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-1.2714568174898468</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.84606950791091506</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-1.6028290884859233</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-0.21156502789600207</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-2.292310541755783</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.70385147075644561</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.63439672341619546</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.94988592740922484</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.73205017073381307</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-1.7033887433896833E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-0.54693183178060445</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.6855513068125358</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-1.8462296457451659</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-1.8916804496098976</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-0.93626967078259693</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-1.0879516482388554</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-0.96070131010885862</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-1.3088374349076048</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.8463389708070257</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.0269794716129408</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.94871507638187214</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-1.2738450838510054</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-0.32225543389424344</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.4493579513278452</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-1.1180045053043082</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.40729657155290916</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.77940442236324126</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-0.21010349651707982</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-0.81195265625964108</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-0.68638229716024246</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-1.6939581807213178</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-1.3461338637051172</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-1.1945992744616216</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-0.25243684944709377</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2.5728124868229396E-2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-0.25297866680792558</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.17803413774810245</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.57237854178383729</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-0.61933563559704918</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.795104488385397</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-1.0194307726309726</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.7060519992346479</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-1.2470477902278589</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.5967347082704308E-2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-2.1844209069485543</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-0.34231606052756414</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.43858310552372609</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-0.14049141477638327</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-0.16679010904020275</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.8430545298547623</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-1.2672248927198919</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.51959020903179842</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-0.78351435620228305</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-1.2808671837031427</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.89684775383458548</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-2.0112023100710577</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.7794849048383767</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.73047673397921653</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-0.62047830516381808</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-0.8705982789023301</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-1.1243856095406235</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.40520862065465157</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.7838677117585483</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-0.2223183232838134</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-1.2494700362411928</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.0154488094065626</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.2061099392058012</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.65673076085991855</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>6.4969496686632655E-2</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.11065970799397667</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-1.1721518623860796</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.67658177641064798</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-0.28950226455613098</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.69183133078052095</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-0.14686583319006119</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.56486561922909473</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-7.7018922260976175E-2</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-1.4753634877243489</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.1832533336417603</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-2.4062821304479112</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-3.8432692068504803E-2</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2.3973027069913471</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-2.7745561178989826</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>2.6362403046834189</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-2.0095960894425073</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1.0259883254119939</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-1.607400307386466</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.10759783464986811</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-0.80733146939465772</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-0.18580499380189547</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.80576790160692657</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FF48-4413-BABD-07BC50BD270F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="964244719"/>
+        <c:axId val="1054525119"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="964244719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>X</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1054525119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1054525119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Y</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="964244719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="43000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2496,20 +4289,540 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="244">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="43000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="20000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="0" kern="1200" spc="70" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="63500" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2529,6 +4842,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81E070CA-782C-414C-89F9-E3FCEA86E780}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2802,8 +5153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348363D8-EC12-4AC6-AA3E-32B5A0257D91}">
   <dimension ref="A2:P207"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2814,3440 +5165,3440 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="15.75">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>0.8</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <f ca="1">_xlfn.NORM.S.INV(RAND())</f>
-        <v>-0.68579790289017495</v>
-      </c>
-      <c r="B3" s="5">
+        <v>-1.4803189917973376</v>
+      </c>
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <f ca="1">_xlfn.NORM.S.INV(RAND())</f>
-        <v>-0.6929474515680909</v>
-      </c>
-      <c r="D3" s="8">
+        <v>-0.24854458103222143</v>
+      </c>
+      <c r="D3" s="7">
         <f ca="1">$G$2*C3+SQRT(1-$G$2^2)*A3</f>
-        <v>-0.96583670298857771</v>
+        <v>-1.0870270599041796</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <f t="shared" ref="A4:A67" ca="1" si="0">_xlfn.NORM.S.INV(RAND())</f>
-        <v>0.20570195291438956</v>
-      </c>
-      <c r="B4" s="5">
+        <v>-1.4833216768726261</v>
+      </c>
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <f t="shared" ref="C4:C67" ca="1" si="1">_xlfn.NORM.S.INV(RAND())</f>
-        <v>0.33538431008298297</v>
-      </c>
-      <c r="D4" s="8">
+        <v>2.1076761008570646</v>
+      </c>
+      <c r="D4" s="7">
         <f t="shared" ref="D4:D67" ca="1" si="2">$G$2*C4+SQRT(1-$G$2^2)*A4</f>
-        <v>0.39172861981502011</v>
+        <v>0.79614787456207625</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36655682727262312</v>
-      </c>
-      <c r="B5" s="5">
+        <v>0.41827747139176497</v>
+      </c>
+      <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98646156289478237</v>
-      </c>
-      <c r="D5" s="8">
+        <v>-0.5982992649089568</v>
+      </c>
+      <c r="D5" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0091033466793997</v>
+        <v>-0.22767292909210657</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.39623338806928149</v>
-      </c>
-      <c r="B6" s="5">
+        <v>2.0741986137733992</v>
+      </c>
+      <c r="B6" s="4">
         <v>4</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99888779372052783</v>
-      </c>
-      <c r="D6" s="8">
+        <v>-0.48629939045595677</v>
+      </c>
+      <c r="D6" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56137020213485345</v>
+        <v>0.85547965589927388</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.35476725794934988</v>
-      </c>
-      <c r="B7" s="5">
+        <v>1.2672628416694096</v>
+      </c>
+      <c r="B7" s="4">
         <v>5</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55768219541713415</v>
-      </c>
-      <c r="D7" s="8">
+        <v>1.3611547420797432</v>
+      </c>
+      <c r="D7" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.23328540156409747</v>
+        <v>1.84928149866544</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75">
-      <c r="A8" s="3">
+      <c r="A8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6122864869695902</v>
-      </c>
-      <c r="B8" s="5">
+        <v>7.2035913580427878E-3</v>
+      </c>
+      <c r="B8" s="4">
         <v>6</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.9565462539088037</v>
-      </c>
-      <c r="D8" s="8">
+        <v>1.2631249465154879</v>
+      </c>
+      <c r="D8" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.1978651109452891</v>
+        <v>1.0148221120272158</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75">
-      <c r="A9" s="3">
+      <c r="A9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.33082259851866469</v>
-      </c>
-      <c r="B9" s="5">
+        <v>0.61361131256533086</v>
+      </c>
+      <c r="B9" s="4">
         <v>7</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.3407117415320553</v>
-      </c>
-      <c r="D9" s="8">
+        <v>1.4228649431827789</v>
+      </c>
+      <c r="D9" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.2710629523368431</v>
+        <v>1.5064587420854216</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75">
-      <c r="A10" s="3">
+      <c r="A10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3901891471547843</v>
-      </c>
-      <c r="B10" s="5">
+        <v>-0.43837067292182325</v>
+      </c>
+      <c r="B10" s="4">
         <v>8</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.28872654661224051</v>
-      </c>
-      <c r="D10" s="8">
+        <v>-0.3130143936263155</v>
+      </c>
+      <c r="D10" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.60313225100307788</v>
+        <v>-0.51343391865414634</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75">
-      <c r="A11" s="3">
+      <c r="A11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0595079161788776</v>
-      </c>
-      <c r="B11" s="5">
+        <v>-0.15522474866720429</v>
+      </c>
+      <c r="B11" s="4">
         <v>9</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.79292358172916344</v>
-      </c>
-      <c r="D11" s="8">
+        <v>-0.98627964209431096</v>
+      </c>
+      <c r="D11" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3658843239956475E-3</v>
+        <v>-0.88215856287577132</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75">
-      <c r="A12" s="3">
+      <c r="A12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.61144553537312285</v>
-      </c>
-      <c r="B12" s="5">
+        <v>1.1606303759950924</v>
+      </c>
+      <c r="B12" s="4">
         <v>10</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84723898891972926</v>
-      </c>
-      <c r="D12" s="8">
+        <v>-0.74707490420512013</v>
+      </c>
+      <c r="D12" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31092386991190984</v>
+        <v>9.8718302232959187E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75">
-      <c r="A13" s="3">
+      <c r="A13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2370296461048729</v>
-      </c>
-      <c r="B13" s="5">
+        <v>-0.92066671833455915</v>
+      </c>
+      <c r="B13" s="4">
         <v>11</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38549880928748081</v>
-      </c>
-      <c r="D13" s="8">
+        <v>0.27399292606188708</v>
+      </c>
+      <c r="D13" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0506168350929084</v>
+        <v>-0.33320569015122564</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75">
-      <c r="A14" s="3">
+      <c r="A14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44936668199965202</v>
-      </c>
-      <c r="B14" s="5">
+        <v>-0.46377932966910523</v>
+      </c>
+      <c r="B14" s="4">
         <v>12</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>3.2887438338735163E-2</v>
-      </c>
-      <c r="D14" s="8">
+        <v>-0.23169830732545263</v>
+      </c>
+      <c r="D14" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2959299598707793</v>
+        <v>-0.4636262436618252</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75">
-      <c r="A15" s="3">
+      <c r="A15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.13388049818707951</v>
-      </c>
-      <c r="B15" s="5">
+        <v>0.36098253423363574</v>
+      </c>
+      <c r="B15" s="4">
         <v>13</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5502251954486868</v>
-      </c>
-      <c r="D15" s="8">
+        <v>0.37891529552091158</v>
+      </c>
+      <c r="D15" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1598518574467018</v>
+        <v>0.5197217569569107</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75">
-      <c r="A16" s="3">
+      <c r="A16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.1961219834053307</v>
-      </c>
-      <c r="B16" s="5">
+        <v>0.83526324808492036</v>
+      </c>
+      <c r="B16" s="4">
         <v>14</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.1982468895713154</v>
-      </c>
-      <c r="D16" s="8">
+        <v>0.73797179557864701</v>
+      </c>
+      <c r="D16" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.6762707017002507</v>
+        <v>1.0915353853138696</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.75">
-      <c r="A17" s="3">
+      <c r="A17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.3000674158896159</v>
-      </c>
-      <c r="B17" s="5">
+        <v>0.45048414232070111</v>
+      </c>
+      <c r="B17" s="4">
         <v>15</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45711380055212486</v>
-      </c>
-      <c r="D17" s="8">
+        <v>0.76203847442981532</v>
+      </c>
+      <c r="D17" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.41434940909206947</v>
+        <v>0.87992126493627287</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.75">
-      <c r="A18" s="3">
+      <c r="A18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11537226046832597</v>
-      </c>
-      <c r="B18" s="5">
+        <v>0.16610720053786002</v>
+      </c>
+      <c r="B18" s="4">
         <v>16</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.1371055259209574E-2</v>
-      </c>
-      <c r="D18" s="8">
+        <v>0.86542300518936688</v>
+      </c>
+      <c r="D18" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>5.2126512073627895E-2</v>
-      </c>
-      <c r="P18" s="4"/>
+        <v>0.7920027244742095</v>
+      </c>
+      <c r="P18" s="3"/>
     </row>
     <row r="19" spans="1:16" ht="15.75">
-      <c r="A19" s="3">
+      <c r="A19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3521150372522453</v>
-      </c>
-      <c r="B19" s="5">
+        <v>0.26114740770220896</v>
+      </c>
+      <c r="B19" s="4">
         <v>17</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3331166117701059</v>
-      </c>
-      <c r="D19" s="8">
+        <v>-1.1534989639648408</v>
+      </c>
+      <c r="D19" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>1.2777623117674319</v>
+        <v>-0.76611072655054724</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.75">
-      <c r="A20" s="3">
+      <c r="A20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2266600582618903</v>
-      </c>
-      <c r="B20" s="5">
+        <v>1.0972755048066387</v>
+      </c>
+      <c r="B20" s="4">
         <v>18</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88978002212796636</v>
-      </c>
-      <c r="D20" s="8">
+        <v>1.3509657467859515</v>
+      </c>
+      <c r="D20" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>1.4478200526595071</v>
+        <v>1.7391379003127443</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.75">
-      <c r="A21" s="3">
+      <c r="A21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40156489821865077</v>
-      </c>
-      <c r="B21" s="5">
+        <v>0.97832552783801308</v>
+      </c>
+      <c r="B21" s="4">
         <v>19</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.25407363414534562</v>
-      </c>
-      <c r="D21" s="8">
+        <v>-0.1548383861811071</v>
+      </c>
+      <c r="D21" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>3.76800316149139E-2</v>
+        <v>0.46312460775792202</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.75">
-      <c r="A22" s="3">
+      <c r="A22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.0031625154755273E-2</v>
-      </c>
-      <c r="B22" s="5">
+        <v>0.83736850853878664</v>
+      </c>
+      <c r="B22" s="4">
         <v>20</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.2271137544162376</v>
-      </c>
-      <c r="D22" s="8">
+        <v>-0.47227315845869688</v>
+      </c>
+      <c r="D22" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.0297099786258432</v>
+        <v>0.12460257835631433</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15.75">
-      <c r="A23" s="3">
+      <c r="A23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.522452204268961</v>
-      </c>
-      <c r="B23" s="5">
+        <v>-0.29297899428067592</v>
+      </c>
+      <c r="B23" s="4">
         <v>21</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.1869119347025689</v>
-      </c>
-      <c r="D23" s="8">
+        <v>-0.76758313447994275</v>
+      </c>
+      <c r="D23" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.63605822520067867</v>
+        <v>-0.78985390415235968</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75">
-      <c r="A24" s="3">
+      <c r="A24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43221110113230243</v>
-      </c>
-      <c r="B24" s="5">
+        <v>-1.2336932042913322</v>
+      </c>
+      <c r="B24" s="4">
         <v>22</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46598731290205608</v>
-      </c>
-      <c r="D24" s="8">
+        <v>0.74044081782842586</v>
+      </c>
+      <c r="D24" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.63211651100102628</v>
+        <v>-0.14786326831205843</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75">
-      <c r="A25" s="3">
+      <c r="A25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.12767219347708983</v>
-      </c>
-      <c r="B25" s="5">
+        <v>7.8138705621347004E-2</v>
+      </c>
+      <c r="B25" s="4">
         <v>23</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0199149416014004E-3</v>
-      </c>
-      <c r="D25" s="8">
+        <v>0.24153696097382973</v>
+      </c>
+      <c r="D25" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>-7.3387384132972758E-2</v>
+        <v>0.24011279215187198</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15.75">
-      <c r="A26" s="3">
+      <c r="A26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.68148340902083826</v>
-      </c>
-      <c r="B26" s="5">
+        <v>0.11092891028368836</v>
+      </c>
+      <c r="B26" s="4">
         <v>24</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.76131053370543578</v>
-      </c>
-      <c r="D26" s="8">
+        <v>1.0401017706588969</v>
+      </c>
+      <c r="D26" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.0179384723768514</v>
+        <v>0.89863876269733056</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15.75">
-      <c r="A27" s="3">
+      <c r="A27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.1299575273665556</v>
-      </c>
-      <c r="B27" s="5">
+        <v>-0.64965604766754892</v>
+      </c>
+      <c r="B27" s="4">
         <v>25</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27118734064447175</v>
-      </c>
-      <c r="D27" s="8">
+        <v>1.0671110155896752</v>
+      </c>
+      <c r="D27" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.46102464390435582</v>
+        <v>0.46389518387121098</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.75">
-      <c r="A28" s="3">
+      <c r="A28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.99269768733424046</v>
-      </c>
-      <c r="B28" s="5">
+        <v>0.70543369696223746</v>
+      </c>
+      <c r="B28" s="4">
         <v>26</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2832187899675819E-3</v>
-      </c>
-      <c r="D28" s="8">
+        <v>0.17163044924498258</v>
+      </c>
+      <c r="D28" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.59379203736857011</v>
+        <v>0.56056457757332845</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15.75">
-      <c r="A29" s="3">
+      <c r="A29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.7795539246628731</v>
-      </c>
-      <c r="B29" s="5">
+        <v>-5.5968907347868455E-2</v>
+      </c>
+      <c r="B29" s="4">
         <v>27</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.1855261525611655E-2</v>
-      </c>
-      <c r="D29" s="8">
+        <v>0.81538845369143198</v>
+      </c>
+      <c r="D29" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.52521656401821304</v>
+        <v>0.61872941854442454</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="15.75">
-      <c r="A30" s="3">
+      <c r="A30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.30760971676839</v>
-      </c>
-      <c r="B30" s="5">
+        <v>0.66247476381766246</v>
+      </c>
+      <c r="B30" s="4">
         <v>28</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87279541637643032</v>
-      </c>
-      <c r="D30" s="8">
+        <v>-0.58041268107225319</v>
+      </c>
+      <c r="D30" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5136705030401103</v>
+        <v>-6.6845286567205175E-2</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="15.75">
-      <c r="A31" s="3">
+      <c r="A31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27748888671296779</v>
-      </c>
-      <c r="B31" s="5">
+        <v>-0.74520392083066589</v>
+      </c>
+      <c r="B31" s="4">
         <v>29</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5190318441747358</v>
-      </c>
-      <c r="D31" s="8">
+        <v>4.6562801299786682E-2</v>
+      </c>
+      <c r="D31" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58171880736756931</v>
+        <v>-0.40987211145857011</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="15.75">
-      <c r="A32" s="3">
+      <c r="A32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20765484654762995</v>
-      </c>
-      <c r="B32" s="5">
+        <v>0.82637419945286428</v>
+      </c>
+      <c r="B32" s="4">
         <v>30</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35126369604891772</v>
-      </c>
-      <c r="D32" s="8">
+        <v>0.39039306899263154</v>
+      </c>
+      <c r="D32" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40560386476771215</v>
+        <v>0.80813897486582376</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75">
-      <c r="A33" s="3">
+      <c r="A33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8.9250718952617228E-2</v>
-      </c>
-      <c r="B33" s="5">
+        <v>0.37925691982118831</v>
+      </c>
+      <c r="B33" s="4">
         <v>31</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.12148580955066936</v>
-      </c>
-      <c r="D33" s="8">
+        <v>0.11912120257763777</v>
+      </c>
+      <c r="D33" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>-4.3638216268965163E-2</v>
+        <v>0.32285111395482313</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75">
-      <c r="A34" s="3">
+      <c r="A34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.5172703390369704</v>
-      </c>
-      <c r="B34" s="5">
+        <v>0.62492581581543294</v>
+      </c>
+      <c r="B34" s="4">
         <v>32</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.23272106165483908</v>
-      </c>
-      <c r="D34" s="8">
+        <v>-1.1316632607912731</v>
+      </c>
+      <c r="D34" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.0965390527460532</v>
+        <v>-0.5303751191437589</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75">
-      <c r="A35" s="3">
+      <c r="A35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.8661554445071871</v>
-      </c>
-      <c r="B35" s="5">
+        <v>-1.2989729332794593</v>
+      </c>
+      <c r="B35" s="4">
         <v>33</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2065671622140512</v>
-      </c>
-      <c r="D35" s="8">
+        <v>-0.4960048607497558</v>
+      </c>
+      <c r="D35" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.154439536933071</v>
+        <v>-1.17618764856748</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75">
-      <c r="A36" s="3">
+      <c r="A36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.835564907064134</v>
-      </c>
-      <c r="B36" s="5">
+        <v>1.1571333781084787</v>
+      </c>
+      <c r="B36" s="4">
         <v>34</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.11568057493393982</v>
-      </c>
-      <c r="D36" s="8">
+        <v>1.452776783920924</v>
+      </c>
+      <c r="D36" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.59388340418563212</v>
+        <v>1.8565014540018263</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75">
-      <c r="A37" s="3">
+      <c r="A37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3542330415073356</v>
-      </c>
-      <c r="B37" s="5">
+        <v>-1.8329434397601791</v>
+      </c>
+      <c r="B37" s="4">
         <v>35</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64966331645590869</v>
-      </c>
-      <c r="D37" s="8">
+        <v>-1.6223122226627784</v>
+      </c>
+      <c r="D37" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3322704780691281</v>
+        <v>-2.39761584198633</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75">
-      <c r="A38" s="3">
+      <c r="A38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1963626252755057</v>
-      </c>
-      <c r="B38" s="5">
+        <v>1.9218045841869829</v>
+      </c>
+      <c r="B38" s="4">
         <v>36</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52295728112621964</v>
-      </c>
-      <c r="D38" s="8">
+        <v>-0.73829315930107875</v>
+      </c>
+      <c r="D38" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1361834000662792</v>
+        <v>0.56244822307132647</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75">
-      <c r="A39" s="3">
+      <c r="A39" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0657251463695459</v>
-      </c>
-      <c r="B39" s="5">
+        <v>-0.53473964255343909</v>
+      </c>
+      <c r="B39" s="4">
         <v>37</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79328379913609381</v>
-      </c>
-      <c r="D39" s="8">
+        <v>0.28102130476216752</v>
+      </c>
+      <c r="D39" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>1.2740621271306025</v>
+        <v>-9.6026741722329362E-2</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75">
-      <c r="A40" s="3">
+      <c r="A40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.14769642324580906</v>
-      </c>
-      <c r="B40" s="5">
+        <v>-1.1228037120925278</v>
+      </c>
+      <c r="B40" s="4">
         <v>38</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11186749191399788</v>
-      </c>
-      <c r="D40" s="8">
+        <v>0.55907341697392576</v>
+      </c>
+      <c r="D40" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>8.7613958371288159E-4</v>
+        <v>-0.22642349367637588</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75">
-      <c r="A41" s="3">
+      <c r="A41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3422300704310506E-2</v>
-      </c>
-      <c r="B41" s="5">
+        <v>-6.0672545586056058E-4</v>
+      </c>
+      <c r="B41" s="4">
         <v>39</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.15196342874527807</v>
-      </c>
-      <c r="D41" s="8">
+        <v>0.26272311250600738</v>
+      </c>
+      <c r="D41" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.11351736257363616</v>
+        <v>0.2098144547312896</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75">
-      <c r="A42" s="3">
+      <c r="A42" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.64972545021355643</v>
-      </c>
-      <c r="B42" s="5">
+        <v>-0.63999026470108811</v>
+      </c>
+      <c r="B42" s="4">
         <v>40</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.16483308205758271</v>
-      </c>
-      <c r="D42" s="8">
+        <v>-0.40514231818123952</v>
+      </c>
+      <c r="D42" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.52170173577419998</v>
+        <v>-0.70810801336564444</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75">
-      <c r="A43" s="3">
+      <c r="A43" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.743158394557208</v>
-      </c>
-      <c r="B43" s="5">
+        <v>-0.32712931348428681</v>
+      </c>
+      <c r="B43" s="4">
         <v>41</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.56355463931151561</v>
-      </c>
-      <c r="D43" s="8">
+        <v>-0.24374628988510044</v>
+      </c>
+      <c r="D43" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>-4.9486747148878574E-3</v>
+        <v>-0.39127461999865243</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75">
-      <c r="A44" s="3">
+      <c r="A44" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14967195323402688</v>
-      </c>
-      <c r="B44" s="5">
+        <v>2.8242615020081685E-2</v>
+      </c>
+      <c r="B44" s="4">
         <v>42</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.28105668605394701</v>
-      </c>
-      <c r="D44" s="8">
+        <v>1.6084537774958885</v>
+      </c>
+      <c r="D44" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.13504217690274151</v>
+        <v>1.3037085910087598</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75">
-      <c r="A45" s="3">
+      <c r="A45" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5167393303799999</v>
-      </c>
-      <c r="B45" s="5">
+        <v>-1.5107921381576057</v>
+      </c>
+      <c r="B45" s="4">
         <v>43</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0877808599623473</v>
-      </c>
-      <c r="D45" s="8">
+        <v>0.98120092249488688</v>
+      </c>
+      <c r="D45" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>1.7802682861978776</v>
+        <v>-0.12151454489865365</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75">
-      <c r="A46" s="3">
+      <c r="A46" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.21546681039784207</v>
-      </c>
-      <c r="B46" s="5">
+        <v>-0.89469778862566585</v>
+      </c>
+      <c r="B46" s="4">
         <v>44</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5567760991787147</v>
-      </c>
-      <c r="D46" s="8">
+        <v>-0.84318559273088955</v>
+      </c>
+      <c r="D46" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1161407931042668</v>
+        <v>-1.2113671473601111</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75">
-      <c r="A47" s="3">
+      <c r="A47" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.58941407276685009</v>
-      </c>
-      <c r="B47" s="5">
+        <v>1.8983685860781299</v>
+      </c>
+      <c r="B47" s="4">
         <v>45</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93461180343752115</v>
-      </c>
-      <c r="D47" s="8">
+        <v>1.2893816062645578</v>
+      </c>
+      <c r="D47" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39404099908990692</v>
+        <v>2.1705264366585237</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75">
-      <c r="A48" s="3">
+      <c r="A48" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7457024150306664</v>
-      </c>
-      <c r="B48" s="5">
+        <v>0.27769421602017136</v>
+      </c>
+      <c r="B48" s="4">
         <v>46</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.98962651640904464</v>
-      </c>
-      <c r="D48" s="8">
+        <v>0.46758224180338886</v>
+      </c>
+      <c r="D48" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85572023589116364</v>
+        <v>0.5406823230548139</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75">
-      <c r="A49" s="3">
+      <c r="A49" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48474436499820889</v>
-      </c>
-      <c r="B49" s="5">
+        <v>-0.26703752895413002</v>
+      </c>
+      <c r="B49" s="4">
         <v>47</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1.61439938076982</v>
-      </c>
-      <c r="D49" s="8">
+        <v>-0.29249948525031672</v>
+      </c>
+      <c r="D49" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5823661236147815</v>
+        <v>-0.39422210557273135</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75">
-      <c r="A50" s="3">
+      <c r="A50" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.68766487458891079</v>
-      </c>
-      <c r="B50" s="5">
+        <v>-0.26134731362881947</v>
+      </c>
+      <c r="B50" s="4">
         <v>48</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1703046747459553</v>
-      </c>
-      <c r="D50" s="8">
+        <v>1.6722437200297742</v>
+      </c>
+      <c r="D50" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3236448150434179</v>
+        <v>1.1809865878465278</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75">
-      <c r="A51" s="3">
+      <c r="A51" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7566276303234899</v>
-      </c>
-      <c r="B51" s="5">
+        <v>-0.60061235432889071</v>
+      </c>
+      <c r="B51" s="4">
         <v>49</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.7234892665415134</v>
-      </c>
-      <c r="D51" s="8">
+        <v>1.4583315549206153</v>
+      </c>
+      <c r="D51" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.92481483503911699</v>
+        <v>0.80629783133915778</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75">
-      <c r="A52" s="3">
+      <c r="A52" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18142353251199139</v>
-      </c>
-      <c r="B52" s="5">
+        <v>0.41609912055883486</v>
+      </c>
+      <c r="B52" s="4">
         <v>50</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.86726832842570845</v>
-      </c>
-      <c r="D52" s="8">
+        <v>8.3006553044494037E-3</v>
+      </c>
+      <c r="D52" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.58496054323337199</v>
+        <v>0.25629999657886038</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75">
-      <c r="A53" s="3">
+      <c r="A53" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.3850213053496061</v>
-      </c>
-      <c r="B53" s="5">
+        <v>1.9217796555457047E-3</v>
+      </c>
+      <c r="B53" s="4">
         <v>51</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2069239780065684</v>
-      </c>
-      <c r="D53" s="8">
+        <v>-0.2679721709954172</v>
+      </c>
+      <c r="D53" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.46547360080450872</v>
+        <v>-0.21322466900300635</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.75">
-      <c r="A54" s="3">
+      <c r="A54" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.11408575848603168</v>
-      </c>
-      <c r="B54" s="5">
+        <v>-0.56976366563863967</v>
+      </c>
+      <c r="B54" s="4">
         <v>52</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.37165296891604144</v>
-      </c>
-      <c r="D54" s="8">
+        <v>1.5692597937061583</v>
+      </c>
+      <c r="D54" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.36577383022445215</v>
+        <v>0.91354963558174296</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.75">
-      <c r="A55" s="3">
+      <c r="A55" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98766758680271149</v>
-      </c>
-      <c r="B55" s="5">
+        <v>0.20949328632425279</v>
+      </c>
+      <c r="B55" s="4">
         <v>53</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3554318994447771</v>
-      </c>
-      <c r="D55" s="8">
+        <v>1.20347008294334</v>
+      </c>
+      <c r="D55" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87694607163744842</v>
+        <v>1.0884720381492237</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75">
-      <c r="A56" s="3">
+      <c r="A56" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47379719743045473</v>
-      </c>
-      <c r="B56" s="5">
+        <v>-0.20653501077081546</v>
+      </c>
+      <c r="B56" s="4">
         <v>54</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.3552982982502193</v>
-      </c>
-      <c r="D56" s="8">
+        <v>-0.68946967650103885</v>
+      </c>
+      <c r="D56" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.79996032014190266</v>
+        <v>-0.67549674766332035</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.75">
-      <c r="A57" s="3">
+      <c r="A57" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34419181890575218</v>
-      </c>
-      <c r="B57" s="5">
+        <v>0.30897756095122209</v>
+      </c>
+      <c r="B57" s="4">
         <v>55</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4919633721313868</v>
-      </c>
-      <c r="D57" s="8">
+        <v>0.55360195554514113</v>
+      </c>
+      <c r="D57" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.60008578904856069</v>
+        <v>0.62826810100684616</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75">
-      <c r="A58" s="3">
+      <c r="A58" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.24662976309802981</v>
-      </c>
-      <c r="B58" s="5">
+        <v>0.69644566060051594</v>
+      </c>
+      <c r="B58" s="4">
         <v>56</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70931986849605255</v>
-      </c>
-      <c r="D58" s="8">
+        <v>0.19902415779479204</v>
+      </c>
+      <c r="D58" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41947803693802427</v>
+        <v>0.57708672259614313</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.75">
-      <c r="A59" s="3">
+      <c r="A59" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35251116061640086</v>
-      </c>
-      <c r="B59" s="5">
+        <v>-0.29986297954829005</v>
+      </c>
+      <c r="B59" s="4">
         <v>57</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.67080003269309696</v>
-      </c>
-      <c r="D59" s="8">
+        <v>0.67623814478988364</v>
+      </c>
+      <c r="D59" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.3251333297846371</v>
+        <v>0.36107272810293295</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15.75">
-      <c r="A60" s="3">
+      <c r="A60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.3043743863929243</v>
-      </c>
-      <c r="B60" s="5">
+        <v>1.3171645875334932E-2</v>
+      </c>
+      <c r="B60" s="4">
         <v>58</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.4139814557016241</v>
-      </c>
-      <c r="D60" s="8">
+        <v>0.34898752410461686</v>
+      </c>
+      <c r="D60" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>-2.1138097963970539</v>
+        <v>0.28709300680889449</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.75">
-      <c r="A61" s="3">
+      <c r="A61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.474619353340402</v>
-      </c>
-      <c r="B61" s="5">
+        <v>-0.1317694081584985</v>
+      </c>
+      <c r="B61" s="4">
         <v>59</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3140879949305553</v>
-      </c>
-      <c r="D61" s="8">
+        <v>-0.1927929279586717</v>
+      </c>
+      <c r="D61" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>1.9360420079486853</v>
+        <v>-0.23329598726203643</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75">
-      <c r="A62" s="3">
+      <c r="A62" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.5839980460785035</v>
-      </c>
-      <c r="B62" s="5">
+        <v>-1.5040434884400331</v>
+      </c>
+      <c r="B62" s="4">
         <v>60</v>
       </c>
-      <c r="C62" s="8">
+      <c r="C62" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.91874254554588164</v>
-      </c>
-      <c r="D62" s="8">
+        <v>-0.17823894886373512</v>
+      </c>
+      <c r="D62" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.6853928640838072</v>
+        <v>-1.0450172521550078</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.75">
-      <c r="A63" s="3">
+      <c r="A63" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.8055233698861282</v>
-      </c>
-      <c r="B63" s="5">
+        <v>0.11618903521597468</v>
+      </c>
+      <c r="B63" s="4">
         <v>61</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C63" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40149133206819521</v>
-      </c>
-      <c r="D63" s="8">
+        <v>0.79714257664141996</v>
+      </c>
+      <c r="D63" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.7621209562771204</v>
+        <v>0.7074274824427208</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.75">
-      <c r="A64" s="3">
+      <c r="A64" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.59494752952287133</v>
-      </c>
-      <c r="B64" s="5">
+        <v>1.919028946260642</v>
+      </c>
+      <c r="B64" s="4">
         <v>62</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.33020861234310711</v>
-      </c>
-      <c r="D64" s="8">
+        <v>-0.85876440116026753</v>
+      </c>
+      <c r="D64" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.62113540758820851</v>
+        <v>0.46440584682817099</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15.75">
-      <c r="A65" s="3">
+      <c r="A65" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11642993307412036</v>
-      </c>
-      <c r="B65" s="5">
+        <v>0.23123341885425838</v>
+      </c>
+      <c r="B65" s="4">
         <v>63</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85264831490000526</v>
-      </c>
-      <c r="D65" s="8">
+        <v>-0.655840292932933</v>
+      </c>
+      <c r="D65" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.75197661176447639</v>
+        <v>-0.38593218303379151</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15.75">
-      <c r="A66" s="3">
+      <c r="A66" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.34521694662713093</v>
-      </c>
-      <c r="B66" s="5">
+        <v>-0.86357588919435879</v>
+      </c>
+      <c r="B66" s="4">
         <v>64</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C66" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10737746155814105</v>
-      </c>
-      <c r="D66" s="8">
+        <v>-3.022888314126157E-2</v>
+      </c>
+      <c r="D66" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.12122819872976566</v>
+        <v>-0.54232864002962444</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75">
-      <c r="A67" s="3">
+      <c r="A67" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.3225805459769704E-2</v>
-      </c>
-      <c r="B67" s="5">
+        <v>-2.5894901290802026</v>
+      </c>
+      <c r="B67" s="4">
         <v>65</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C67" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.94016933285374371</v>
-      </c>
-      <c r="D67" s="8">
+        <v>2.7872701656465066E-2</v>
+      </c>
+      <c r="D67" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.79007094955885682</v>
+        <v>-1.5313959161229491</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15.75">
-      <c r="A68" s="3">
+      <c r="A68" s="1">
         <f t="shared" ref="A68:A102" ca="1" si="3">_xlfn.NORM.S.INV(RAND())</f>
-        <v>0.20718302585307333</v>
-      </c>
-      <c r="B68" s="5">
+        <v>0.78367766046142329</v>
+      </c>
+      <c r="B68" s="4">
         <v>66</v>
       </c>
-      <c r="C68" s="8">
+      <c r="C68" s="7">
         <f t="shared" ref="C68:C102" ca="1" si="4">_xlfn.NORM.S.INV(RAND())</f>
-        <v>0.47081318721650928</v>
-      </c>
-      <c r="D68" s="8">
+        <v>1.1234781084257237</v>
+      </c>
+      <c r="D68" s="7">
         <f t="shared" ref="D68:D102" ca="1" si="5">$G$2*C68+SQRT(1-$G$2^2)*A68</f>
-        <v>0.50096036528505139</v>
+        <v>1.3689890830174329</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15.75">
-      <c r="A69" s="3">
+      <c r="A69" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.30747749461733681</v>
-      </c>
-      <c r="B69" s="5">
+        <v>2.0346430239016517</v>
+      </c>
+      <c r="B69" s="4">
         <v>67</v>
       </c>
-      <c r="C69" s="8">
+      <c r="C69" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.34558918998505445</v>
-      </c>
-      <c r="D69" s="8">
+        <v>1.3107662256923376</v>
+      </c>
+      <c r="D69" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>-9.198485521764152E-2</v>
+        <v>2.2693987948948608</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15.75">
-      <c r="A70" s="3">
+      <c r="A70" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.2501829816515857</v>
-      </c>
-      <c r="B70" s="5">
+        <v>-0.57838091017091386</v>
+      </c>
+      <c r="B70" s="4">
         <v>68</v>
       </c>
-      <c r="C70" s="8">
+      <c r="C70" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>-2.1068659540285695</v>
-      </c>
-      <c r="D70" s="8">
+        <v>1.0105065528070205</v>
+      </c>
+      <c r="D70" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>-2.4356025522138069</v>
+        <v>0.46137669614306825</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15.75">
-      <c r="A71" s="3">
+      <c r="A71" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4254654891361491</v>
-      </c>
-      <c r="B71" s="5">
+        <v>-0.72011602189540003</v>
+      </c>
+      <c r="B71" s="4">
         <v>69</v>
       </c>
-      <c r="C71" s="8">
+      <c r="C71" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>0.83596551311441125</v>
-      </c>
-      <c r="D71" s="8">
+        <v>0.87260003658227803</v>
+      </c>
+      <c r="D71" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>1.5240517039732184</v>
+        <v>0.26601041612858256</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15.75">
-      <c r="A72" s="3">
+      <c r="A72" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.5165239928235423</v>
-      </c>
-      <c r="B72" s="5">
+        <v>-0.92447455269395251</v>
+      </c>
+      <c r="B72" s="4">
         <v>70</v>
       </c>
-      <c r="C72" s="8">
+      <c r="C72" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>0.67549878312827705</v>
-      </c>
-      <c r="D72" s="8">
+        <v>-0.81784226827913531</v>
+      </c>
+      <c r="D72" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.36951536919150363</v>
+        <v>-1.2089585462396797</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15.75">
-      <c r="A73" s="3">
+      <c r="A73" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.69484171037140652</v>
-      </c>
-      <c r="B73" s="5">
+        <v>-0.48054116815524089</v>
+      </c>
+      <c r="B73" s="4">
         <v>71</v>
       </c>
-      <c r="C73" s="8">
+      <c r="C73" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>2.2084737531531204</v>
-      </c>
-      <c r="D73" s="8">
+        <v>2.4365061423978589</v>
+      </c>
+      <c r="D73" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3498739762996528</v>
+        <v>1.6608802130251428</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15.75">
-      <c r="A74" s="3">
+      <c r="A74" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.35737755841291663</v>
-      </c>
-      <c r="B74" s="5">
+        <v>0.42709700149156715</v>
+      </c>
+      <c r="B74" s="4">
         <v>72</v>
       </c>
-      <c r="C74" s="8">
+      <c r="C74" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>-1.0162822107368312</v>
-      </c>
-      <c r="D74" s="8">
+        <v>-0.68440384269745191</v>
+      </c>
+      <c r="D74" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>-1.027452303637215</v>
+        <v>-0.29126487326302131</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15.75">
-      <c r="A75" s="3">
+      <c r="A75" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.15176882554530466</v>
-      </c>
-      <c r="B75" s="5">
+        <v>-1.565514493314454</v>
+      </c>
+      <c r="B75" s="4">
         <v>73</v>
       </c>
-      <c r="C75" s="8">
+      <c r="C75" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>-1.9228329818160086</v>
-      </c>
-      <c r="D75" s="8">
+        <v>-1.0517954363496944</v>
+      </c>
+      <c r="D75" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>-1.6293276807799897</v>
+        <v>-1.7807450450684277</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15.75">
-      <c r="A76" s="3">
+      <c r="A76" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.3701076349401462</v>
-      </c>
-      <c r="B76" s="5">
+        <v>-0.39950240057115094</v>
+      </c>
+      <c r="B76" s="4">
         <v>74</v>
       </c>
-      <c r="C76" s="8">
+      <c r="C76" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3091533509962896</v>
-      </c>
-      <c r="D76" s="8">
+        <v>-0.63328567493954047</v>
+      </c>
+      <c r="D76" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.37474190016705577</v>
+        <v>-0.74632998029432285</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15.75">
-      <c r="A77" s="3">
+      <c r="A77" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.59694025865170774</v>
-      </c>
-      <c r="B77" s="5">
+        <v>-1.1654353382051905</v>
+      </c>
+      <c r="B77" s="4">
         <v>75</v>
       </c>
-      <c r="C77" s="8">
+      <c r="C77" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>0.93425873448193386</v>
-      </c>
-      <c r="D77" s="8">
+        <v>-0.38318330410590873</v>
+      </c>
+      <c r="D77" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>1.1055711427765718</v>
+        <v>-1.005807846207841</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15.75">
-      <c r="A78" s="3">
+      <c r="A78" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.19095803880359102</v>
-      </c>
-      <c r="B78" s="5">
+        <v>-0.57744793385875448</v>
+      </c>
+      <c r="B78" s="4">
         <v>76</v>
       </c>
-      <c r="C78" s="8">
+      <c r="C78" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.28736847001291604</v>
-      </c>
-      <c r="D78" s="8">
+        <v>2.5771248319473674</v>
+      </c>
+      <c r="D78" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.11531995272817826</v>
+        <v>1.7152311052426417</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15.75">
-      <c r="A79" s="3">
+      <c r="A79" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.6088360793534368E-2</v>
-      </c>
-      <c r="B79" s="5">
+        <v>-0.23431878851185139</v>
+      </c>
+      <c r="B79" s="4">
         <v>77</v>
       </c>
-      <c r="C79" s="8">
+      <c r="C79" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>0.76364908177198054</v>
-      </c>
-      <c r="D79" s="8">
+        <v>0.2121031136676802</v>
+      </c>
+      <c r="D79" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>0.59526624894146385</v>
+        <v>2.9091217827033361E-2</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15.75">
-      <c r="A80" s="3">
+      <c r="A80" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2.0563255567494001</v>
-      </c>
-      <c r="B80" s="5">
+        <v>0.22528328894501048</v>
+      </c>
+      <c r="B80" s="4">
         <v>78</v>
       </c>
-      <c r="C80" s="8">
+      <c r="C80" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.61539329573980972</v>
-      </c>
-      <c r="D80" s="8">
+        <v>0.12040306998547488</v>
+      </c>
+      <c r="D80" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>0.74148069745779188</v>
+        <v>0.23149242935538616</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15.75">
-      <c r="A81" s="3">
+      <c r="A81" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.29408900284481643</v>
-      </c>
-      <c r="B81" s="5">
+        <v>0.94394020729649308</v>
+      </c>
+      <c r="B81" s="4">
         <v>79</v>
       </c>
-      <c r="C81" s="8">
+      <c r="C81" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>-2.1512512046985734</v>
-      </c>
-      <c r="D81" s="8">
+        <v>0.38715478908972789</v>
+      </c>
+      <c r="D81" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>-1.5445475620519691</v>
+        <v>0.87608795564967812</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15.75">
-      <c r="A82" s="3">
+      <c r="A82" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4.773401654719055E-3</v>
-      </c>
-      <c r="B82" s="5">
+        <v>-0.35367196742207363</v>
+      </c>
+      <c r="B82" s="4">
         <v>80</v>
       </c>
-      <c r="C82" s="8">
+      <c r="C82" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.38251100533080301</v>
-      </c>
-      <c r="D82" s="8">
+        <v>-1.5950312876776611</v>
+      </c>
+      <c r="D82" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.303144763271811</v>
+        <v>-1.488228210595373</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15.75">
-      <c r="A83" s="3">
+      <c r="A83" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.90669357553480667</v>
-      </c>
-      <c r="B83" s="5">
+        <v>-0.77470616592109742</v>
+      </c>
+      <c r="B83" s="4">
         <v>81</v>
       </c>
-      <c r="C83" s="8">
+      <c r="C83" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.58740389576047147</v>
-      </c>
-      <c r="D83" s="8">
+        <v>-0.47305228910913688</v>
+      </c>
+      <c r="D83" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>-1.0139392619292611</v>
+        <v>-0.84326553083996791</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15.75">
-      <c r="A84" s="3">
+      <c r="A84" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.52742729153357382</v>
-      </c>
-      <c r="B84" s="5">
+        <v>-0.64884181064103286</v>
+      </c>
+      <c r="B84" s="4">
         <v>82</v>
       </c>
-      <c r="C84" s="8">
+      <c r="C84" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>1.2977902730173336</v>
-      </c>
-      <c r="D84" s="8">
+        <v>1.0237106203572957</v>
+      </c>
+      <c r="D84" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>0.72177584349372281</v>
+        <v>0.42966340990121693</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15.75">
-      <c r="A85" s="3">
+      <c r="A85" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.27907468201082264</v>
-      </c>
-      <c r="B85" s="5">
+        <v>1.4756507248328767</v>
+      </c>
+      <c r="B85" s="4">
         <v>83</v>
       </c>
-      <c r="C85" s="8">
+      <c r="C85" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.9880535508349696</v>
-      </c>
-      <c r="D85" s="8">
+        <v>-1.345295860669145</v>
+      </c>
+      <c r="D85" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.62299803146148225</v>
+        <v>-0.19084625363559027</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15.75">
-      <c r="A86" s="3">
+      <c r="A86" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3016654815916944</v>
-      </c>
-      <c r="B86" s="5">
+        <v>-2.2372970387999143</v>
+      </c>
+      <c r="B86" s="4">
         <v>84</v>
       </c>
-      <c r="C86" s="8">
+      <c r="C86" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>0.48377226083272301</v>
-      </c>
-      <c r="D86" s="8">
+        <v>0.36890549989691435</v>
+      </c>
+      <c r="D86" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>1.168017097621195</v>
+        <v>-1.0472538233624167</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15.75">
-      <c r="A87" s="3">
+      <c r="A87" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1.9726252630836372</v>
-      </c>
-      <c r="B87" s="5">
+        <v>0.67453180511355981</v>
+      </c>
+      <c r="B87" s="4">
         <v>85</v>
       </c>
-      <c r="C87" s="8">
+      <c r="C87" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.48320707018378545</v>
-      </c>
-      <c r="D87" s="8">
+        <v>-1.5437831347667677</v>
+      </c>
+      <c r="D87" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>0.79700950170315377</v>
+        <v>-0.83030742474527841</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15.75">
-      <c r="A88" s="3">
+      <c r="A88" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.084033664052438</v>
-      </c>
-      <c r="B88" s="5">
+        <v>-2.2607021972416814</v>
+      </c>
+      <c r="B88" s="4">
         <v>86</v>
       </c>
-      <c r="C88" s="8">
+      <c r="C88" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>0.76194899094497748</v>
-      </c>
-      <c r="D88" s="8">
+        <v>-0.21105161025952643</v>
+      </c>
+      <c r="D88" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>-4.0861005675480566E-2</v>
+        <v>-1.5252626065526296</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15.75">
-      <c r="A89" s="3">
+      <c r="A89" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.36446983998429489</v>
-      </c>
-      <c r="B89" s="5">
+        <v>0.97325320923325598</v>
+      </c>
+      <c r="B89" s="4">
         <v>87</v>
       </c>
-      <c r="C89" s="8">
+      <c r="C89" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>-1.3917799111235409</v>
-      </c>
-      <c r="D89" s="8">
+        <v>-0.13221303287455438</v>
+      </c>
+      <c r="D89" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>-1.3321058328894098</v>
+        <v>0.47818149924030995</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15.75">
-      <c r="A90" s="3">
+      <c r="A90" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.0502127799136689</v>
-      </c>
-      <c r="B90" s="5">
+        <v>-0.98257842091606318</v>
+      </c>
+      <c r="B90" s="4">
         <v>88</v>
       </c>
-      <c r="C90" s="8">
+      <c r="C90" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>-8.6393520077373387E-2</v>
-      </c>
-      <c r="D90" s="8">
+        <v>-0.59170450519799178</v>
+      </c>
+      <c r="D90" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.69924248401009992</v>
+        <v>-1.0629106567080313</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15.75">
-      <c r="A91" s="3">
+      <c r="A91" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11903648464076418</v>
-      </c>
-      <c r="B91" s="5">
+        <v>0.14828845226600593</v>
+      </c>
+      <c r="B91" s="4">
         <v>89</v>
       </c>
-      <c r="C91" s="8">
+      <c r="C91" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.65290799791289944</v>
-      </c>
-      <c r="D91" s="8">
+        <v>-0.66627157442423546</v>
+      </c>
+      <c r="D91" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.45090450754586109</v>
+        <v>-0.44404418817978486</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15.75">
-      <c r="A92" s="3">
+      <c r="A92" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.3158530438610696</v>
-      </c>
-      <c r="B92" s="5">
+        <v>-0.51124920200294832</v>
+      </c>
+      <c r="B92" s="4">
         <v>90</v>
       </c>
-      <c r="C92" s="8">
+      <c r="C92" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.80166217754255953</v>
-      </c>
-      <c r="D92" s="8">
+        <v>-0.36746682959931748</v>
+      </c>
+      <c r="D92" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.45181791571740598</v>
+        <v>-0.60072298488122289</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15.75">
-      <c r="A93" s="3">
+      <c r="A93" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.77394617900362539</v>
-      </c>
-      <c r="B93" s="5">
+        <v>0.54149128098254928</v>
+      </c>
+      <c r="B93" s="4">
         <v>91</v>
       </c>
-      <c r="C93" s="8">
+      <c r="C93" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.62507929833117359</v>
-      </c>
-      <c r="D93" s="8">
+        <v>-2.4149887008305067</v>
+      </c>
+      <c r="D93" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>-3.5695731262763708E-2</v>
+        <v>-1.6070961920748759</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15.75">
-      <c r="A94" s="3">
+      <c r="A94" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.60907312990282803</v>
-      </c>
-      <c r="B94" s="5">
+        <v>0.30563772005650497</v>
+      </c>
+      <c r="B94" s="4">
         <v>92</v>
       </c>
-      <c r="C94" s="8">
+      <c r="C94" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>1.2473244389973464</v>
-      </c>
-      <c r="D94" s="8">
+        <v>1.9012812160345991</v>
+      </c>
+      <c r="D94" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3633034291395738</v>
+        <v>1.7044076048615824</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="15.75">
-      <c r="A95" s="3">
+      <c r="A95" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.11415741631576248</v>
-      </c>
-      <c r="B95" s="5">
+        <v>0.47940303158880954</v>
+      </c>
+      <c r="B95" s="4">
         <v>93</v>
       </c>
-      <c r="C95" s="8">
+      <c r="C95" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.41640305485270351</v>
-      </c>
-      <c r="D95" s="8">
+        <v>-0.26196307995398077</v>
+      </c>
+      <c r="D95" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.40161689367162029</v>
+        <v>7.8071354990101038E-2</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15.75">
-      <c r="A96" s="3">
+      <c r="A96" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.36308081340655596</v>
-      </c>
-      <c r="B96" s="5">
+        <v>-0.5703446779935365</v>
+      </c>
+      <c r="B96" s="4">
         <v>94</v>
       </c>
-      <c r="C96" s="8">
+      <c r="C96" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.60514658728251891</v>
-      </c>
-      <c r="D96" s="8">
+        <v>0.2430159999436379</v>
+      </c>
+      <c r="D96" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.26626878178208163</v>
+        <v>-0.14779400684121147</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15.75">
-      <c r="A97" s="3">
+      <c r="A97" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1881972909410849</v>
-      </c>
-      <c r="B97" s="5">
+        <v>1.2039202906913007</v>
+      </c>
+      <c r="B97" s="4">
         <v>95</v>
       </c>
-      <c r="C97" s="8">
+      <c r="C97" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>0.86515636404723628</v>
-      </c>
-      <c r="D97" s="8">
+        <v>-1.6581420659633903</v>
+      </c>
+      <c r="D97" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4050434658024398</v>
+        <v>-0.60416147835593215</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15.75">
-      <c r="A98" s="3">
+      <c r="A98" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.48588321659427286</v>
-      </c>
-      <c r="B98" s="5">
+        <v>0.46881980213057395</v>
+      </c>
+      <c r="B98" s="4">
         <v>96</v>
       </c>
-      <c r="C98" s="8">
+      <c r="C98" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.3888802984802846</v>
-      </c>
-      <c r="D98" s="8">
+        <v>-2.3661387602754109</v>
+      </c>
+      <c r="D98" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.60263416874079134</v>
+        <v>-1.6116191269419846</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15.75">
-      <c r="A99" s="3">
+      <c r="A99" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.11943341072942547</v>
-      </c>
-      <c r="B99" s="5">
+        <v>0.16040993690878622</v>
+      </c>
+      <c r="B99" s="4">
         <v>97</v>
       </c>
-      <c r="C99" s="8">
+      <c r="C99" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>2.8343925516386127E-2</v>
-      </c>
-      <c r="D99" s="8">
+        <v>0.6293608118264461</v>
+      </c>
+      <c r="D99" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>-4.898490602454636E-2</v>
+        <v>0.5997346116064286</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15.75">
-      <c r="A100" s="3">
+      <c r="A100" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.6479761197992594</v>
-      </c>
-      <c r="B100" s="5">
+        <v>-0.5487957800492006</v>
+      </c>
+      <c r="B100" s="4">
         <v>98</v>
       </c>
-      <c r="C100" s="8">
+      <c r="C100" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>1.2659381548417543</v>
-      </c>
-      <c r="D100" s="8">
+        <v>-0.25064886365896882</v>
+      </c>
+      <c r="D100" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>0.6239648519938481</v>
+        <v>-0.52979655895669531</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="15.75">
-      <c r="A101" s="3">
+      <c r="A101" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.23659464171497588</v>
-      </c>
-      <c r="B101" s="5">
+        <v>-1.3489405237465826</v>
+      </c>
+      <c r="B101" s="4">
         <v>99</v>
       </c>
-      <c r="C101" s="8">
+      <c r="C101" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>0.91520287694354618</v>
-      </c>
-      <c r="D101" s="8">
+        <v>0.67477742949166153</v>
+      </c>
+      <c r="D101" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>0.59020551652585151</v>
+        <v>-0.26954237065462017</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15.75">
-      <c r="A102" s="3">
+      <c r="A102" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.59529141462766011</v>
-      </c>
-      <c r="B102" s="5">
+        <v>0.56348432677883598</v>
+      </c>
+      <c r="B102" s="4">
         <v>100</v>
       </c>
-      <c r="C102" s="8">
+      <c r="C102" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>1.0143243924878118</v>
-      </c>
-      <c r="D102" s="8">
+        <v>-1.2665207866704336</v>
+      </c>
+      <c r="D102" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>1.1686343627668454</v>
+        <v>-0.67512603326904541</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="15.75">
-      <c r="A103" s="3">
+      <c r="A103" s="1">
         <f ca="1">_xlfn.NORM.S.INV(RAND())</f>
-        <v>0.68081632493242916</v>
-      </c>
-      <c r="B103" s="5">
+        <v>2.0685615975606798E-2</v>
+      </c>
+      <c r="B103" s="4">
         <v>101</v>
       </c>
-      <c r="C103" s="8">
+      <c r="C103" s="7">
         <f ca="1">_xlfn.NORM.S.INV(RAND())</f>
-        <v>-0.31848215369651572</v>
-      </c>
-      <c r="D103" s="8">
+        <v>1.3954201765268603</v>
+      </c>
+      <c r="D103" s="7">
         <f ca="1">$G$2*C103+SQRT(1-$G$2^2)*A103</f>
-        <v>0.15370407200224484</v>
+        <v>1.1287475108068523</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="15.75">
-      <c r="A104" s="3">
+      <c r="A104" s="1">
         <f t="shared" ref="A104:A167" ca="1" si="6">_xlfn.NORM.S.INV(RAND())</f>
-        <v>1.136154579026279</v>
-      </c>
-      <c r="B104" s="5">
+        <v>0.54289855182158675</v>
+      </c>
+      <c r="B104" s="4">
         <v>102</v>
       </c>
-      <c r="C104" s="8">
+      <c r="C104" s="7">
         <f t="shared" ref="C104:C167" ca="1" si="7">_xlfn.NORM.S.INV(RAND())</f>
-        <v>-1.1927545087236902</v>
-      </c>
-      <c r="D104" s="8">
+        <v>1.9123583362332894</v>
+      </c>
+      <c r="D104" s="7">
         <f t="shared" ref="D104:D167" ca="1" si="8">$G$2*C104+SQRT(1-$G$2^2)*A104</f>
-        <v>-0.27251085956318488</v>
+        <v>1.8556258000795838</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="15.75">
-      <c r="A105" s="3">
+      <c r="A105" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1.132167548969369</v>
-      </c>
-      <c r="B105" s="5">
+        <v>0.97107322451084599</v>
+      </c>
+      <c r="B105" s="4">
         <v>103</v>
       </c>
-      <c r="C105" s="8">
+      <c r="C105" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.4300009824553879</v>
-      </c>
-      <c r="D105" s="8">
+        <v>-7.7329304909974209E-2</v>
+      </c>
+      <c r="D105" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.46470025658268921</v>
+        <v>0.52078049077852806</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="15.75">
-      <c r="A106" s="3">
+      <c r="A106" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.6833322621956186</v>
-      </c>
-      <c r="B106" s="5">
+        <v>2.3405631168559013</v>
+      </c>
+      <c r="B106" s="4">
         <v>104</v>
       </c>
-      <c r="C106" s="8">
+      <c r="C106" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>1.7118779560081299</v>
-      </c>
-      <c r="D106" s="8">
+        <v>-0.3542041482958857</v>
+      </c>
+      <c r="D106" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>0.95950300748913286</v>
+        <v>1.1209745514768319</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15.75">
-      <c r="A107" s="3">
+      <c r="A107" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3574008158514099</v>
-      </c>
-      <c r="B107" s="5">
+        <v>-0.11227365648535435</v>
+      </c>
+      <c r="B107" s="4">
         <v>105</v>
       </c>
-      <c r="C107" s="8">
+      <c r="C107" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>2.1014101451964446</v>
-      </c>
-      <c r="D107" s="8">
+        <v>-0.60362140803086384</v>
+      </c>
+      <c r="D107" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>2.4955686056680015</v>
+        <v>-0.55026132031590369</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="15.75">
-      <c r="A108" s="3">
+      <c r="A108" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1.6595997980332671</v>
-      </c>
-      <c r="B108" s="5">
+        <v>-0.40732542827313667</v>
+      </c>
+      <c r="B108" s="4">
         <v>106</v>
       </c>
-      <c r="C108" s="8">
+      <c r="C108" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>1.4966865606050577</v>
-      </c>
-      <c r="D108" s="8">
+        <v>-0.79307401075490325</v>
+      </c>
+      <c r="D108" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>2.1931091273040062</v>
+        <v>-0.87885446556780467</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="15.75">
-      <c r="A109" s="3">
+      <c r="A109" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.95819331030275645</v>
-      </c>
-      <c r="B109" s="5">
+        <v>0.77918197849301207</v>
+      </c>
+      <c r="B109" s="4">
         <v>107</v>
       </c>
-      <c r="C109" s="8">
+      <c r="C109" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>1.6770734923781978</v>
-      </c>
-      <c r="D109" s="8">
+        <v>1.1956396494755563</v>
+      </c>
+      <c r="D109" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>1.9165747800842121</v>
+        <v>1.4240209066762524</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="15.75">
-      <c r="A110" s="3">
+      <c r="A110" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.37370279764540126</v>
-      </c>
-      <c r="B110" s="5">
+        <v>-0.61155113748374568</v>
+      </c>
+      <c r="B110" s="4">
         <v>108</v>
       </c>
-      <c r="C110" s="8">
+      <c r="C110" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>0.67503777564174616</v>
-      </c>
-      <c r="D110" s="8">
+        <v>0.47935003094934892</v>
+      </c>
+      <c r="D110" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>0.31580854192615626</v>
+        <v>1.6549342269231826E-2</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="15.75">
-      <c r="A111" s="3">
+      <c r="A111" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.66085767130476059</v>
-      </c>
-      <c r="B111" s="5">
+        <v>0.25615962350977783</v>
+      </c>
+      <c r="B111" s="4">
         <v>109</v>
       </c>
-      <c r="C111" s="8">
+      <c r="C111" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.9082040799071267</v>
-      </c>
-      <c r="D111" s="8">
+        <v>1.593227029128923</v>
+      </c>
+      <c r="D111" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.33004866114284509</v>
+        <v>1.4282773974090051</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="15.75">
-      <c r="A112" s="3">
+      <c r="A112" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1.2148376414681534</v>
-      </c>
-      <c r="B112" s="5">
+        <v>-1.4659563377623626</v>
+      </c>
+      <c r="B112" s="4">
         <v>110</v>
       </c>
-      <c r="C112" s="8">
+      <c r="C112" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>0.51848405345520976</v>
-      </c>
-      <c r="D112" s="8">
+        <v>-0.4898537685405368</v>
+      </c>
+      <c r="D112" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>1.1436898276450598</v>
+        <v>-1.2714568174898468</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15.75">
-      <c r="A113" s="3">
+      <c r="A113" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-1.041647329884168</v>
-      </c>
-      <c r="B113" s="5">
+        <v>1.5056538937378967</v>
+      </c>
+      <c r="B113" s="4">
         <v>111</v>
       </c>
-      <c r="C113" s="8">
+      <c r="C113" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>1.1264110471403892</v>
-      </c>
-      <c r="D113" s="8">
+        <v>-7.1653535414778521E-2</v>
+      </c>
+      <c r="D113" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>0.2761404397818108</v>
+        <v>0.84606950791091506</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15.75">
-      <c r="A114" s="3">
+      <c r="A114" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.55303762067357898</v>
-      </c>
-      <c r="B114" s="5">
+        <v>-1.4090937511414761</v>
+      </c>
+      <c r="B114" s="4">
         <v>112</v>
       </c>
-      <c r="C114" s="8">
+      <c r="C114" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>1.0811669004812454</v>
-      </c>
-      <c r="D114" s="8">
+        <v>-0.9467160472512971</v>
+      </c>
+      <c r="D114" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>0.53311094798084913</v>
+        <v>-1.6028290884859233</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15.75">
-      <c r="A115" s="3">
+      <c r="A115" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.37660803783274927</v>
-      </c>
-      <c r="B115" s="5">
+        <v>-0.96765319375859471</v>
+      </c>
+      <c r="B115" s="4">
         <v>113</v>
       </c>
-      <c r="C115" s="8">
+      <c r="C115" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.2614221634133948</v>
-      </c>
-      <c r="D115" s="8">
+        <v>0.46128361044894328</v>
+      </c>
+      <c r="D115" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>1.6827091968933672E-2</v>
+        <v>-0.21156502789600207</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="15.75">
-      <c r="A116" s="3">
+      <c r="A116" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-9.808449564258806E-2</v>
-      </c>
-      <c r="B116" s="5">
+        <v>-1.8636172761476337</v>
+      </c>
+      <c r="B116" s="4">
         <v>114</v>
       </c>
-      <c r="C116" s="8">
+      <c r="C116" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>1.1131435393989924</v>
-      </c>
-      <c r="D116" s="8">
+        <v>-1.4676752200840038</v>
+      </c>
+      <c r="D116" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>0.83166413413364115</v>
+        <v>-2.292310541755783</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="15.75">
-      <c r="A117" s="3">
+      <c r="A117" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.43949592848017976</v>
-      </c>
-      <c r="B117" s="5">
+        <v>0.44603786939788032</v>
+      </c>
+      <c r="B117" s="4">
         <v>115</v>
       </c>
-      <c r="C117" s="8">
+      <c r="C117" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>1.5939142147286638</v>
-      </c>
-      <c r="D117" s="8">
+        <v>0.54528593639714673</v>
+      </c>
+      <c r="D117" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0114338146948234</v>
+        <v>0.70385147075644561</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="15.75">
-      <c r="A118" s="3">
+      <c r="A118" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3.7158226989895286E-2</v>
-      </c>
-      <c r="B118" s="5">
+        <v>0.10672959579223938</v>
+      </c>
+      <c r="B118" s="4">
         <v>116</v>
       </c>
-      <c r="C118" s="8">
+      <c r="C118" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>1.1913569913734283</v>
-      </c>
-      <c r="D118" s="8">
+        <v>0.71294870742606486</v>
+      </c>
+      <c r="D118" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>0.97538052929267993</v>
+        <v>0.63439672341619546</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="15.75">
-      <c r="A119" s="3">
+      <c r="A119" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.24283804813578505</v>
-      </c>
-      <c r="B119" s="5">
+        <v>0.73230225464208587</v>
+      </c>
+      <c r="B119" s="4">
         <v>117</v>
       </c>
-      <c r="C119" s="8">
+      <c r="C119" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.60188472911983426</v>
-      </c>
-      <c r="D119" s="8">
+        <v>0.63813071827996681</v>
+      </c>
+      <c r="D119" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.62721061217733842</v>
+        <v>0.94988592740922484</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="15.75">
-      <c r="A120" s="3">
+      <c r="A120" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2.0491071583038321</v>
-      </c>
-      <c r="B120" s="5">
+        <v>0.18080470214192207</v>
+      </c>
+      <c r="B120" s="4">
         <v>118</v>
       </c>
-      <c r="C120" s="8">
+      <c r="C120" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.6064504499697061</v>
-      </c>
-      <c r="D120" s="8">
+        <v>0.77945918681082482</v>
+      </c>
+      <c r="D120" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>0.74430393500653402</v>
+        <v>0.73205017073381307</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15.75">
-      <c r="A121" s="3">
+      <c r="A121" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>6.2277485525029035E-2</v>
-      </c>
-      <c r="B121" s="5">
+        <v>0.24753931049197</v>
+      </c>
+      <c r="B121" s="4">
         <v>119</v>
       </c>
-      <c r="C121" s="8">
+      <c r="C121" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>0.29812822459382482</v>
-      </c>
-      <c r="D121" s="8">
+        <v>-0.20694684216134851</v>
+      </c>
+      <c r="D121" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>0.27586907099007729</v>
+        <v>-1.7033887433896833E-2</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="15.75">
-      <c r="A122" s="3">
+      <c r="A122" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.57879790827310684</v>
-      </c>
-      <c r="B122" s="5">
+        <v>-1.3691786561204693</v>
+      </c>
+      <c r="B122" s="4">
         <v>120</v>
       </c>
-      <c r="C122" s="8">
+      <c r="C122" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>1.0921642241892868</v>
-      </c>
-      <c r="D122" s="8">
+        <v>0.34321920236459624</v>
+      </c>
+      <c r="D122" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>1.2210101243152935</v>
+        <v>-0.54693183178060445</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="15.75">
-      <c r="A123" s="3">
+      <c r="A123" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.42446927593655975</v>
-      </c>
-      <c r="B123" s="5">
+        <v>-0.16689286910507869</v>
+      </c>
+      <c r="B123" s="4">
         <v>121</v>
       </c>
-      <c r="C123" s="8">
+      <c r="C123" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>-3.6747450513799719E-2</v>
-      </c>
-      <c r="D123" s="8">
+        <v>2.2321087853444785</v>
+      </c>
+      <c r="D123" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>0.22528360515089599</v>
+        <v>1.6855513068125358</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="15.75">
-      <c r="A124" s="3">
+      <c r="A124" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.80934748813640389</v>
-      </c>
-      <c r="B124" s="5">
+        <v>-1.6688115483770105</v>
+      </c>
+      <c r="B124" s="4">
         <v>122</v>
       </c>
-      <c r="C124" s="8">
+      <c r="C124" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>0.83002015989104405</v>
-      </c>
-      <c r="D124" s="8">
+        <v>-1.0561783958986999</v>
+      </c>
+      <c r="D124" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>0.17840763503099305</v>
+        <v>-1.8462296457451659</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="15.75">
-      <c r="A125" s="3">
+      <c r="A125" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-1.4197832729506412</v>
-      </c>
-      <c r="B125" s="5">
+        <v>-1.3158588742787036</v>
+      </c>
+      <c r="B125" s="4">
         <v>123</v>
       </c>
-      <c r="C125" s="8">
+      <c r="C125" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.75578466298845304</v>
-      </c>
-      <c r="D125" s="8">
+        <v>-1.3777064063033444</v>
+      </c>
+      <c r="D125" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.4564976941611469</v>
+        <v>-1.8916804496098976</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="15.75">
-      <c r="A126" s="3">
+      <c r="A126" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.64110577700344196</v>
-      </c>
-      <c r="B126" s="5">
+        <v>2.070445606903094E-2</v>
+      </c>
+      <c r="B126" s="4">
         <v>124</v>
       </c>
-      <c r="C126" s="8">
+      <c r="C126" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.8708659210161567</v>
-      </c>
-      <c r="D126" s="8">
+        <v>-1.1858654305300194</v>
+      </c>
+      <c r="D126" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.1120292706108603</v>
+        <v>-0.93626967078259693</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="15.75">
-      <c r="A127" s="3">
+      <c r="A127" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-1.3408086917278261</v>
-      </c>
-      <c r="B127" s="5">
+        <v>-1.1086492206830476</v>
+      </c>
+      <c r="B127" s="4">
         <v>125</v>
       </c>
-      <c r="C127" s="8">
+      <c r="C127" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.62682900996051438</v>
-      </c>
-      <c r="D127" s="8">
+        <v>-0.52845264478628373</v>
+      </c>
+      <c r="D127" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.3059484230051068</v>
+        <v>-1.0879516482388554</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="15.75">
-      <c r="A128" s="3">
+      <c r="A128" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.60448631711089096</v>
-      </c>
-      <c r="B128" s="5">
+        <v>-0.49090549618121299</v>
+      </c>
+      <c r="B128" s="4">
         <v>126</v>
       </c>
-      <c r="C128" s="8">
+      <c r="C128" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.62461999091492415</v>
-      </c>
-      <c r="D128" s="8">
+        <v>-0.83269751550016347</v>
+      </c>
+      <c r="D128" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.13700420246540485</v>
+        <v>-0.96070131010885862</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="15.75">
-      <c r="A129" s="3">
+      <c r="A129" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.23360844660109639</v>
-      </c>
-      <c r="B129" s="5">
+        <v>-1.6386603256956422</v>
+      </c>
+      <c r="B129" s="4">
         <v>127</v>
       </c>
-      <c r="C129" s="8">
+      <c r="C129" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.53589371404595088</v>
-      </c>
-      <c r="D129" s="8">
+        <v>-0.40705154936277471</v>
+      </c>
+      <c r="D129" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.56888003919741847</v>
+        <v>-1.3088374349076048</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="15.75">
-      <c r="A130" s="3">
+      <c r="A130" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-4.3515321475129497E-3</v>
-      </c>
-      <c r="B130" s="5">
+        <v>1.5406651701911822</v>
+      </c>
+      <c r="B130" s="4">
         <v>128</v>
       </c>
-      <c r="C130" s="8">
+      <c r="C130" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>1.1528257703417604</v>
-      </c>
-      <c r="D130" s="8">
+        <v>1.1524248358653957</v>
+      </c>
+      <c r="D130" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>0.91964969698490062</v>
+        <v>1.8463389708070257</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="15.75">
-      <c r="A131" s="3">
+      <c r="A131" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.29443722257476984</v>
-      </c>
-      <c r="B131" s="5">
+        <v>0.41206647872672869</v>
+      </c>
+      <c r="B131" s="4">
         <v>129</v>
       </c>
-      <c r="C131" s="8">
+      <c r="C131" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5910500577209112E-2</v>
-      </c>
-      <c r="D131" s="8">
+        <v>0.97467448047112959</v>
+      </c>
+      <c r="D131" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>0.20539073400662916</v>
+        <v>1.0269794716129408</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="15.75">
-      <c r="A132" s="3">
+      <c r="A132" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.66341024154957862</v>
-      </c>
-      <c r="B132" s="5">
+        <v>1.1493257884905657</v>
+      </c>
+      <c r="B132" s="4">
         <v>130</v>
       </c>
-      <c r="C132" s="8">
+      <c r="C132" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.3543486825618198</v>
-      </c>
-      <c r="D132" s="8">
+        <v>0.32389950410941604</v>
+      </c>
+      <c r="D132" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.68543280111970872</v>
+        <v>0.94871507638187214</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="15.75">
-      <c r="A133" s="3">
+      <c r="A133" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.14705613161831588</v>
-      </c>
-      <c r="B133" s="5">
+        <v>-1.4529325846996932</v>
+      </c>
+      <c r="B133" s="4">
         <v>131</v>
       </c>
-      <c r="C133" s="8">
+      <c r="C133" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>0.334198314755491</v>
-      </c>
-      <c r="D133" s="8">
+        <v>-0.50260691628898713</v>
+      </c>
+      <c r="D133" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>0.17912497283340334</v>
+        <v>-1.2738450838510054</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="15.75">
-      <c r="A134" s="3">
+      <c r="A134" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.436528942767483</v>
-      </c>
-      <c r="B134" s="5">
+        <v>-1.0573559588127475</v>
+      </c>
+      <c r="B134" s="4">
         <v>132</v>
       </c>
-      <c r="C134" s="8">
+      <c r="C134" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.7398529147491435</v>
-      </c>
-      <c r="D134" s="8">
+        <v>0.39019767674175604</v>
+      </c>
+      <c r="D134" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6537996974598048</v>
+        <v>-0.32225543389424344</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="15.75">
-      <c r="A135" s="3">
+      <c r="A135" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.56870028287865171</v>
-      </c>
-      <c r="B135" s="5">
+        <v>0.54216221350993099</v>
+      </c>
+      <c r="B135" s="4">
         <v>133</v>
       </c>
-      <c r="C135" s="8">
+      <c r="C135" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>9.9549899500492312E-2</v>
-      </c>
-      <c r="D135" s="8">
+        <v>1.4050757790273583</v>
+      </c>
+      <c r="D135" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>0.42086008932758479</v>
+        <v>1.4493579513278452</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="15.75">
-      <c r="A136" s="3">
+      <c r="A136" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5546498813444984</v>
-      </c>
-      <c r="B136" s="5">
+        <v>-9.6545295554684427E-2</v>
+      </c>
+      <c r="B136" s="4">
         <v>134</v>
       </c>
-      <c r="C136" s="8">
+      <c r="C136" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>4.0143667714295318E-2</v>
-      </c>
-      <c r="D136" s="8">
+        <v>-1.3250966599643719</v>
+      </c>
+      <c r="D136" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>0.96490486297813516</v>
+        <v>-1.1180045053043082</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="15.75">
-      <c r="A137" s="3">
+      <c r="A137" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.44483356663842316</v>
-      </c>
-      <c r="B137" s="5">
+        <v>0.6461256642302543</v>
+      </c>
+      <c r="B137" s="4">
         <v>135</v>
       </c>
-      <c r="C137" s="8">
+      <c r="C137" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.8202031197549301</v>
-      </c>
-      <c r="D137" s="8">
+        <v>2.4526466268445887E-2</v>
+      </c>
+      <c r="D137" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.3892623558208903</v>
+        <v>0.40729657155290916</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="15.75">
-      <c r="A138" s="3">
+      <c r="A138" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2.3311451529103433</v>
-      </c>
-      <c r="B138" s="5">
+        <v>-0.20421426016953981</v>
+      </c>
+      <c r="B138" s="4">
         <v>136</v>
       </c>
-      <c r="C138" s="8">
+      <c r="C138" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>-2.3747555811898957</v>
-      </c>
-      <c r="D138" s="8">
+        <v>1.1274162230812064</v>
+      </c>
+      <c r="D138" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.50111737320571081</v>
+        <v>0.77940442236324126</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="15.75">
-      <c r="A139" s="3">
+      <c r="A139" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2.0994310715368432</v>
-      </c>
-      <c r="B139" s="5">
+        <v>-2.2228790228689128</v>
+      </c>
+      <c r="B139" s="4">
         <v>137</v>
       </c>
-      <c r="C139" s="8">
+      <c r="C139" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>0.37827316304251379</v>
-      </c>
-      <c r="D139" s="8">
+        <v>1.4045298965053343</v>
+      </c>
+      <c r="D139" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>1.5622771733561167</v>
+        <v>-0.21010349651707982</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="15.75">
-      <c r="A140" s="3">
+      <c r="A140" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.23969006750366595</v>
-      </c>
-      <c r="B140" s="5">
+        <v>-1.3516538561793836</v>
+      </c>
+      <c r="B140" s="4">
         <v>138</v>
       </c>
-      <c r="C140" s="8">
+      <c r="C140" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.35133204593485334</v>
-      </c>
-      <c r="D140" s="8">
+        <v>-1.2004281900137512E-3</v>
+      </c>
+      <c r="D140" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.13725159624568317</v>
+        <v>-0.81195265625964108</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="15.75">
-      <c r="A141" s="3">
+      <c r="A141" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.8558322636405653</v>
-      </c>
-      <c r="B141" s="5">
+        <v>0.79051657199522063</v>
+      </c>
+      <c r="B141" s="4">
         <v>139</v>
       </c>
-      <c r="C141" s="8">
+      <c r="C141" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.41339480610691276</v>
-      </c>
-      <c r="D141" s="8">
+        <v>-1.4508653004467185</v>
+      </c>
+      <c r="D141" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>0.18278351329880888</v>
+        <v>-0.68638229716024246</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="15.75">
-      <c r="A142" s="3">
+      <c r="A142" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1.7143727291593016</v>
-      </c>
-      <c r="B142" s="5">
+        <v>-2.1269925340263689</v>
+      </c>
+      <c r="B142" s="4">
         <v>140</v>
       </c>
-      <c r="C142" s="8">
+      <c r="C142" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>0.65870233061509365</v>
-      </c>
-      <c r="D142" s="8">
+        <v>-0.52220332538187075</v>
+      </c>
+      <c r="D142" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>1.5555855019876557</v>
+        <v>-1.6939581807213178</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="15.75">
-      <c r="A143" s="3">
+      <c r="A143" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-1.3812445544151124</v>
-      </c>
-      <c r="B143" s="5">
+        <v>-1.439269599381402</v>
+      </c>
+      <c r="B143" s="4">
         <v>141</v>
       </c>
-      <c r="C143" s="8">
+      <c r="C143" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>1.6165792891395052</v>
-      </c>
-      <c r="D143" s="8">
+        <v>-0.60321513009534544</v>
+      </c>
+      <c r="D143" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>0.46451669866253698</v>
+        <v>-1.3461338637051172</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="15.75">
-      <c r="A144" s="3">
+      <c r="A144" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.94695812960276493</v>
-      </c>
-      <c r="B144" s="5">
+        <v>0.67655626996030527</v>
+      </c>
+      <c r="B144" s="4">
         <v>142</v>
       </c>
-      <c r="C144" s="8">
+      <c r="C144" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.79257493596206519</v>
-      </c>
-      <c r="D144" s="8">
+        <v>-2.0006662955472558</v>
+      </c>
+      <c r="D144" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.5885071007993345E-2</v>
+        <v>-1.1945992744616216</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="15.75">
-      <c r="A145" s="3">
+      <c r="A145" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.28656633779285962</v>
-      </c>
-      <c r="B145" s="5">
+        <v>0.41227050696414019</v>
+      </c>
+      <c r="B145" s="4">
         <v>143</v>
       </c>
-      <c r="C145" s="8">
+      <c r="C145" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.12905930349720762</v>
-      </c>
-      <c r="D145" s="8">
+        <v>-0.62474894203197229</v>
+      </c>
+      <c r="D145" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.27518724547348183</v>
+        <v>-0.25243684944709377</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="15.75">
-      <c r="A146" s="3">
+      <c r="A146" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.93705955117026363</v>
-      </c>
-      <c r="B146" s="5">
+        <v>-0.48400282061987482</v>
+      </c>
+      <c r="B146" s="4">
         <v>144</v>
       </c>
-      <c r="C146" s="8">
+      <c r="C146" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.26087681757928743</v>
-      </c>
-      <c r="D146" s="8">
+        <v>0.39516227155019273</v>
+      </c>
+      <c r="D146" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.77093718476558803</v>
+        <v>2.5728124868229396E-2</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="15.75">
-      <c r="A147" s="3">
+      <c r="A147" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1.4558261800031971</v>
-      </c>
-      <c r="B147" s="5">
+        <v>-1.113103280758742</v>
+      </c>
+      <c r="B147" s="4">
         <v>145</v>
       </c>
-      <c r="C147" s="8">
+      <c r="C147" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.2886306855979992</v>
-      </c>
-      <c r="D147" s="8">
+        <v>0.51860412705914927</v>
+      </c>
+      <c r="D147" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>0.64259115952351864</v>
+        <v>-0.25297866680792558</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="15.75">
-      <c r="A148" s="3">
+      <c r="A148" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.44061868625246897</v>
-      </c>
-      <c r="B148" s="5">
+        <v>-0.34480520351221455</v>
+      </c>
+      <c r="B148" s="4">
         <v>146</v>
       </c>
-      <c r="C148" s="8">
+      <c r="C148" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>0.88883737101323379</v>
-      </c>
-      <c r="D148" s="8">
+        <v>0.48114657481928891</v>
+      </c>
+      <c r="D148" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>0.97544110856206845</v>
+        <v>0.17803413774810245</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="15.75">
-      <c r="A149" s="3">
+      <c r="A149" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.55372786270410923</v>
-      </c>
-      <c r="B149" s="5">
+        <v>1.4108521789039719</v>
+      </c>
+      <c r="B149" s="4">
         <v>147</v>
       </c>
-      <c r="C149" s="8">
+      <c r="C149" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>0.67438581570268119</v>
-      </c>
-      <c r="D149" s="8">
+        <v>-0.34266595694818197</v>
+      </c>
+      <c r="D149" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>0.87174537018461051</v>
+        <v>0.57237854178383729</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="15.75">
-      <c r="A150" s="3">
+      <c r="A150" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.9821309347413022</v>
-      </c>
-      <c r="B150" s="5">
+        <v>-0.57839814197948614</v>
+      </c>
+      <c r="B150" s="4">
         <v>148</v>
       </c>
-      <c r="C150" s="8">
+      <c r="C150" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.12928484608051061</v>
-      </c>
-      <c r="D150" s="8">
+        <v>-0.34037093801169688</v>
+      </c>
+      <c r="D150" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.6927064377091896</v>
+        <v>-0.61933563559704918</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="15.75">
-      <c r="A151" s="3">
+      <c r="A151" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3387602996748418</v>
-      </c>
-      <c r="B151" s="5">
+        <v>0.95066406116506874</v>
+      </c>
+      <c r="B151" s="4">
         <v>149</v>
       </c>
-      <c r="C151" s="8">
+      <c r="C151" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.1955681978609216</v>
-      </c>
-      <c r="D151" s="8">
+        <v>1.5308825646079447</v>
+      </c>
+      <c r="D151" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.15319837848383244</v>
+        <v>1.795104488385397</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="15.75">
-      <c r="A152" s="3">
+      <c r="A152" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.81111358912603371</v>
-      </c>
-      <c r="B152" s="5">
+        <v>-2.1509143045833534</v>
+      </c>
+      <c r="B152" s="4">
         <v>150</v>
       </c>
-      <c r="C152" s="8">
+      <c r="C152" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>0.60231628540877413</v>
-      </c>
-      <c r="D152" s="8">
+        <v>0.33889726264879899</v>
+      </c>
+      <c r="D152" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>0.96852118180263935</v>
+        <v>-1.0194307726309726</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="15.75">
-      <c r="A153" s="3">
+      <c r="A153" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.46427924515339486</v>
-      </c>
-      <c r="B153" s="5">
+        <v>-0.43616585452956069</v>
+      </c>
+      <c r="B153" s="4">
         <v>151</v>
       </c>
-      <c r="C153" s="8">
+      <c r="C153" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>1.4431032126837251</v>
-      </c>
-      <c r="D153" s="8">
+        <v>1.2096893899404804</v>
+      </c>
+      <c r="D153" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>1.4330501172390169</v>
+        <v>0.7060519992346479</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="15.75">
-      <c r="A154" s="3">
+      <c r="A154" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1.4005381359401361</v>
-      </c>
-      <c r="B154" s="5">
+        <v>-0.70254693584514627</v>
+      </c>
+      <c r="B154" s="4">
         <v>152</v>
       </c>
-      <c r="C154" s="8">
+      <c r="C154" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.0489002936561682</v>
-      </c>
-      <c r="D154" s="8">
+        <v>-1.0318995359009639</v>
+      </c>
+      <c r="D154" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>1.2026466391469315E-3</v>
+        <v>-1.2470477902278589</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="15.75">
-      <c r="A155" s="3">
+      <c r="A155" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>8.1378329196305346E-2</v>
-      </c>
-      <c r="B155" s="5">
+        <v>-0.58900377742850663</v>
+      </c>
+      <c r="B155" s="4">
         <v>153</v>
       </c>
-      <c r="C155" s="8">
+      <c r="C155" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>1.0734310119856552</v>
-      </c>
-      <c r="D155" s="8">
+        <v>0.46171201692476022</v>
+      </c>
+      <c r="D155" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>0.90757180710630736</v>
+        <v>1.5967347082704308E-2</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="15.75">
-      <c r="A156" s="3">
+      <c r="A156" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-1.3403248510070507</v>
-      </c>
-      <c r="B156" s="5">
+        <v>0.85004060663604175</v>
+      </c>
+      <c r="B156" s="4">
         <v>154</v>
       </c>
-      <c r="C156" s="8">
+      <c r="C156" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.1520259224498719</v>
-      </c>
-      <c r="D156" s="8">
+        <v>-3.3680565886627236</v>
+      </c>
+      <c r="D156" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.92581564856412779</v>
+        <v>-2.1844209069485543</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="15.75">
-      <c r="A157" s="3">
+      <c r="A157" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.14092157736699984</v>
-      </c>
-      <c r="B157" s="5">
+        <v>-0.75729708809695384</v>
+      </c>
+      <c r="B157" s="4">
         <v>155</v>
       </c>
-      <c r="C157" s="8">
+      <c r="C157" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>-2.4783200006172521</v>
-      </c>
-      <c r="D157" s="8">
+        <v>0.14007774041326004</v>
+      </c>
+      <c r="D157" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8981030540736019</v>
+        <v>-0.34231606052756414</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="15.75">
-      <c r="A158" s="3">
+      <c r="A158" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.19640933714578748</v>
-      </c>
-      <c r="B158" s="5">
+        <v>-0.28568459781404021</v>
+      </c>
+      <c r="B158" s="4">
         <v>156</v>
       </c>
-      <c r="C158" s="8">
+      <c r="C158" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.2496372461061446</v>
-      </c>
-      <c r="D158" s="8">
+        <v>0.7624923302651877</v>
+      </c>
+      <c r="D158" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.1864194597443221E-2</v>
+        <v>0.43858310552372609</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="15.75">
-      <c r="A159" s="3">
+      <c r="A159" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.93400974962137984</v>
-      </c>
-      <c r="B159" s="5">
+        <v>-0.94329139459354427</v>
+      </c>
+      <c r="B159" s="4">
         <v>157</v>
       </c>
-      <c r="C159" s="8">
+      <c r="C159" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>0.62198932127683371</v>
-      </c>
-      <c r="D159" s="8">
+        <v>0.53185427747467895</v>
+      </c>
+      <c r="D159" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.2814392751360804E-2</v>
+        <v>-0.14049141477638327</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="15.75">
-      <c r="A160" s="3">
+      <c r="A160" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.73283689124856966</v>
-      </c>
-      <c r="B160" s="5">
+        <v>-1.1821584913354264</v>
+      </c>
+      <c r="B160" s="4">
         <v>158</v>
       </c>
-      <c r="C160" s="8">
+      <c r="C160" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>1.7078598733844846E-2</v>
-      </c>
-      <c r="D160" s="8">
+        <v>0.6781312322013161</v>
+      </c>
+      <c r="D160" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.42603925576206586</v>
+        <v>-0.16679010904020275</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="15.75">
-      <c r="A161" s="3">
+      <c r="A161" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.13757667938095638</v>
-      </c>
-      <c r="B161" s="5">
+        <v>-0.48734413284318917</v>
+      </c>
+      <c r="B161" s="4">
         <v>159</v>
       </c>
-      <c r="C161" s="8">
+      <c r="C161" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.161465595725141</v>
-      </c>
-      <c r="D161" s="8">
+        <v>2.6693262619508444</v>
+      </c>
+      <c r="D161" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.0117184842086866</v>
+        <v>1.8430545298547623</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="15.75">
-      <c r="A162" s="3">
+      <c r="A162" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-5.576202734369584E-3</v>
-      </c>
-      <c r="B162" s="5">
+        <v>-1.3485472962765932</v>
+      </c>
+      <c r="B162" s="4">
         <v>160</v>
       </c>
-      <c r="C162" s="8">
+      <c r="C162" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>6.4109422022788812E-2</v>
-      </c>
-      <c r="D162" s="8">
+        <v>-0.57262064369242027</v>
+      </c>
+      <c r="D162" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>4.7941815977609298E-2</v>
+        <v>-1.2672248927198919</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="15.75">
-      <c r="A163" s="3">
+      <c r="A163" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5400480551373097</v>
-      </c>
-      <c r="B163" s="5">
+        <v>-1.3161440751799411</v>
+      </c>
+      <c r="B163" s="4">
         <v>161</v>
       </c>
-      <c r="C163" s="8">
+      <c r="C163" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.8854901035671581E-2</v>
-      </c>
-      <c r="D163" s="8">
+        <v>1.6365958176747035</v>
+      </c>
+      <c r="D163" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>0.90894491225384833</v>
+        <v>0.51959020903179842</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="15.75">
-      <c r="A164" s="3">
+      <c r="A164" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-3.1337629686612654</v>
-      </c>
-      <c r="B164" s="5">
+        <v>-0.42820497414796699</v>
+      </c>
+      <c r="B164" s="4">
         <v>162</v>
       </c>
-      <c r="C164" s="8">
+      <c r="C164" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>1.4982123632560669</v>
-      </c>
-      <c r="D164" s="8">
+        <v>-0.65823921464187862</v>
+      </c>
+      <c r="D164" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.68168789059190527</v>
+        <v>-0.78351435620228305</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="15.75">
-      <c r="A165" s="3">
+      <c r="A165" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.99171307056347047</v>
-      </c>
-      <c r="B165" s="5">
+        <v>-0.42626769864834319</v>
+      </c>
+      <c r="B165" s="4">
         <v>163</v>
       </c>
-      <c r="C165" s="8">
+      <c r="C165" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.87783771346237893</v>
-      </c>
-      <c r="D165" s="8">
+        <v>-1.2813832056426711</v>
+      </c>
+      <c r="D165" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2972980131079854</v>
+        <v>-1.2808671837031427</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="15.75">
-      <c r="A166" s="3">
+      <c r="A166" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1.2438346110464122</v>
-      </c>
-      <c r="B166" s="5">
+        <v>-0.77044735848261658</v>
+      </c>
+      <c r="B166" s="4">
         <v>164</v>
       </c>
-      <c r="C166" s="8">
+      <c r="C166" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.63385412826121634</v>
-      </c>
-      <c r="D166" s="8">
+        <v>1.698895211155194</v>
+      </c>
+      <c r="D166" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>0.23921746401887412</v>
+        <v>0.89684775383458548</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="15.75">
-      <c r="A167" s="3">
+      <c r="A167" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.64688941456192495</v>
-      </c>
-      <c r="B167" s="5">
+        <v>-1.2717865989516779</v>
+      </c>
+      <c r="B167" s="4">
         <v>165</v>
       </c>
-      <c r="C167" s="8">
+      <c r="C167" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.9789219200407141</v>
-      </c>
-      <c r="D167" s="8">
+        <v>-1.5601629383750635</v>
+      </c>
+      <c r="D167" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.1712711847697261</v>
+        <v>-2.0112023100710577</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="15.75">
-      <c r="A168" s="3">
+      <c r="A168" s="1">
         <f t="shared" ref="A168:A195" ca="1" si="9">_xlfn.NORM.S.INV(RAND())</f>
-        <v>-1.0438222964123367</v>
-      </c>
-      <c r="B168" s="5">
+        <v>1.2550072978918179</v>
+      </c>
+      <c r="B168" s="4">
         <v>166</v>
       </c>
-      <c r="C168" s="8">
+      <c r="C168" s="7">
         <f t="shared" ref="C168:C195" ca="1" si="10">_xlfn.NORM.S.INV(RAND())</f>
-        <v>0.71711441206941107</v>
-      </c>
-      <c r="D168" s="8">
+        <v>1.283100657629108</v>
+      </c>
+      <c r="D168" s="7">
         <f t="shared" ref="D168:D195" ca="1" si="11">$G$2*C168+SQRT(1-$G$2^2)*A168</f>
-        <v>-5.260184819187308E-2</v>
+        <v>1.7794849048383767</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="15.75">
-      <c r="A169" s="3">
+      <c r="A169" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0.83937395905137058</v>
-      </c>
-      <c r="B169" s="5">
+        <v>1.5980246438953054</v>
+      </c>
+      <c r="B169" s="4">
         <v>167</v>
       </c>
-      <c r="C169" s="8">
+      <c r="C169" s="7">
         <f t="shared" ca="1" si="10"/>
-        <v>0.78886406049130076</v>
-      </c>
-      <c r="D169" s="8">
+        <v>-0.28542256544745803</v>
+      </c>
+      <c r="D169" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>1.1347156238238629</v>
+        <v>0.73047673397921653</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="15.75">
-      <c r="A170" s="3">
+      <c r="A170" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0.36146574246301127</v>
-      </c>
-      <c r="B170" s="5">
+        <v>-1.348396477852067</v>
+      </c>
+      <c r="B170" s="4">
         <v>168</v>
       </c>
-      <c r="C170" s="8">
+      <c r="C170" s="7">
         <f t="shared" ca="1" si="10"/>
-        <v>-0.21007722742581916</v>
-      </c>
-      <c r="D170" s="8">
+        <v>0.23569947693427742</v>
+      </c>
+      <c r="D170" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>4.8817663537151362E-2</v>
+        <v>-0.62047830516381808</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="15.75">
-      <c r="A171" s="3">
+      <c r="A171" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0.97538640317950176</v>
-      </c>
-      <c r="B171" s="5">
+        <v>-1.4157007208803822</v>
+      </c>
+      <c r="B171" s="4">
         <v>169</v>
       </c>
-      <c r="C171" s="8">
+      <c r="C171" s="7">
         <f t="shared" ca="1" si="10"/>
-        <v>-5.9979103158929403E-2</v>
-      </c>
-      <c r="D171" s="8">
+        <v>-2.6472307967626091E-2</v>
+      </c>
+      <c r="D171" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>0.53724855938055738</v>
+        <v>-0.8705982789023301</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="15.75">
-      <c r="A172" s="3">
+      <c r="A172" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.29922891333741308</v>
-      </c>
-      <c r="B172" s="5">
+        <v>-1.7881070037913538</v>
+      </c>
+      <c r="B172" s="4">
         <v>170</v>
       </c>
-      <c r="C172" s="8">
+      <c r="C172" s="7">
         <f t="shared" ca="1" si="10"/>
-        <v>-0.48386492596314729</v>
-      </c>
-      <c r="D172" s="8">
+        <v>-6.4401759082264212E-2</v>
+      </c>
+      <c r="D172" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.56662928877296559</v>
+        <v>-1.1243856095406235</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="15.75">
-      <c r="A173" s="3">
+      <c r="A173" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>-1.4487123159089981</v>
-      </c>
-      <c r="B173" s="5">
+        <v>-1.1873383386310847</v>
+      </c>
+      <c r="B173" s="4">
         <v>171</v>
       </c>
-      <c r="C173" s="8">
+      <c r="C173" s="7">
         <f t="shared" ca="1" si="10"/>
-        <v>0.93052680032771373</v>
-      </c>
-      <c r="D173" s="8">
+        <v>1.3970145297916279</v>
+      </c>
+      <c r="D173" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.12480594928322764</v>
+        <v>0.40520862065465157</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="15.75">
-      <c r="A174" s="3">
+      <c r="A174" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0.25140200544758473</v>
-      </c>
-      <c r="B174" s="5">
+        <v>0.70865186394849233</v>
+      </c>
+      <c r="B174" s="4">
         <v>172</v>
       </c>
-      <c r="C174" s="8">
+      <c r="C174" s="7">
         <f t="shared" ca="1" si="10"/>
-        <v>0.1253017129169082</v>
-      </c>
-      <c r="D174" s="8">
+        <v>0.44834574173681624</v>
+      </c>
+      <c r="D174" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>0.25108257360207736</v>
+        <v>0.7838677117585483</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="15.75">
-      <c r="A175" s="3">
+      <c r="A175" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0.48784361440791102</v>
-      </c>
-      <c r="B175" s="5">
+        <v>-1.3123781895456683</v>
+      </c>
+      <c r="B175" s="4">
         <v>173</v>
       </c>
-      <c r="C175" s="8">
+      <c r="C175" s="7">
         <f t="shared" ca="1" si="10"/>
-        <v>-1.590563321234207</v>
-      </c>
-      <c r="D175" s="8">
+        <v>0.70638573805448424</v>
+      </c>
+      <c r="D175" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.97974448834261918</v>
+        <v>-0.2223183232838134</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="15.75">
-      <c r="A176" s="3">
+      <c r="A176" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0.38373787670756682</v>
-      </c>
-      <c r="B176" s="5">
+        <v>-1.1517959411814869</v>
+      </c>
+      <c r="B176" s="4">
         <v>174</v>
       </c>
-      <c r="C176" s="8">
+      <c r="C176" s="7">
         <f t="shared" ca="1" si="10"/>
-        <v>-0.14721956067356629</v>
-      </c>
-      <c r="D176" s="8">
+        <v>-0.69799058941537595</v>
+      </c>
+      <c r="D176" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>0.11246707748568702</v>
+        <v>-1.2494700362411928</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="15.75">
-      <c r="A177" s="3">
+      <c r="A177" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>-1.6565096976289759</v>
-      </c>
-      <c r="B177" s="5">
+        <v>0.1710092243273722</v>
+      </c>
+      <c r="B177" s="4">
         <v>175</v>
       </c>
-      <c r="C177" s="8">
+      <c r="C177" s="7">
         <f t="shared" ca="1" si="10"/>
-        <v>0.4471835422419782</v>
-      </c>
-      <c r="D177" s="8">
+        <v>1.1410540935126741</v>
+      </c>
+      <c r="D177" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.63615898478380273</v>
+        <v>1.0154488094065626</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="15.75">
-      <c r="A178" s="3">
+      <c r="A178" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0.32946428289030993</v>
-      </c>
-      <c r="B178" s="5">
+        <v>1.4708062389445993</v>
+      </c>
+      <c r="B178" s="4">
         <v>176</v>
       </c>
-      <c r="C178" s="8">
+      <c r="C178" s="7">
         <f t="shared" ca="1" si="10"/>
-        <v>-1.4600043387519293</v>
-      </c>
-      <c r="D178" s="8">
+        <v>0.40453274479880219</v>
+      </c>
+      <c r="D178" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.9703249012673576</v>
+        <v>1.2061099392058012</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="15.75">
-      <c r="A179" s="3">
+      <c r="A179" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>-1.2741828307762817</v>
-      </c>
-      <c r="B179" s="5">
+        <v>0.394044100197259</v>
+      </c>
+      <c r="B179" s="4">
         <v>177</v>
       </c>
-      <c r="C179" s="8">
+      <c r="C179" s="7">
         <f t="shared" ca="1" si="10"/>
-        <v>-0.33813990535197641</v>
-      </c>
-      <c r="D179" s="8">
+        <v>0.52538037592695397</v>
+      </c>
+      <c r="D179" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>-1.0350216227473501</v>
+        <v>0.65673076085991855</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="15.75">
-      <c r="A180" s="3">
+      <c r="A180" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0.80655054856424635</v>
-      </c>
-      <c r="B180" s="5">
+        <v>1.0841623726934155</v>
+      </c>
+      <c r="B180" s="4">
         <v>178</v>
       </c>
-      <c r="C180" s="8">
+      <c r="C180" s="7">
         <f t="shared" ca="1" si="10"/>
-        <v>-0.30349503485526419</v>
-      </c>
-      <c r="D180" s="8">
+        <v>-0.73190990866177053</v>
+      </c>
+      <c r="D180" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>0.24113430125433635</v>
+        <v>6.4969496686632655E-2</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="15.75">
-      <c r="A181" s="3">
+      <c r="A181" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>-1.1852950749832247</v>
-      </c>
-      <c r="B181" s="5">
+        <v>0.85120862729268765</v>
+      </c>
+      <c r="B181" s="4">
         <v>179</v>
       </c>
-      <c r="C181" s="8">
+      <c r="C181" s="7">
         <f t="shared" ca="1" si="10"/>
-        <v>-0.59720565009344562</v>
-      </c>
-      <c r="D181" s="8">
+        <v>-0.50008183547704466</v>
+      </c>
+      <c r="D181" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>-1.1889415650646913</v>
+        <v>0.11065970799397667</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="15.75">
-      <c r="A182" s="3">
+      <c r="A182" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>-3.9292516538993821E-2</v>
-      </c>
-      <c r="B182" s="5">
+        <v>-0.61030761208215434</v>
+      </c>
+      <c r="B182" s="4">
         <v>180</v>
       </c>
-      <c r="C182" s="8">
+      <c r="C182" s="7">
         <f t="shared" ca="1" si="10"/>
-        <v>0.57998819539539737</v>
-      </c>
-      <c r="D182" s="8">
+        <v>-1.0074591189209838</v>
+      </c>
+      <c r="D182" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>0.44041504639292162</v>
+        <v>-1.1721518623860796</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="15.75">
-      <c r="A183" s="3">
+      <c r="A183" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>-1.2871271775187001</v>
-      </c>
-      <c r="B183" s="5">
+        <v>-0.16887071946118504</v>
+      </c>
+      <c r="B183" s="4">
         <v>181</v>
       </c>
-      <c r="C183" s="8">
+      <c r="C183" s="7">
         <f t="shared" ca="1" si="10"/>
-        <v>1.1951077256683613</v>
-      </c>
-      <c r="D183" s="8">
+        <v>0.97238026010919865</v>
+      </c>
+      <c r="D183" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>0.18380987402346916</v>
+        <v>0.67658177641064798</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="15.75">
-      <c r="A184" s="3">
+      <c r="A184" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>2.2597752964422875</v>
-      </c>
-      <c r="B184" s="5">
+        <v>-0.48644181002307596</v>
+      </c>
+      <c r="B184" s="4">
         <v>182</v>
       </c>
-      <c r="C184" s="8">
+      <c r="C184" s="7">
         <f t="shared" ca="1" si="10"/>
-        <v>1.7024980801801366</v>
-      </c>
-      <c r="D184" s="8">
+        <v>2.9535268221431814E-3</v>
+      </c>
+      <c r="D184" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>2.7178636420094815</v>
+        <v>-0.28950226455613098</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="15.75">
-      <c r="A185" s="3">
+      <c r="A185" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0.37404652210886385</v>
-      </c>
-      <c r="B185" s="5">
+        <v>-1.4252930847596372E-2</v>
+      </c>
+      <c r="B185" s="4">
         <v>183</v>
       </c>
-      <c r="C185" s="8">
+      <c r="C185" s="7">
         <f t="shared" ca="1" si="10"/>
-        <v>1.3060883336076494</v>
-      </c>
-      <c r="D185" s="8">
+        <v>0.87547886161134847</v>
+      </c>
+      <c r="D185" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>1.2692985801514378</v>
+        <v>0.69183133078052095</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="15.75">
-      <c r="A186" s="3">
+      <c r="A186" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.53027718851518924</v>
-      </c>
-      <c r="B186" s="5">
+        <v>-0.41828376152729024</v>
+      </c>
+      <c r="B186" s="4">
         <v>184</v>
       </c>
-      <c r="C186" s="8">
+      <c r="C186" s="7">
         <f t="shared" ca="1" si="10"/>
-        <v>-0.40179331028455523</v>
-      </c>
-      <c r="D186" s="8">
+        <v>0.1301305296578911</v>
+      </c>
+      <c r="D186" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.6396009613367577</v>
+        <v>-0.14686583319006119</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="15.75">
-      <c r="A187" s="3">
+      <c r="A187" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.754114957797409</v>
-      </c>
-      <c r="B187" s="5">
+        <v>-0.38871572359629319</v>
+      </c>
+      <c r="B187" s="4">
         <v>185</v>
       </c>
-      <c r="C187" s="8">
+      <c r="C187" s="7">
         <f t="shared" ca="1" si="10"/>
-        <v>-0.12105423422127207</v>
-      </c>
-      <c r="D187" s="8">
+        <v>0.99761881673358821</v>
+      </c>
+      <c r="D187" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.54931236205546297</v>
+        <v>0.56486561922909473</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="15.75">
-      <c r="A188" s="3">
+      <c r="A188" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0.34570217143637277</v>
-      </c>
-      <c r="B188" s="5">
+        <v>-1.1301348173763093</v>
+      </c>
+      <c r="B188" s="4">
         <v>186</v>
       </c>
-      <c r="C188" s="8">
+      <c r="C188" s="7">
         <f t="shared" ca="1" si="10"/>
-        <v>0.72155722729640237</v>
-      </c>
-      <c r="D188" s="8">
+        <v>0.7513274602060116</v>
+      </c>
+      <c r="D188" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>0.78466708469894553</v>
+        <v>-7.7018922260976175E-2</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="15.75">
-      <c r="A189" s="3">
+      <c r="A189" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0.29504518688128573</v>
-      </c>
-      <c r="B189" s="5">
+        <v>-0.54328925104293335</v>
+      </c>
+      <c r="B189" s="4">
         <v>187</v>
       </c>
-      <c r="C189" s="8">
+      <c r="C189" s="7">
         <f t="shared" ca="1" si="10"/>
-        <v>-0.13116518159284107</v>
-      </c>
-      <c r="D189" s="8">
+        <v>-1.436737421373236</v>
+      </c>
+      <c r="D189" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>7.2094966854498538E-2</v>
+        <v>-1.4753634877243489</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="15.75">
-      <c r="A190" s="3">
+      <c r="A190" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>-1.337659434973226</v>
-      </c>
-      <c r="B190" s="5">
+        <v>-5.0693952285070544E-2</v>
+      </c>
+      <c r="B190" s="4">
         <v>188</v>
       </c>
-      <c r="C190" s="8">
+      <c r="C190" s="7">
         <f t="shared" ca="1" si="10"/>
-        <v>-0.36869964949931083</v>
-      </c>
-      <c r="D190" s="8">
+        <v>1.5170871312660033</v>
+      </c>
+      <c r="D190" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>-1.0975553805833842</v>
+        <v>1.1832533336417603</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="15.75">
-      <c r="A191" s="3">
+      <c r="A191" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.48008365590143481</v>
-      </c>
-      <c r="B191" s="5">
+        <v>-2.0796979507281281</v>
+      </c>
+      <c r="B191" s="4">
         <v>189</v>
       </c>
-      <c r="C191" s="8">
+      <c r="C191" s="7">
         <f t="shared" ca="1" si="10"/>
-        <v>1.114202208522072</v>
-      </c>
-      <c r="D191" s="8">
+        <v>-1.4480792000137928</v>
+      </c>
+      <c r="D191" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>0.60331157327679685</v>
+        <v>-2.4062821304479112</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="15.75">
-      <c r="A192" s="3">
+      <c r="A192" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.17497610476795863</v>
-      </c>
-      <c r="B192" s="5">
+        <v>-0.54369941370693708</v>
+      </c>
+      <c r="B192" s="4">
         <v>190</v>
       </c>
-      <c r="C192" s="8">
+      <c r="C192" s="7">
         <f t="shared" ca="1" si="10"/>
-        <v>-0.18553958222662839</v>
-      </c>
-      <c r="D192" s="8">
+        <v>0.35973369519457166</v>
+      </c>
+      <c r="D192" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.25341732864207789</v>
+        <v>-3.8432692068504803E-2</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="15.75">
-      <c r="A193" s="3">
+      <c r="A193" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>1.4005920273608765</v>
-      </c>
-      <c r="B193" s="5">
+        <v>2.558453854651161</v>
+      </c>
+      <c r="B193" s="4">
         <v>191</v>
       </c>
-      <c r="C193" s="8">
+      <c r="C193" s="7">
         <f t="shared" ca="1" si="10"/>
-        <v>0.24324573196028135</v>
-      </c>
-      <c r="D193" s="8">
+        <v>1.0777879927508136</v>
+      </c>
+      <c r="D193" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>1.0349518019847508</v>
+        <v>2.3973027069913471</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="15.75">
-      <c r="A194" s="3">
+      <c r="A194" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0.3632671361971459</v>
-      </c>
-      <c r="B194" s="5">
+        <v>-1.2364176923050367</v>
+      </c>
+      <c r="B194" s="4">
         <v>192</v>
       </c>
-      <c r="C194" s="8">
+      <c r="C194" s="7">
         <f t="shared" ca="1" si="10"/>
-        <v>1.3506719164362275</v>
-      </c>
-      <c r="D194" s="8">
+        <v>-2.5408818781449507</v>
+      </c>
+      <c r="D194" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>1.2984978148672697</v>
+        <v>-2.7745561178989826</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="15.75">
-      <c r="A195" s="3">
+      <c r="A195" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0.60375576046233148</v>
-      </c>
-      <c r="B195" s="5">
+        <v>2.8951144723839146</v>
+      </c>
+      <c r="B195" s="4">
         <v>193</v>
       </c>
-      <c r="C195" s="8">
+      <c r="C195" s="7">
         <f t="shared" ca="1" si="10"/>
-        <v>-0.4074689676783001</v>
-      </c>
-      <c r="D195" s="8">
+        <v>1.1239645265663383</v>
+      </c>
+      <c r="D195" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>3.6278282134758699E-2</v>
+        <v>2.6362403046834189</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="15.75">
-      <c r="A196" s="3">
+      <c r="A196" s="1">
         <f ca="1">_xlfn.NORM.S.INV(RAND())</f>
-        <v>0.41642723302627455</v>
-      </c>
-      <c r="B196" s="5">
+        <v>0.58143770685781571</v>
+      </c>
+      <c r="B196" s="4">
         <v>194</v>
       </c>
-      <c r="C196" s="8">
+      <c r="C196" s="7">
         <f ca="1">_xlfn.NORM.S.INV(RAND())</f>
-        <v>0.37855769290098107</v>
-      </c>
-      <c r="D196" s="8">
+        <v>-2.9480733919464956</v>
+      </c>
+      <c r="D196" s="7">
         <f ca="1">$G$2*C196+SQRT(1-$G$2^2)*A196</f>
-        <v>0.55270249413654948</v>
+        <v>-2.0095960894425073</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="15.75">
-      <c r="A197" s="3">
-        <f t="shared" ref="A197:A207" ca="1" si="12">_xlfn.NORM.S.INV(RAND())</f>
-        <v>0.7005619395450422</v>
-      </c>
-      <c r="B197" s="5">
+      <c r="A197" s="1">
+        <f t="shared" ref="A197:A202" ca="1" si="12">_xlfn.NORM.S.INV(RAND())</f>
+        <v>1.2968018618706074</v>
+      </c>
+      <c r="B197" s="4">
         <v>195</v>
       </c>
-      <c r="C197" s="8">
-        <f t="shared" ref="C197:C207" ca="1" si="13">_xlfn.NORM.S.INV(RAND())</f>
-        <v>0.6047464435765294</v>
-      </c>
-      <c r="D197" s="8">
+      <c r="C197" s="7">
+        <f t="shared" ref="C197:C202" ca="1" si="13">_xlfn.NORM.S.INV(RAND())</f>
+        <v>0.30988401036203711</v>
+      </c>
+      <c r="D197" s="7">
         <f t="shared" ref="D197:D207" ca="1" si="14">$G$2*C197+SQRT(1-$G$2^2)*A197</f>
-        <v>0.90413431858824878</v>
+        <v>1.0259883254119939</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="15.75">
-      <c r="A198" s="3">
+      <c r="A198" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-0.93972601744772</v>
-      </c>
-      <c r="B198" s="5">
+        <v>-2.5124836383986962</v>
+      </c>
+      <c r="B198" s="4">
         <v>196</v>
       </c>
-      <c r="C198" s="8">
+      <c r="C198" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>-1.388586036865634</v>
-      </c>
-      <c r="D198" s="8">
+        <v>-0.12488765543406072</v>
+      </c>
+      <c r="D198" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>-1.6747044399611393</v>
+        <v>-1.607400307386466</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="15.75">
-      <c r="A199" s="3">
+      <c r="A199" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-1.4672083884641105</v>
-      </c>
-      <c r="B199" s="5">
+        <v>-0.41463947713403049</v>
+      </c>
+      <c r="B199" s="4">
         <v>197</v>
       </c>
-      <c r="C199" s="8">
+      <c r="C199" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>-3.4227859509106125E-2</v>
-      </c>
-      <c r="D199" s="8">
+        <v>0.44547690116285793</v>
+      </c>
+      <c r="D199" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.907707320685751</v>
+        <v>0.10759783464986811</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="15.75">
-      <c r="A200" s="3">
+      <c r="A200" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>0.59600134108402048</v>
-      </c>
-      <c r="B200" s="5">
+        <v>-0.37438438104298127</v>
+      </c>
+      <c r="B200" s="4">
         <v>198</v>
       </c>
-      <c r="C200" s="8">
+      <c r="C200" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>-0.76211896805985024</v>
-      </c>
-      <c r="D200" s="8">
+        <v>-0.72837605096108615</v>
+      </c>
+      <c r="D200" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.25209436979746802</v>
+        <v>-0.80733146939465772</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="15.75">
-      <c r="A201" s="3">
+      <c r="A201" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-0.12221735295468102</v>
-      </c>
-      <c r="B201" s="5">
+        <v>-0.46739669532379785</v>
+      </c>
+      <c r="B201" s="4">
         <v>199</v>
       </c>
-      <c r="C201" s="8">
+      <c r="C201" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>-5.5818749865655666E-2</v>
-      </c>
-      <c r="D201" s="8">
+        <v>0.11829127924047896</v>
+      </c>
+      <c r="D201" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.11798541166533313</v>
+        <v>-0.18580499380189547</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="15.75">
-      <c r="A202" s="3">
+      <c r="A202" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-0.76737578532401973</v>
-      </c>
-      <c r="B202" s="5">
+        <v>-1.0551884524183881</v>
+      </c>
+      <c r="B202" s="4">
         <v>200</v>
       </c>
-      <c r="C202" s="8">
+      <c r="C202" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>1.274429336195382</v>
-      </c>
-      <c r="D202" s="8">
+        <v>1.798601216322449</v>
+      </c>
+      <c r="D202" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>0.55911799776189386</v>
+        <v>0.80576790160692657</v>
       </c>
     </row>
     <row r="203" spans="1:4">
-      <c r="A203" s="3"/>
+      <c r="A203" s="1"/>
     </row>
     <row r="204" spans="1:4">
-      <c r="A204" s="3"/>
+      <c r="A204" s="1"/>
     </row>
     <row r="205" spans="1:4">
-      <c r="A205" s="3"/>
+      <c r="A205" s="1"/>
     </row>
     <row r="206" spans="1:4">
-      <c r="A206" s="3"/>
+      <c r="A206" s="1"/>
     </row>
     <row r="207" spans="1:4">
-      <c r="A207" s="3"/>
+      <c r="A207" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6260,132 +8611,285 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="52.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="56.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7881D0-A5D8-4C60-BEA3-4EE174514CA5}">
+  <dimension ref="B2:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:6" ht="210">
+      <c r="B2" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="21">
+      <c r="B3" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="2:6" ht="42">
+      <c r="B4" s="11">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="2:6" ht="42">
+      <c r="B5" s="13">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="2:6" ht="42">
+      <c r="B6" s="11">
+        <v>4</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="2:6" ht="42">
+      <c r="B7" s="13">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="2:6" ht="42">
+      <c r="B8" s="11">
+        <v>6</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="2:6" ht="42">
+      <c r="B9" s="13">
+        <v>7</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="2:6" ht="42">
+      <c r="B10" s="11">
+        <v>8</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="2:6" ht="21">
+      <c r="B11" s="13">
+        <v>9</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="2:6" ht="21">
+      <c r="B12" s="11">
+        <v>10</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>